--- a/jyx2/excel/武功招式特效.xlsx
+++ b/jyx2/excel/武功招式特效.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23929"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\jyqxz-rematser\svn\trunk\jyx2\excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C3CFA82-3D44-402F-BD94-CF1AE1D4EDDB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28125" windowHeight="12090"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -19,27 +13,26 @@
     <externalReference r:id="rId2"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$Q$97</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$Q$98</definedName>
   </definedNames>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>cg</author>
     <author>CGGG</author>
   </authors>
   <commentList>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="D1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>cg:</t>
@@ -48,7 +41,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -56,14 +48,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="E1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>cg:</t>
@@ -72,7 +63,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -81,14 +71,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="K1" authorId="1">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>CGGG:</t>
@@ -97,7 +86,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -106,14 +94,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+    <comment ref="N1" authorId="1">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>CGGG:</t>
@@ -122,7 +109,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -130,14 +116,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
+    <comment ref="Q1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>cg:</t>
@@ -146,7 +131,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -160,7 +144,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="113">
   <si>
     <t>代号</t>
   </si>
@@ -348,6 +332,12 @@
     <t>Assets/BuildSource/sound/e48.wav</t>
   </si>
   <si>
+    <t>@Assets/3D/Animation/Jyx2Anims/泰山十八盘待机.anim</t>
+  </si>
+  <si>
+    <t>@Assets/3D/Animation/Jyx2Anims/泰山十八盘.anim</t>
+  </si>
+  <si>
     <t>Assets/BuildSource/sound/e23.wav</t>
   </si>
   <si>
@@ -396,6 +386,12 @@
     <t>Assets/BuildSource/sound/e35.wav</t>
   </si>
   <si>
+    <t>@Assets/3D/Animation/Jyx2Anims/独孤九剑待机.anim</t>
+  </si>
+  <si>
+    <t>@Assets/3D/Animation/Jyx2Anims/独孤九剑.anim</t>
+  </si>
+  <si>
     <t>Assets/Jyx2Effect/Prefabs/eft006.prefab</t>
   </si>
   <si>
@@ -487,14 +483,19 @@
   </si>
   <si>
     <t>Assets/3D/AnimationControllers/青蛙_controller.controller</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -505,50 +506,190 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -561,8 +702,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -598,21 +925,263 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -687,28 +1256,72 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="53">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="普通" xfId="1" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
-    <cellStyle name="普通 2" xfId="2" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
-    <cellStyle name="普通 3" xfId="4" xr:uid="{00000000-0005-0000-0000-000034000000}"/>
-    <cellStyle name="普通 4" xfId="3" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="普通" xfId="11"/>
+    <cellStyle name="百分比" xfId="12" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="13" builtinId="9"/>
+    <cellStyle name="普通 2" xfId="14"/>
+    <cellStyle name="注释" xfId="15" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="16" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="17" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="18" builtinId="11"/>
+    <cellStyle name="标题" xfId="19" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="20" builtinId="53"/>
+    <cellStyle name="普通 4" xfId="21"/>
+    <cellStyle name="标题 1" xfId="22" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="23" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="24" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="25" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="26" builtinId="44"/>
+    <cellStyle name="输出" xfId="27" builtinId="21"/>
+    <cellStyle name="计算" xfId="28" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="29" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="30" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="31" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="32" builtinId="24"/>
+    <cellStyle name="汇总" xfId="33" builtinId="25"/>
+    <cellStyle name="好" xfId="34" builtinId="26"/>
+    <cellStyle name="适中" xfId="35" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="36" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="37" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="38" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="39" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="40" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="41" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="42" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="43" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="44" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="45" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="46" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="47" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="48" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="49" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="50" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="51" builtinId="52"/>
+    <cellStyle name="普通 3" xfId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="main"/>
@@ -1828,27 +2441,29 @@
       <a:lstStyle/>
     </a:spDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:Q98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C92" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C43" activePane="bottomRight" state="frozen"/>
+      <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F98" sqref="F98"/>
+      <selection pane="bottomRight" activeCell="E48" sqref="E48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="2" width="9" style="2"/>
     <col min="3" max="3" width="8.125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="13.625" style="4" customWidth="1"/>
-    <col min="5" max="6" width="12.625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="28.125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="27.625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="12.625" style="5" customWidth="1"/>
     <col min="9" max="9" width="18.375" style="6" customWidth="1"/>
     <col min="10" max="10" width="12.75" customWidth="1"/>
     <col min="11" max="11" width="12.75" style="7" customWidth="1"/>
@@ -1859,7 +2474,7 @@
     <col min="17" max="17" width="43.75" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:17">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -1872,7 +2487,7 @@
       <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="5" t="s">
@@ -1912,7 +2527,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="54" x14ac:dyDescent="0.15">
+    <row r="2" ht="54" spans="1:16">
       <c r="A2" s="8">
         <v>0</v>
       </c>
@@ -1926,8 +2541,8 @@
       <c r="D2" s="4">
         <v>1</v>
       </c>
-      <c r="E2" s="5">
-        <v>0</v>
+      <c r="E2" s="4">
+        <v>1</v>
       </c>
       <c r="F2" s="11">
         <v>0</v>
@@ -1957,7 +2572,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="3" spans="1:17" s="1" customFormat="1" ht="54" x14ac:dyDescent="0.15">
+    <row r="3" s="1" customFormat="1" ht="54" spans="1:17">
       <c r="A3" s="12">
         <v>1</v>
       </c>
@@ -1971,7 +2586,7 @@
       <c r="D3" s="15">
         <v>17</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E3" s="4">
         <v>1</v>
       </c>
       <c r="F3" s="11">
@@ -2007,7 +2622,7 @@
       </c>
       <c r="Q3" s="15"/>
     </row>
-    <row r="4" spans="1:17" ht="54" x14ac:dyDescent="0.15">
+    <row r="4" ht="54" spans="1:16">
       <c r="A4" s="8">
         <v>2</v>
       </c>
@@ -2021,7 +2636,7 @@
       <c r="D4" s="4">
         <v>17</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="4">
         <v>1</v>
       </c>
       <c r="F4" s="5">
@@ -2052,7 +2667,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="54" x14ac:dyDescent="0.15">
+    <row r="5" ht="54" spans="1:16">
       <c r="A5" s="8">
         <v>3</v>
       </c>
@@ -2066,7 +2681,7 @@
       <c r="D5" s="4">
         <v>5</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="4">
         <v>1</v>
       </c>
       <c r="F5" s="5">
@@ -2097,7 +2712,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="54" x14ac:dyDescent="0.15">
+    <row r="6" ht="54" spans="1:16">
       <c r="A6" s="8">
         <v>4</v>
       </c>
@@ -2111,7 +2726,7 @@
       <c r="D6" s="4">
         <v>19</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="4">
         <v>4</v>
       </c>
       <c r="F6" s="5">
@@ -2142,7 +2757,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="54" x14ac:dyDescent="0.15">
+    <row r="7" ht="54" spans="1:16">
       <c r="A7" s="8">
         <v>5</v>
       </c>
@@ -2156,7 +2771,7 @@
       <c r="D7" s="4">
         <v>9</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="4">
         <v>5</v>
       </c>
       <c r="F7" s="5">
@@ -2166,7 +2781,7 @@
         <v>1.5</v>
       </c>
       <c r="H7">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="I7" s="6" t="s">
         <v>25</v>
@@ -2187,7 +2802,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="54" x14ac:dyDescent="0.15">
+    <row r="8" ht="54" spans="1:16">
       <c r="A8" s="8">
         <v>6</v>
       </c>
@@ -2201,7 +2816,7 @@
       <c r="D8" s="4">
         <v>7</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="4">
         <v>6</v>
       </c>
       <c r="F8" s="5">
@@ -2211,7 +2826,7 @@
         <v>1.5</v>
       </c>
       <c r="H8">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="I8" s="6" t="s">
         <v>24</v>
@@ -2232,7 +2847,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="54" x14ac:dyDescent="0.15">
+    <row r="9" ht="54" spans="1:16">
       <c r="A9" s="8">
         <v>7</v>
       </c>
@@ -2246,7 +2861,7 @@
       <c r="D9" s="4">
         <v>13</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="4">
         <v>7</v>
       </c>
       <c r="F9" s="5">
@@ -2277,7 +2892,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="54" x14ac:dyDescent="0.15">
+    <row r="10" ht="54" spans="1:16">
       <c r="A10" s="8">
         <v>8</v>
       </c>
@@ -2291,7 +2906,7 @@
       <c r="D10" s="4">
         <v>18</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="4">
         <v>8</v>
       </c>
       <c r="F10" s="5">
@@ -2301,7 +2916,7 @@
         <v>1.5</v>
       </c>
       <c r="H10">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="I10" s="6" t="s">
         <v>24</v>
@@ -2322,7 +2937,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="54" x14ac:dyDescent="0.15">
+    <row r="11" ht="54" spans="1:16">
       <c r="A11" s="8">
         <v>9</v>
       </c>
@@ -2336,7 +2951,7 @@
       <c r="D11" s="4">
         <v>12</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="4">
         <v>9</v>
       </c>
       <c r="F11" s="5">
@@ -2346,7 +2961,7 @@
         <v>1.5</v>
       </c>
       <c r="H11">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="I11" s="6" t="s">
         <v>25</v>
@@ -2367,7 +2982,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="54" x14ac:dyDescent="0.15">
+    <row r="12" ht="54" spans="1:16">
       <c r="A12" s="8">
         <v>10</v>
       </c>
@@ -2381,7 +2996,7 @@
       <c r="D12" s="4">
         <v>19</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12" s="4">
         <v>10</v>
       </c>
       <c r="F12" s="5">
@@ -2391,7 +3006,7 @@
         <v>1.5</v>
       </c>
       <c r="H12">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="I12" s="6" t="s">
         <v>17</v>
@@ -2412,7 +3027,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="54" x14ac:dyDescent="0.15">
+    <row r="13" ht="54" spans="1:16">
       <c r="A13" s="8">
         <v>11</v>
       </c>
@@ -2426,7 +3041,7 @@
       <c r="D13" s="4">
         <v>7</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E13" s="4">
         <v>11</v>
       </c>
       <c r="F13" s="5">
@@ -2457,7 +3072,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="54" x14ac:dyDescent="0.15">
+    <row r="14" ht="54" spans="1:16">
       <c r="A14" s="8">
         <v>12</v>
       </c>
@@ -2471,7 +3086,7 @@
       <c r="D14" s="4">
         <v>15</v>
       </c>
-      <c r="E14" s="5">
+      <c r="E14" s="4">
         <v>12</v>
       </c>
       <c r="F14" s="5">
@@ -2502,7 +3117,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="54" x14ac:dyDescent="0.15">
+    <row r="15" ht="54" spans="1:16">
       <c r="A15" s="8">
         <v>13</v>
       </c>
@@ -2516,7 +3131,7 @@
       <c r="D15" s="4">
         <v>12</v>
       </c>
-      <c r="E15" s="5">
+      <c r="E15" s="4">
         <v>13</v>
       </c>
       <c r="F15" s="5">
@@ -2547,7 +3162,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="54" x14ac:dyDescent="0.15">
+    <row r="16" ht="54" spans="1:16">
       <c r="A16" s="8">
         <v>14</v>
       </c>
@@ -2561,7 +3176,7 @@
       <c r="D16" s="4">
         <v>5</v>
       </c>
-      <c r="E16" s="5">
+      <c r="E16" s="4">
         <v>14</v>
       </c>
       <c r="F16" s="5">
@@ -2571,7 +3186,7 @@
         <v>1.5</v>
       </c>
       <c r="H16">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="I16" s="6" t="s">
         <v>24</v>
@@ -2592,7 +3207,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="54" x14ac:dyDescent="0.15">
+    <row r="17" ht="54" spans="1:16">
       <c r="A17" s="8">
         <v>15</v>
       </c>
@@ -2606,7 +3221,7 @@
       <c r="D17" s="4">
         <v>19</v>
       </c>
-      <c r="E17" s="5">
+      <c r="E17" s="4">
         <v>15</v>
       </c>
       <c r="F17" s="5">
@@ -2616,7 +3231,7 @@
         <v>1.5</v>
       </c>
       <c r="H17">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="I17" s="6" t="s">
         <v>24</v>
@@ -2637,7 +3252,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="54" x14ac:dyDescent="0.15">
+    <row r="18" ht="54" spans="1:16">
       <c r="A18" s="8">
         <v>16</v>
       </c>
@@ -2651,7 +3266,7 @@
       <c r="D18" s="4">
         <v>16</v>
       </c>
-      <c r="E18" s="5">
+      <c r="E18" s="4">
         <v>16</v>
       </c>
       <c r="F18" s="5">
@@ -2682,7 +3297,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="54" x14ac:dyDescent="0.15">
+    <row r="19" ht="54" spans="1:16">
       <c r="A19" s="8">
         <v>17</v>
       </c>
@@ -2696,7 +3311,7 @@
       <c r="D19" s="4">
         <v>1</v>
       </c>
-      <c r="E19" s="5">
+      <c r="E19" s="4">
         <v>17</v>
       </c>
       <c r="F19" s="5">
@@ -2727,7 +3342,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="54" x14ac:dyDescent="0.15">
+    <row r="20" ht="54" spans="1:16">
       <c r="A20" s="8">
         <v>18</v>
       </c>
@@ -2741,7 +3356,7 @@
       <c r="D20" s="4">
         <v>5</v>
       </c>
-      <c r="E20" s="5">
+      <c r="E20" s="4">
         <v>18</v>
       </c>
       <c r="F20" s="5">
@@ -2751,7 +3366,7 @@
         <v>1.5</v>
       </c>
       <c r="H20">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="I20" s="6" t="s">
         <v>40</v>
@@ -2772,7 +3387,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="54" x14ac:dyDescent="0.15">
+    <row r="21" ht="54" spans="1:16">
       <c r="A21" s="8">
         <v>19</v>
       </c>
@@ -2786,7 +3401,7 @@
       <c r="D21" s="4">
         <v>5</v>
       </c>
-      <c r="E21" s="5">
+      <c r="E21" s="4">
         <v>19</v>
       </c>
       <c r="F21" s="5">
@@ -2817,7 +3432,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="54" x14ac:dyDescent="0.15">
+    <row r="22" ht="54" spans="1:16">
       <c r="A22" s="8">
         <v>20</v>
       </c>
@@ -2831,7 +3446,7 @@
       <c r="D22" s="4">
         <v>8</v>
       </c>
-      <c r="E22" s="5">
+      <c r="E22" s="4">
         <v>20</v>
       </c>
       <c r="F22" s="5">
@@ -2841,7 +3456,7 @@
         <v>1.5</v>
       </c>
       <c r="H22">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="I22" s="6" t="s">
         <v>34</v>
@@ -2862,7 +3477,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="54" x14ac:dyDescent="0.15">
+    <row r="23" ht="54" spans="1:16">
       <c r="A23" s="8">
         <v>21</v>
       </c>
@@ -2876,7 +3491,7 @@
       <c r="D23" s="4">
         <v>17</v>
       </c>
-      <c r="E23" s="5">
+      <c r="E23" s="4">
         <v>21</v>
       </c>
       <c r="F23" s="5">
@@ -2886,7 +3501,7 @@
         <v>1.5</v>
       </c>
       <c r="H23">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="I23" s="6" t="s">
         <v>34</v>
@@ -2907,7 +3522,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="54" x14ac:dyDescent="0.15">
+    <row r="24" ht="54" spans="1:16">
       <c r="A24" s="8">
         <v>22</v>
       </c>
@@ -2921,7 +3536,7 @@
       <c r="D24" s="4">
         <v>13</v>
       </c>
-      <c r="E24" s="5">
+      <c r="E24" s="4">
         <v>22</v>
       </c>
       <c r="F24" s="5">
@@ -2931,7 +3546,7 @@
         <v>1.5</v>
       </c>
       <c r="H24">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="I24" s="6" t="s">
         <v>25</v>
@@ -2952,7 +3567,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="54" x14ac:dyDescent="0.15">
+    <row r="25" ht="54" spans="1:16">
       <c r="A25" s="8">
         <v>23</v>
       </c>
@@ -2966,7 +3581,7 @@
       <c r="D25" s="4">
         <v>1</v>
       </c>
-      <c r="E25" s="5">
+      <c r="E25" s="4">
         <v>23</v>
       </c>
       <c r="F25" s="5">
@@ -2976,7 +3591,7 @@
         <v>1.5</v>
       </c>
       <c r="H25">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="I25" s="6" t="s">
         <v>47</v>
@@ -2997,7 +3612,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="54" x14ac:dyDescent="0.15">
+    <row r="26" ht="54" spans="1:16">
       <c r="A26" s="8">
         <v>24</v>
       </c>
@@ -3011,7 +3626,7 @@
       <c r="D26" s="4">
         <v>3</v>
       </c>
-      <c r="E26" s="5">
+      <c r="E26" s="4">
         <v>24</v>
       </c>
       <c r="F26" s="5">
@@ -3042,7 +3657,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="27" spans="1:16" ht="54" x14ac:dyDescent="0.15">
+    <row r="27" ht="54" spans="1:16">
       <c r="A27" s="8">
         <v>25</v>
       </c>
@@ -3056,7 +3671,7 @@
       <c r="D27" s="4">
         <v>25</v>
       </c>
-      <c r="E27" s="5">
+      <c r="E27" s="4">
         <v>25</v>
       </c>
       <c r="F27" s="5">
@@ -3087,7 +3702,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="28" spans="1:16" ht="54" x14ac:dyDescent="0.15">
+    <row r="28" ht="54" spans="1:16">
       <c r="A28" s="8">
         <v>26</v>
       </c>
@@ -3101,7 +3716,7 @@
       <c r="D28" s="4">
         <v>10</v>
       </c>
-      <c r="E28" s="5">
+      <c r="E28" s="4">
         <v>26</v>
       </c>
       <c r="F28" s="5">
@@ -3133,7 +3748,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="54" x14ac:dyDescent="0.15">
+    <row r="29" ht="54" spans="1:16">
       <c r="A29" s="8">
         <v>27</v>
       </c>
@@ -3147,7 +3762,7 @@
       <c r="D29" s="4">
         <v>19</v>
       </c>
-      <c r="E29" s="5">
+      <c r="E29" s="4">
         <v>27</v>
       </c>
       <c r="F29" s="5">
@@ -3157,7 +3772,7 @@
         <v>1.5</v>
       </c>
       <c r="H29">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="I29" s="6" t="s">
         <v>25</v>
@@ -3179,7 +3794,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="54" x14ac:dyDescent="0.15">
+    <row r="30" ht="54" spans="1:16">
       <c r="A30" s="8">
         <v>28</v>
       </c>
@@ -3193,7 +3808,7 @@
       <c r="D30" s="4">
         <v>15</v>
       </c>
-      <c r="E30" s="5">
+      <c r="E30" s="4">
         <v>28</v>
       </c>
       <c r="F30" s="5">
@@ -3225,7 +3840,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="31" spans="1:16" ht="54" x14ac:dyDescent="0.15">
+    <row r="31" ht="54" spans="1:16">
       <c r="A31" s="8">
         <v>29</v>
       </c>
@@ -3239,7 +3854,7 @@
       <c r="D31" s="4">
         <v>10</v>
       </c>
-      <c r="E31" s="5">
+      <c r="E31" s="4">
         <v>29</v>
       </c>
       <c r="F31" s="5">
@@ -3271,7 +3886,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="32" spans="1:16" ht="54" x14ac:dyDescent="0.15">
+    <row r="32" ht="54" spans="1:16">
       <c r="A32" s="8">
         <v>30</v>
       </c>
@@ -3285,7 +3900,7 @@
       <c r="D32" s="4">
         <v>10</v>
       </c>
-      <c r="E32" s="5">
+      <c r="E32" s="4">
         <v>30</v>
       </c>
       <c r="F32" s="5">
@@ -3295,7 +3910,7 @@
         <v>1.5</v>
       </c>
       <c r="H32">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="I32" s="6" t="s">
         <v>25</v>
@@ -3317,7 +3932,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="33" spans="1:16" ht="54" x14ac:dyDescent="0.15">
+    <row r="33" ht="54" spans="1:16">
       <c r="A33" s="8">
         <v>31</v>
       </c>
@@ -3331,7 +3946,7 @@
       <c r="D33" s="4">
         <v>1</v>
       </c>
-      <c r="E33" s="5">
+      <c r="E33" s="4">
         <v>31</v>
       </c>
       <c r="F33" s="5">
@@ -3363,7 +3978,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="34" spans="1:16" ht="54" x14ac:dyDescent="0.15">
+    <row r="34" ht="54" spans="1:16">
       <c r="A34" s="8">
         <v>32</v>
       </c>
@@ -3377,7 +3992,7 @@
       <c r="D34" s="4">
         <v>6</v>
       </c>
-      <c r="E34" s="5">
+      <c r="E34" s="4">
         <v>32</v>
       </c>
       <c r="F34" s="5">
@@ -3409,7 +4024,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="35" spans="1:16" ht="54" x14ac:dyDescent="0.15">
+    <row r="35" ht="54" spans="1:16">
       <c r="A35" s="8">
         <v>33</v>
       </c>
@@ -3423,7 +4038,7 @@
       <c r="D35" s="4">
         <v>6</v>
       </c>
-      <c r="E35" s="5">
+      <c r="E35" s="4">
         <v>31</v>
       </c>
       <c r="F35" s="5">
@@ -3455,7 +4070,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="36" spans="1:16" ht="54" x14ac:dyDescent="0.15">
+    <row r="36" ht="54" spans="1:16">
       <c r="A36" s="8">
         <v>34</v>
       </c>
@@ -3469,7 +4084,7 @@
       <c r="D36" s="4">
         <v>6</v>
       </c>
-      <c r="E36" s="5">
+      <c r="E36" s="4">
         <v>34</v>
       </c>
       <c r="F36" s="5">
@@ -3501,7 +4116,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="37" spans="1:16" ht="54" x14ac:dyDescent="0.15">
+    <row r="37" ht="54" spans="1:16">
       <c r="A37" s="8">
         <v>35</v>
       </c>
@@ -3515,7 +4130,7 @@
       <c r="D37" s="4">
         <v>6</v>
       </c>
-      <c r="E37" s="5">
+      <c r="E37" s="4">
         <v>35</v>
       </c>
       <c r="F37" s="5">
@@ -3525,7 +4140,7 @@
         <v>1.5</v>
       </c>
       <c r="H37">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="I37" s="6" t="s">
         <v>58</v>
@@ -3547,7 +4162,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="38" spans="1:16" ht="54" x14ac:dyDescent="0.15">
+    <row r="38" ht="54" spans="1:16">
       <c r="A38" s="8">
         <v>36</v>
       </c>
@@ -3561,7 +4176,7 @@
       <c r="D38" s="4">
         <v>6</v>
       </c>
-      <c r="E38" s="5">
+      <c r="E38" s="4">
         <v>36</v>
       </c>
       <c r="F38" s="5">
@@ -3593,7 +4208,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="39" spans="1:16" ht="54" x14ac:dyDescent="0.15">
+    <row r="39" ht="54" spans="1:16">
       <c r="A39" s="8">
         <v>37</v>
       </c>
@@ -3607,7 +4222,7 @@
       <c r="D39" s="4">
         <v>6</v>
       </c>
-      <c r="E39" s="5">
+      <c r="E39" s="4">
         <v>14</v>
       </c>
       <c r="F39" s="5">
@@ -3617,7 +4232,7 @@
         <v>1.5</v>
       </c>
       <c r="H39">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="I39" s="6" t="s">
         <v>58</v>
@@ -3639,7 +4254,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="40" spans="1:16" ht="54" x14ac:dyDescent="0.15">
+    <row r="40" ht="54" spans="1:16">
       <c r="A40" s="8">
         <v>38</v>
       </c>
@@ -3653,7 +4268,7 @@
       <c r="D40" s="4">
         <v>6</v>
       </c>
-      <c r="E40" s="5">
+      <c r="E40" s="4">
         <v>38</v>
       </c>
       <c r="F40" s="5">
@@ -3685,7 +4300,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="41" spans="1:16" ht="54" x14ac:dyDescent="0.15">
+    <row r="41" ht="54" spans="1:16">
       <c r="A41" s="8">
         <v>39</v>
       </c>
@@ -3699,7 +4314,7 @@
       <c r="D41" s="4">
         <v>6</v>
       </c>
-      <c r="E41" s="5">
+      <c r="E41" s="4">
         <v>35</v>
       </c>
       <c r="F41" s="5">
@@ -3709,7 +4324,7 @@
         <v>1.5</v>
       </c>
       <c r="H41">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="I41" s="6" t="s">
         <v>58</v>
@@ -3731,7 +4346,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="42" spans="1:16" ht="54" x14ac:dyDescent="0.15">
+    <row r="42" ht="54" spans="1:16">
       <c r="A42" s="8">
         <v>40</v>
       </c>
@@ -3745,7 +4360,7 @@
       <c r="D42" s="4">
         <v>6</v>
       </c>
-      <c r="E42" s="5">
+      <c r="E42" s="4">
         <v>40</v>
       </c>
       <c r="F42" s="5">
@@ -3777,7 +4392,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:16" ht="54" x14ac:dyDescent="0.15">
+    <row r="43" ht="54" spans="1:16">
       <c r="A43" s="8">
         <v>41</v>
       </c>
@@ -3791,7 +4406,7 @@
       <c r="D43" s="4">
         <v>6</v>
       </c>
-      <c r="E43" s="5">
+      <c r="E43" s="4">
         <v>20</v>
       </c>
       <c r="F43" s="5">
@@ -3801,7 +4416,7 @@
         <v>1.5</v>
       </c>
       <c r="H43">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="I43" s="6" t="s">
         <v>58</v>
@@ -3823,7 +4438,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="44" spans="1:16" ht="54" x14ac:dyDescent="0.15">
+    <row r="44" ht="54" spans="1:16">
       <c r="A44" s="8">
         <v>42</v>
       </c>
@@ -3837,7 +4452,7 @@
       <c r="D44" s="4">
         <v>6</v>
       </c>
-      <c r="E44" s="5">
+      <c r="E44" s="4">
         <v>42</v>
       </c>
       <c r="F44" s="5">
@@ -3847,7 +4462,7 @@
         <v>1.5</v>
       </c>
       <c r="H44">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="I44" s="6" t="s">
         <v>58</v>
@@ -3869,7 +4484,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="45" spans="1:16" ht="54" x14ac:dyDescent="0.15">
+    <row r="45" ht="54" spans="1:16">
       <c r="A45" s="8">
         <v>43</v>
       </c>
@@ -3883,7 +4498,7 @@
       <c r="D45" s="4">
         <v>6</v>
       </c>
-      <c r="E45" s="5">
+      <c r="E45" s="4">
         <v>36</v>
       </c>
       <c r="F45" s="5">
@@ -3915,7 +4530,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="46" spans="1:16" ht="54" x14ac:dyDescent="0.15">
+    <row r="46" ht="54" spans="1:16">
       <c r="A46" s="8">
         <v>44</v>
       </c>
@@ -3929,7 +4544,7 @@
       <c r="D46" s="4">
         <v>6</v>
       </c>
-      <c r="E46" s="5">
+      <c r="E46" s="4">
         <v>32</v>
       </c>
       <c r="F46" s="5">
@@ -3961,7 +4576,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="47" spans="1:16" ht="54" x14ac:dyDescent="0.15">
+    <row r="47" ht="54" spans="1:16">
       <c r="A47" s="8">
         <v>45</v>
       </c>
@@ -3972,11 +4587,11 @@
       <c r="C47" s="3">
         <v>1</v>
       </c>
-      <c r="D47" s="4">
-        <v>16</v>
-      </c>
-      <c r="E47" s="5">
-        <v>45</v>
+      <c r="D47" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>63</v>
       </c>
       <c r="F47" s="5">
         <v>0</v>
@@ -4000,14 +4615,14 @@
         <v>0.6</v>
       </c>
       <c r="O47" s="16" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P47">
         <f t="shared" si="0"/>
         <v>0.4</v>
       </c>
     </row>
-    <row r="48" spans="1:16" ht="54" x14ac:dyDescent="0.15">
+    <row r="48" ht="54" spans="1:16">
       <c r="A48" s="8">
         <v>46</v>
       </c>
@@ -4021,7 +4636,7 @@
       <c r="D48" s="4">
         <v>17</v>
       </c>
-      <c r="E48" s="5">
+      <c r="E48" s="4">
         <v>46</v>
       </c>
       <c r="F48" s="5">
@@ -4046,14 +4661,14 @@
         <v>1.5</v>
       </c>
       <c r="O48" s="16" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P48">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:17" ht="54" x14ac:dyDescent="0.15">
+    <row r="49" ht="54" spans="1:16">
       <c r="A49" s="8">
         <v>47</v>
       </c>
@@ -4067,7 +4682,7 @@
       <c r="D49" s="4">
         <v>9</v>
       </c>
-      <c r="E49" s="5">
+      <c r="E49" s="4">
         <v>47</v>
       </c>
       <c r="F49" s="5">
@@ -4092,14 +4707,14 @@
         <v>0.6</v>
       </c>
       <c r="O49" s="16" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="P49">
         <f t="shared" si="0"/>
         <v>0.4</v>
       </c>
     </row>
-    <row r="50" spans="1:17" ht="54" x14ac:dyDescent="0.15">
+    <row r="50" ht="54" spans="1:16">
       <c r="A50" s="8">
         <v>48</v>
       </c>
@@ -4113,7 +4728,7 @@
       <c r="D50" s="4">
         <v>13</v>
       </c>
-      <c r="E50" s="5">
+      <c r="E50" s="4">
         <v>48</v>
       </c>
       <c r="F50" s="5">
@@ -4138,14 +4753,14 @@
         <v>1.5</v>
       </c>
       <c r="O50" s="16" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="P50">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:17" ht="54" x14ac:dyDescent="0.15">
+    <row r="51" ht="54" spans="1:16">
       <c r="A51" s="8">
         <v>49</v>
       </c>
@@ -4159,7 +4774,7 @@
       <c r="D51" s="4">
         <v>9</v>
       </c>
-      <c r="E51" s="5">
+      <c r="E51" s="4">
         <v>49</v>
       </c>
       <c r="F51" s="5">
@@ -4184,14 +4799,14 @@
         <v>1.5</v>
       </c>
       <c r="O51" s="16" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="P51">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:17" ht="54" x14ac:dyDescent="0.15">
+    <row r="52" ht="54" spans="1:16">
       <c r="A52" s="8">
         <v>50</v>
       </c>
@@ -4205,7 +4820,7 @@
       <c r="D52" s="4">
         <v>19</v>
       </c>
-      <c r="E52" s="5">
+      <c r="E52" s="4">
         <v>50</v>
       </c>
       <c r="F52" s="5">
@@ -4215,7 +4830,7 @@
         <v>1.5</v>
       </c>
       <c r="H52">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="I52" s="6" t="s">
         <v>58</v>
@@ -4230,14 +4845,14 @@
         <v>0.9</v>
       </c>
       <c r="O52" s="16" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="P52">
         <f t="shared" si="0"/>
         <v>0.6</v>
       </c>
     </row>
-    <row r="53" spans="1:17" ht="54" x14ac:dyDescent="0.15">
+    <row r="53" ht="54" spans="1:16">
       <c r="A53" s="8">
         <v>51</v>
       </c>
@@ -4251,7 +4866,7 @@
       <c r="D53" s="4">
         <v>19</v>
       </c>
-      <c r="E53" s="5">
+      <c r="E53" s="4">
         <v>51</v>
       </c>
       <c r="F53" s="5">
@@ -4261,7 +4876,7 @@
         <v>1.5</v>
       </c>
       <c r="H53">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="I53" s="6" t="s">
         <v>58</v>
@@ -4276,14 +4891,14 @@
         <v>0.9</v>
       </c>
       <c r="O53" s="16" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="P53">
         <f t="shared" si="0"/>
         <v>0.6</v>
       </c>
     </row>
-    <row r="54" spans="1:17" ht="54" x14ac:dyDescent="0.15">
+    <row r="54" ht="54" spans="1:16">
       <c r="A54" s="8">
         <v>52</v>
       </c>
@@ -4297,7 +4912,7 @@
       <c r="D54" s="4">
         <v>9</v>
       </c>
-      <c r="E54" s="5">
+      <c r="E54" s="4">
         <v>6</v>
       </c>
       <c r="F54" s="5">
@@ -4307,7 +4922,7 @@
         <v>1.5</v>
       </c>
       <c r="H54">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="I54" s="6" t="s">
         <v>58</v>
@@ -4322,14 +4937,14 @@
         <v>0.9</v>
       </c>
       <c r="O54" s="16" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="P54">
         <f t="shared" si="0"/>
         <v>0.6</v>
       </c>
     </row>
-    <row r="55" spans="1:17" ht="54" x14ac:dyDescent="0.15">
+    <row r="55" ht="54" spans="1:16">
       <c r="A55" s="8">
         <v>53</v>
       </c>
@@ -4343,7 +4958,7 @@
       <c r="D55" s="4">
         <v>13</v>
       </c>
-      <c r="E55" s="5">
+      <c r="E55" s="4">
         <v>13</v>
       </c>
       <c r="F55" s="5">
@@ -4356,7 +4971,7 @@
         <v>0.7</v>
       </c>
       <c r="I55" s="6" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="J55">
         <v>0</v>
@@ -4368,14 +4983,14 @@
         <v>0.6</v>
       </c>
       <c r="O55" s="16" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="P55">
         <f t="shared" si="0"/>
         <v>0.4</v>
       </c>
     </row>
-    <row r="56" spans="1:17" ht="54" x14ac:dyDescent="0.15">
+    <row r="56" ht="54" spans="1:16">
       <c r="A56" s="8">
         <v>54</v>
       </c>
@@ -4389,7 +5004,7 @@
       <c r="D56" s="4">
         <v>17</v>
       </c>
-      <c r="E56" s="5">
+      <c r="E56" s="4">
         <v>54</v>
       </c>
       <c r="F56" s="5">
@@ -4399,7 +5014,7 @@
         <v>1.5</v>
       </c>
       <c r="H56">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="I56" s="6" t="s">
         <v>58</v>
@@ -4414,14 +5029,14 @@
         <v>0.9</v>
       </c>
       <c r="O56" s="16" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="P56">
         <f t="shared" si="0"/>
         <v>0.6</v>
       </c>
     </row>
-    <row r="57" spans="1:17" ht="54" x14ac:dyDescent="0.15">
+    <row r="57" ht="54" spans="1:16">
       <c r="A57" s="8">
         <v>55</v>
       </c>
@@ -4435,7 +5050,7 @@
       <c r="D57" s="4">
         <v>16</v>
       </c>
-      <c r="E57" s="5">
+      <c r="E57" s="4">
         <v>10</v>
       </c>
       <c r="F57" s="5">
@@ -4445,7 +5060,7 @@
         <v>1.5</v>
       </c>
       <c r="H57">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="I57" s="6" t="s">
         <v>58</v>
@@ -4460,14 +5075,14 @@
         <v>0.9</v>
       </c>
       <c r="O57" s="16" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="P57">
         <f t="shared" si="0"/>
         <v>0.6</v>
       </c>
     </row>
-    <row r="58" spans="1:17" ht="54" x14ac:dyDescent="0.15">
+    <row r="58" ht="54" spans="1:16">
       <c r="A58" s="8">
         <v>56</v>
       </c>
@@ -4481,7 +5096,7 @@
       <c r="D58" s="4">
         <v>13</v>
       </c>
-      <c r="E58" s="5">
+      <c r="E58" s="4">
         <v>56</v>
       </c>
       <c r="F58" s="5">
@@ -4491,7 +5106,7 @@
         <v>1.5</v>
       </c>
       <c r="H58">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="I58" s="6" t="s">
         <v>58</v>
@@ -4506,14 +5121,14 @@
         <v>0.9</v>
       </c>
       <c r="O58" s="16" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P58">
         <f t="shared" si="0"/>
         <v>0.6</v>
       </c>
     </row>
-    <row r="59" spans="1:17" ht="54" x14ac:dyDescent="0.15">
+    <row r="59" ht="54" spans="1:16">
       <c r="A59" s="8">
         <v>57</v>
       </c>
@@ -4527,7 +5142,7 @@
       <c r="D59" s="4">
         <v>3</v>
       </c>
-      <c r="E59" s="5">
+      <c r="E59" s="4">
         <v>57</v>
       </c>
       <c r="F59" s="5">
@@ -4537,10 +5152,10 @@
         <v>1.5</v>
       </c>
       <c r="H59">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="I59" s="6" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="J59">
         <v>0</v>
@@ -4552,14 +5167,14 @@
         <v>0.9</v>
       </c>
       <c r="O59" s="16" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="P59">
         <f t="shared" si="0"/>
         <v>0.6</v>
       </c>
     </row>
-    <row r="60" spans="1:17" ht="54" x14ac:dyDescent="0.15">
+    <row r="60" ht="54" spans="1:16">
       <c r="A60" s="8">
         <v>58</v>
       </c>
@@ -4573,7 +5188,7 @@
       <c r="D60" s="4">
         <v>8</v>
       </c>
-      <c r="E60" s="5">
+      <c r="E60" s="4">
         <v>58</v>
       </c>
       <c r="F60" s="5">
@@ -4598,14 +5213,14 @@
         <v>1.5</v>
       </c>
       <c r="O60" s="16" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="P60">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:17" ht="54" x14ac:dyDescent="0.15">
+    <row r="61" ht="54" spans="1:16">
       <c r="A61" s="8">
         <v>59</v>
       </c>
@@ -4619,7 +5234,7 @@
       <c r="D61" s="4">
         <v>5</v>
       </c>
-      <c r="E61" s="5">
+      <c r="E61" s="4">
         <v>59</v>
       </c>
       <c r="F61" s="5">
@@ -4644,14 +5259,14 @@
         <v>0.6</v>
       </c>
       <c r="O61" s="16" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="P61">
         <f t="shared" si="0"/>
         <v>0.4</v>
       </c>
     </row>
-    <row r="62" spans="1:17" ht="54" x14ac:dyDescent="0.15">
+    <row r="62" ht="54" spans="1:16">
       <c r="A62" s="8">
         <v>60</v>
       </c>
@@ -4665,7 +5280,7 @@
       <c r="D62" s="4">
         <v>10</v>
       </c>
-      <c r="E62" s="5">
+      <c r="E62" s="4">
         <v>60</v>
       </c>
       <c r="F62" s="5">
@@ -4678,7 +5293,7 @@
         <v>1.8</v>
       </c>
       <c r="I62" s="6" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="J62">
         <v>0</v>
@@ -4690,14 +5305,14 @@
         <v>1.5</v>
       </c>
       <c r="O62" s="16" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="P62">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:17" s="1" customFormat="1" ht="54" x14ac:dyDescent="0.15">
+    <row r="63" s="1" customFormat="1" ht="54" spans="1:17">
       <c r="A63" s="12">
         <v>61</v>
       </c>
@@ -4708,11 +5323,11 @@
       <c r="C63" s="14">
         <v>1</v>
       </c>
-      <c r="D63" s="15">
-        <v>61</v>
-      </c>
-      <c r="E63" s="5">
-        <v>61</v>
+      <c r="D63" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>81</v>
       </c>
       <c r="F63" s="5">
         <v>0</v>
@@ -4731,14 +5346,14 @@
       </c>
       <c r="K63" s="18"/>
       <c r="L63" s="17" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="M63">
         <v>1.5</v>
       </c>
       <c r="N63" s="7"/>
       <c r="O63" s="16" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="P63">
         <f t="shared" si="0"/>
@@ -4746,7 +5361,7 @@
       </c>
       <c r="Q63" s="15"/>
     </row>
-    <row r="64" spans="1:17" ht="54" x14ac:dyDescent="0.15">
+    <row r="64" ht="54" spans="1:16">
       <c r="A64" s="8">
         <v>62</v>
       </c>
@@ -4760,7 +5375,7 @@
       <c r="D64" s="4">
         <v>1</v>
       </c>
-      <c r="E64" s="5">
+      <c r="E64" s="4">
         <v>62</v>
       </c>
       <c r="F64" s="5">
@@ -4773,7 +5388,7 @@
         <v>1.8</v>
       </c>
       <c r="I64" s="6" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="J64">
         <v>0</v>
@@ -4785,14 +5400,14 @@
         <v>1.5</v>
       </c>
       <c r="O64" s="16" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="P64">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:17" ht="54" x14ac:dyDescent="0.15">
+    <row r="65" ht="54" spans="1:16">
       <c r="A65" s="8">
         <v>63</v>
       </c>
@@ -4806,7 +5421,7 @@
       <c r="D65" s="4">
         <v>7</v>
       </c>
-      <c r="E65" s="5">
+      <c r="E65" s="4">
         <v>63</v>
       </c>
       <c r="F65" s="5">
@@ -4819,7 +5434,7 @@
         <v>0.7</v>
       </c>
       <c r="I65" s="6" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="J65">
         <v>0</v>
@@ -4831,14 +5446,14 @@
         <v>0.6</v>
       </c>
       <c r="O65" s="16" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P65">
         <f t="shared" si="0"/>
         <v>0.4</v>
       </c>
     </row>
-    <row r="66" spans="1:17" s="1" customFormat="1" ht="54" x14ac:dyDescent="0.15">
+    <row r="66" s="1" customFormat="1" ht="54" spans="1:17">
       <c r="A66" s="12">
         <v>64</v>
       </c>
@@ -4852,7 +5467,7 @@
       <c r="D66" s="15">
         <v>18</v>
       </c>
-      <c r="E66" s="5">
+      <c r="E66" s="4">
         <v>64</v>
       </c>
       <c r="F66" s="5">
@@ -4865,7 +5480,7 @@
         <v>1.8</v>
       </c>
       <c r="I66" s="17" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="J66">
         <v>0</v>
@@ -4879,7 +5494,7 @@
       </c>
       <c r="N66" s="7"/>
       <c r="O66" s="16" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="P66">
         <f t="shared" si="0"/>
@@ -4887,7 +5502,7 @@
       </c>
       <c r="Q66" s="15"/>
     </row>
-    <row r="67" spans="1:17" ht="54" x14ac:dyDescent="0.15">
+    <row r="67" ht="54" spans="1:16">
       <c r="A67" s="8">
         <v>65</v>
       </c>
@@ -4901,7 +5516,7 @@
       <c r="D67" s="4">
         <v>15</v>
       </c>
-      <c r="E67" s="5">
+      <c r="E67" s="4">
         <v>40</v>
       </c>
       <c r="F67" s="5">
@@ -4914,7 +5529,7 @@
         <v>1.8</v>
       </c>
       <c r="I67" s="6" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="J67">
         <v>0</v>
@@ -4926,14 +5541,14 @@
         <v>1.5</v>
       </c>
       <c r="O67" s="16" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="P67">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:17" ht="54" x14ac:dyDescent="0.15">
+    <row r="68" ht="54" spans="1:16">
       <c r="A68" s="8">
         <v>66</v>
       </c>
@@ -4947,7 +5562,7 @@
       <c r="D68" s="4">
         <v>5</v>
       </c>
-      <c r="E68" s="5">
+      <c r="E68" s="4">
         <v>66</v>
       </c>
       <c r="F68" s="5">
@@ -4957,7 +5572,7 @@
         <v>1.5</v>
       </c>
       <c r="H68">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="I68" s="6" t="s">
         <v>24</v>
@@ -4972,14 +5587,14 @@
         <v>0.9</v>
       </c>
       <c r="O68" s="16" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="P68">
         <f t="shared" si="0"/>
         <v>0.6</v>
       </c>
     </row>
-    <row r="69" spans="1:17" ht="54" x14ac:dyDescent="0.15">
+    <row r="69" ht="54" spans="1:16">
       <c r="A69" s="8">
         <v>67</v>
       </c>
@@ -4993,7 +5608,7 @@
       <c r="D69" s="4">
         <v>18</v>
       </c>
-      <c r="E69" s="5">
+      <c r="E69" s="4">
         <v>67</v>
       </c>
       <c r="F69" s="5">
@@ -5006,7 +5621,7 @@
         <v>1.4</v>
       </c>
       <c r="I69" s="6" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="J69">
         <v>0</v>
@@ -5018,14 +5633,14 @@
         <v>1.2</v>
       </c>
       <c r="O69" s="16" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="P69">
         <f t="shared" si="0"/>
         <v>0.8</v>
       </c>
     </row>
-    <row r="70" spans="1:17" ht="54" x14ac:dyDescent="0.15">
+    <row r="70" ht="54" spans="1:16">
       <c r="A70" s="8">
         <v>68</v>
       </c>
@@ -5039,7 +5654,7 @@
       <c r="D70" s="4">
         <v>14</v>
       </c>
-      <c r="E70" s="5">
+      <c r="E70" s="4">
         <v>42</v>
       </c>
       <c r="F70" s="5">
@@ -5049,10 +5664,10 @@
         <v>1.5</v>
       </c>
       <c r="H70">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="I70" s="6" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="J70">
         <v>0</v>
@@ -5064,14 +5679,14 @@
         <v>0.9</v>
       </c>
       <c r="O70" s="16" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="P70">
         <f t="shared" si="0"/>
         <v>0.6</v>
       </c>
     </row>
-    <row r="71" spans="1:17" ht="54" x14ac:dyDescent="0.15">
+    <row r="71" ht="54" spans="1:16">
       <c r="A71" s="8">
         <v>69</v>
       </c>
@@ -5085,7 +5700,7 @@
       <c r="D71" s="4">
         <v>6</v>
       </c>
-      <c r="E71" s="5">
+      <c r="E71" s="4">
         <v>69</v>
       </c>
       <c r="F71" s="5">
@@ -5095,10 +5710,10 @@
         <v>1.5</v>
       </c>
       <c r="H71">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="I71" s="6" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="J71">
         <v>0</v>
@@ -5110,14 +5725,14 @@
         <v>0.9</v>
       </c>
       <c r="O71" s="16" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="P71">
         <f t="shared" si="0"/>
         <v>0.6</v>
       </c>
     </row>
-    <row r="72" spans="1:17" ht="54" x14ac:dyDescent="0.15">
+    <row r="72" ht="54" spans="1:16">
       <c r="A72" s="8">
         <v>70</v>
       </c>
@@ -5131,7 +5746,7 @@
       <c r="D72" s="4">
         <v>5</v>
       </c>
-      <c r="E72" s="5">
+      <c r="E72" s="4">
         <v>70</v>
       </c>
       <c r="F72" s="5">
@@ -5141,7 +5756,7 @@
         <v>1.5</v>
       </c>
       <c r="H72">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="I72" s="6" t="s">
         <v>17</v>
@@ -5156,14 +5771,14 @@
         <v>0.9</v>
       </c>
       <c r="O72" s="16" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="P72">
         <f t="shared" si="0"/>
         <v>0.6</v>
       </c>
     </row>
-    <row r="73" spans="1:17" ht="54" x14ac:dyDescent="0.15">
+    <row r="73" ht="54" spans="1:16">
       <c r="A73" s="8">
         <v>71</v>
       </c>
@@ -5199,14 +5814,14 @@
         <v>1.2</v>
       </c>
       <c r="O73" s="16" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="P73">
         <f t="shared" si="0"/>
         <v>0.8</v>
       </c>
     </row>
-    <row r="74" spans="1:17" ht="54" x14ac:dyDescent="0.15">
+    <row r="74" ht="54" spans="1:16">
       <c r="A74" s="8">
         <v>72</v>
       </c>
@@ -5220,7 +5835,7 @@
       <c r="D74" s="4">
         <v>1</v>
       </c>
-      <c r="E74" s="5">
+      <c r="E74" s="4">
         <v>72</v>
       </c>
       <c r="F74" s="5">
@@ -5245,14 +5860,14 @@
         <v>0.6</v>
       </c>
       <c r="O74" s="16" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="P74">
         <f t="shared" si="0"/>
         <v>0.4</v>
       </c>
     </row>
-    <row r="75" spans="1:17" ht="54" x14ac:dyDescent="0.15">
+    <row r="75" ht="54" spans="1:16">
       <c r="A75" s="8">
         <v>73</v>
       </c>
@@ -5266,7 +5881,7 @@
       <c r="D75" s="4">
         <v>1</v>
       </c>
-      <c r="E75" s="5">
+      <c r="E75" s="4">
         <v>73</v>
       </c>
       <c r="F75" s="5">
@@ -5291,14 +5906,14 @@
         <v>1.5</v>
       </c>
       <c r="O75" s="16" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="P75">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:17" ht="54" x14ac:dyDescent="0.15">
+    <row r="76" ht="54" spans="1:16">
       <c r="A76" s="8">
         <v>74</v>
       </c>
@@ -5331,14 +5946,14 @@
         <v>1.2</v>
       </c>
       <c r="O76" s="16" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="P76">
         <f t="shared" si="0"/>
         <v>0.8</v>
       </c>
     </row>
-    <row r="77" spans="1:17" ht="54" x14ac:dyDescent="0.15">
+    <row r="77" ht="54" spans="1:17">
       <c r="A77" s="8">
         <v>75</v>
       </c>
@@ -5368,17 +5983,17 @@
         <v>0.5</v>
       </c>
       <c r="O77" s="16" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="P77">
         <f t="shared" si="0"/>
         <v>0.4</v>
       </c>
       <c r="Q77" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="78" spans="1:17" ht="54" x14ac:dyDescent="0.15">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="78" ht="54" spans="1:17">
       <c r="A78" s="8">
         <v>76</v>
       </c>
@@ -5396,7 +6011,7 @@
         <v>1.5</v>
       </c>
       <c r="H78">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="J78">
         <v>0</v>
@@ -5408,17 +6023,17 @@
         <v>0.9</v>
       </c>
       <c r="O78" s="16" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="P78">
         <f t="shared" si="0"/>
         <v>0.6</v>
       </c>
       <c r="Q78" s="4" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="79" spans="1:17" ht="54" x14ac:dyDescent="0.15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="79" ht="54" spans="1:16">
       <c r="A79" s="8">
         <v>77</v>
       </c>
@@ -5432,7 +6047,7 @@
       <c r="D79" s="4">
         <v>10</v>
       </c>
-      <c r="E79" s="5">
+      <c r="E79" s="4">
         <v>77</v>
       </c>
       <c r="F79" s="5">
@@ -5454,14 +6069,14 @@
         <v>1.2</v>
       </c>
       <c r="O79" s="16" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="P79">
         <f t="shared" si="0"/>
         <v>0.8</v>
       </c>
     </row>
-    <row r="80" spans="1:17" ht="54" x14ac:dyDescent="0.15">
+    <row r="80" ht="54" spans="1:16">
       <c r="A80" s="8">
         <v>78</v>
       </c>
@@ -5475,7 +6090,7 @@
       <c r="D80" s="4">
         <v>10</v>
       </c>
-      <c r="E80" s="5">
+      <c r="E80" s="4">
         <v>77</v>
       </c>
       <c r="F80" s="5">
@@ -5500,14 +6115,14 @@
         <v>1.2</v>
       </c>
       <c r="O80" s="16" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="P80">
         <f t="shared" si="0"/>
         <v>0.8</v>
       </c>
     </row>
-    <row r="81" spans="1:17" ht="54" x14ac:dyDescent="0.15">
+    <row r="81" ht="54" spans="1:16">
       <c r="A81" s="8">
         <v>79</v>
       </c>
@@ -5521,7 +6136,7 @@
       <c r="D81" s="4">
         <v>7</v>
       </c>
-      <c r="E81" s="5">
+      <c r="E81" s="4">
         <v>79</v>
       </c>
       <c r="F81" s="5">
@@ -5550,7 +6165,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="82" spans="1:17" ht="54" x14ac:dyDescent="0.15">
+    <row r="82" ht="54" spans="1:16">
       <c r="A82" s="8">
         <v>80</v>
       </c>
@@ -5564,7 +6179,7 @@
       <c r="D82" s="4">
         <v>19</v>
       </c>
-      <c r="E82" s="5">
+      <c r="E82" s="4">
         <v>9</v>
       </c>
       <c r="F82" s="5">
@@ -5574,7 +6189,7 @@
         <v>1.5</v>
       </c>
       <c r="H82">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="I82" s="6" t="s">
         <v>58</v>
@@ -5589,14 +6204,14 @@
         <v>0.9</v>
       </c>
       <c r="O82" s="16" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="P82">
         <f t="shared" si="0"/>
         <v>0.6</v>
       </c>
     </row>
-    <row r="83" spans="1:17" ht="54" x14ac:dyDescent="0.15">
+    <row r="83" ht="54" spans="1:16">
       <c r="A83" s="8">
         <v>81</v>
       </c>
@@ -5610,7 +6225,7 @@
       <c r="D83" s="4">
         <v>18</v>
       </c>
-      <c r="E83" s="5">
+      <c r="E83" s="4">
         <v>81</v>
       </c>
       <c r="F83" s="5">
@@ -5635,14 +6250,14 @@
         <v>0.6</v>
       </c>
       <c r="O83" s="16" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="P83">
         <f t="shared" si="0"/>
         <v>0.4</v>
       </c>
     </row>
-    <row r="84" spans="1:17" ht="54" x14ac:dyDescent="0.15">
+    <row r="84" ht="54" spans="1:16">
       <c r="A84" s="8">
         <v>82</v>
       </c>
@@ -5675,14 +6290,14 @@
         <v>1.2</v>
       </c>
       <c r="O84" s="16" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="P84">
         <f t="shared" si="0"/>
         <v>0.8</v>
       </c>
     </row>
-    <row r="85" spans="1:17" ht="54" x14ac:dyDescent="0.15">
+    <row r="85" ht="54" spans="1:16">
       <c r="A85" s="8">
         <v>83</v>
       </c>
@@ -5718,14 +6333,14 @@
         <v>1.2</v>
       </c>
       <c r="O85" s="16" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="P85">
         <f t="shared" si="0"/>
         <v>0.8</v>
       </c>
     </row>
-    <row r="86" spans="1:17" ht="54" x14ac:dyDescent="0.15">
+    <row r="86" ht="54" spans="1:17">
       <c r="A86" s="8">
         <v>84</v>
       </c>
@@ -5743,7 +6358,7 @@
         <v>1.5</v>
       </c>
       <c r="H86">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="J86">
         <v>0</v>
@@ -5755,17 +6370,17 @@
         <v>0.9</v>
       </c>
       <c r="O86" s="16" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="P86">
         <f t="shared" si="0"/>
         <v>0.6</v>
       </c>
       <c r="Q86" s="4" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="87" spans="1:17" ht="54" x14ac:dyDescent="0.15">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="87" ht="54" spans="1:16">
       <c r="A87" s="8">
         <v>85</v>
       </c>
@@ -5779,7 +6394,7 @@
       <c r="D87" s="4">
         <v>9</v>
       </c>
-      <c r="E87" s="5">
+      <c r="E87" s="4">
         <v>73</v>
       </c>
       <c r="F87" s="5">
@@ -5789,10 +6404,10 @@
         <v>1.5</v>
       </c>
       <c r="H87">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="I87" s="6" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="J87">
         <v>0</v>
@@ -5804,14 +6419,14 @@
         <v>0.9</v>
       </c>
       <c r="O87" s="16" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="P87">
         <f t="shared" si="0"/>
         <v>0.6</v>
       </c>
     </row>
-    <row r="88" spans="1:17" ht="54" x14ac:dyDescent="0.15">
+    <row r="88" ht="54" spans="1:16">
       <c r="A88" s="8">
         <v>86</v>
       </c>
@@ -5825,7 +6440,7 @@
       <c r="D88" s="4">
         <v>13</v>
       </c>
-      <c r="E88" s="5">
+      <c r="E88" s="4">
         <v>86</v>
       </c>
       <c r="F88" s="5">
@@ -5850,14 +6465,14 @@
         <v>1.2</v>
       </c>
       <c r="O88" s="16" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="P88">
         <f t="shared" si="0"/>
         <v>0.8</v>
       </c>
     </row>
-    <row r="89" spans="1:17" ht="54" x14ac:dyDescent="0.15">
+    <row r="89" ht="54" spans="1:16">
       <c r="A89" s="8">
         <v>87</v>
       </c>
@@ -5871,7 +6486,7 @@
       <c r="D89" s="4">
         <v>1</v>
       </c>
-      <c r="E89" s="5">
+      <c r="E89" s="4">
         <v>87</v>
       </c>
       <c r="F89" s="5">
@@ -5881,10 +6496,10 @@
         <v>1.5</v>
       </c>
       <c r="H89">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="I89" s="6" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="J89">
         <v>0</v>
@@ -5896,14 +6511,14 @@
         <v>0.9</v>
       </c>
       <c r="O89" s="16" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="P89">
         <f t="shared" si="0"/>
         <v>0.6</v>
       </c>
     </row>
-    <row r="90" spans="1:17" ht="54" x14ac:dyDescent="0.15">
+    <row r="90" ht="54" spans="1:16">
       <c r="A90" s="8">
         <v>88</v>
       </c>
@@ -5917,7 +6532,7 @@
       <c r="D90" s="4">
         <v>5</v>
       </c>
-      <c r="E90" s="5">
+      <c r="E90" s="4">
         <v>88</v>
       </c>
       <c r="F90" s="5">
@@ -5927,10 +6542,10 @@
         <v>1.5</v>
       </c>
       <c r="H90">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="I90" s="6" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="J90">
         <v>0</v>
@@ -5942,14 +6557,14 @@
         <v>0.9</v>
       </c>
       <c r="O90" s="16" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="P90">
         <f t="shared" si="0"/>
         <v>0.6</v>
       </c>
     </row>
-    <row r="91" spans="1:17" ht="54" x14ac:dyDescent="0.15">
+    <row r="91" ht="54" spans="1:16">
       <c r="A91" s="8">
         <v>89</v>
       </c>
@@ -5963,7 +6578,7 @@
       <c r="D91" s="4">
         <v>6</v>
       </c>
-      <c r="E91" s="5">
+      <c r="E91" s="4">
         <v>34</v>
       </c>
       <c r="F91" s="5">
@@ -5995,7 +6610,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="92" spans="1:17" ht="54" x14ac:dyDescent="0.15">
+    <row r="92" ht="54" spans="1:16">
       <c r="A92" s="8">
         <v>90</v>
       </c>
@@ -6009,7 +6624,7 @@
       <c r="D92" s="4">
         <v>1</v>
       </c>
-      <c r="E92" s="5">
+      <c r="E92" s="4">
         <v>0</v>
       </c>
       <c r="F92" s="5">
@@ -6041,7 +6656,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="93" spans="1:17" ht="54" x14ac:dyDescent="0.15">
+    <row r="93" ht="54" spans="1:16">
       <c r="A93" s="8">
         <v>91</v>
       </c>
@@ -6055,7 +6670,7 @@
       <c r="D93" s="4">
         <v>15</v>
       </c>
-      <c r="E93" s="5">
+      <c r="E93" s="4">
         <v>91</v>
       </c>
       <c r="F93" s="5">
@@ -6087,7 +6702,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:17" ht="54" x14ac:dyDescent="0.15">
+    <row r="94" ht="54" spans="1:16">
       <c r="A94" s="8">
         <v>92</v>
       </c>
@@ -6101,7 +6716,7 @@
       <c r="D94" s="4">
         <v>17</v>
       </c>
-      <c r="E94" s="5">
+      <c r="E94" s="4">
         <v>92</v>
       </c>
       <c r="F94" s="5">
@@ -6111,7 +6726,7 @@
         <v>1.5</v>
       </c>
       <c r="H94">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="I94" s="6" t="s">
         <v>24</v>
@@ -6133,12 +6748,12 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="95" spans="1:17" ht="54" x14ac:dyDescent="0.15">
+    <row r="95" ht="54" spans="1:16">
       <c r="A95" s="20">
         <v>93</v>
       </c>
       <c r="B95" s="21" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C95" s="3">
         <v>0</v>
@@ -6146,7 +6761,7 @@
       <c r="D95" s="4">
         <v>13</v>
       </c>
-      <c r="E95" s="5">
+      <c r="E95" s="4">
         <v>93</v>
       </c>
       <c r="F95" s="5">
@@ -6168,19 +6783,19 @@
         <v>0.25</v>
       </c>
       <c r="O95" s="16" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="P95">
         <f t="shared" si="1"/>
         <v>0.4</v>
       </c>
     </row>
-    <row r="96" spans="1:17" ht="54" x14ac:dyDescent="0.15">
+    <row r="96" ht="54" spans="1:16">
       <c r="A96" s="20">
         <v>94</v>
       </c>
       <c r="B96" s="21" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="C96" s="3">
         <v>0</v>
@@ -6188,7 +6803,7 @@
       <c r="D96" s="4">
         <v>13</v>
       </c>
-      <c r="E96" s="5">
+      <c r="E96" s="4">
         <v>94</v>
       </c>
       <c r="F96" s="5">
@@ -6198,7 +6813,7 @@
         <v>1.5</v>
       </c>
       <c r="H96">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="J96">
         <v>0</v>
@@ -6210,19 +6825,19 @@
         <v>0.25</v>
       </c>
       <c r="O96" s="16" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="P96">
         <f t="shared" si="1"/>
         <v>0.6</v>
       </c>
     </row>
-    <row r="97" spans="1:17" ht="54" x14ac:dyDescent="0.15">
+    <row r="97" ht="54" spans="1:16">
       <c r="A97" s="20">
         <v>95</v>
       </c>
       <c r="B97" s="21" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C97" s="3">
         <v>0</v>
@@ -6230,7 +6845,7 @@
       <c r="D97" s="4">
         <v>13</v>
       </c>
-      <c r="E97" s="5">
+      <c r="E97" s="4">
         <v>95</v>
       </c>
       <c r="F97" s="5">
@@ -6240,7 +6855,7 @@
         <v>1.5</v>
       </c>
       <c r="H97">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="J97">
         <v>0</v>
@@ -6252,14 +6867,14 @@
         <v>0.25</v>
       </c>
       <c r="O97" s="16" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="P97">
         <f t="shared" si="1"/>
         <v>0.6</v>
       </c>
     </row>
-    <row r="98" spans="1:17" ht="54" x14ac:dyDescent="0.15">
+    <row r="98" ht="54" spans="1:17">
       <c r="A98" s="8">
         <v>96</v>
       </c>
@@ -6273,7 +6888,7 @@
       <c r="D98" s="4">
         <v>1</v>
       </c>
-      <c r="E98" s="5">
+      <c r="E98" s="4">
         <v>0</v>
       </c>
       <c r="F98" s="5">
@@ -6283,7 +6898,7 @@
         <v>1.5</v>
       </c>
       <c r="H98">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="J98">
         <v>0</v>
@@ -6295,21 +6910,23 @@
         <v>0.9</v>
       </c>
       <c r="O98" s="16" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="P98">
         <f t="shared" si="1"/>
         <v>0.6</v>
       </c>
       <c r="Q98" s="22" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Q97" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <autoFilter ref="A1:Q98">
+    <extLst/>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/jyx2/excel/武功招式特效.xlsx
+++ b/jyx2/excel/武功招式特效.xlsx
@@ -144,7 +144,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="131">
   <si>
     <t>代号</t>
   </si>
@@ -254,6 +254,12 @@
     <t>Assets/BuildSource/sound/e50.wav</t>
   </si>
   <si>
+    <t>@Assets/3D/Animation/Jyx2Anims/寒冰神掌待机.anim</t>
+  </si>
+  <si>
+    <t>@Assets/3D/Animation/Jyx2Anims/寒冰神掌.anim</t>
+  </si>
+  <si>
     <t>Assets/Effects/Prefabs/SinKnif/Fx_Nan_SinKnif_Hit.prefab</t>
   </si>
   <si>
@@ -287,6 +293,12 @@
     <t>Assets/BuildSource/sound/atk16.wav</t>
   </si>
   <si>
+    <t>@Assets/3D/Animation/Jyx2Anims/太玄神功待机.anim</t>
+  </si>
+  <si>
+    <t>@Assets/3D/Animation/Jyx2Anims/太玄神功.anim</t>
+  </si>
+  <si>
     <t>Assets/Effects/Prefabs/hand/Fx_Nan_hand_Skill02_low.prefab</t>
   </si>
   <si>
@@ -359,6 +371,12 @@
     <t>Assets/BuildSource/sound/e33.wav</t>
   </si>
   <si>
+    <t>@Assets/3D/Animation/Jyx2Anims/灭绝剑法待机.anim</t>
+  </si>
+  <si>
+    <t>@Assets/3D/Animation/Jyx2Anims/灭绝剑法.anim</t>
+  </si>
+  <si>
     <t>Assets/BuildSource/sound/e25.wav</t>
   </si>
   <si>
@@ -404,9 +422,21 @@
     <t>Assets/BuildSource/sound/e43.wav</t>
   </si>
   <si>
+    <t>@Assets/3D/Animation/Jyx2Anims/血刀大法待机.anim</t>
+  </si>
+  <si>
+    <t>@Assets/3D/Animation/Jyx2Anims/血刀大法.anim</t>
+  </si>
+  <si>
     <t>Assets/BuildSource/sound/e12.wav</t>
   </si>
   <si>
+    <t>@Assets/3D/Animation/Jyx2Anims/狂风刀法待机.anim</t>
+  </si>
+  <si>
+    <t>@Assets/3D/Animation/Jyx2Anims/狂风刀法.anim</t>
+  </si>
+  <si>
     <t>Assets/BuildSource/sound/e45.wav</t>
   </si>
   <si>
@@ -416,6 +446,12 @@
     <t>Assets/BuildSource/sound/e13.wav</t>
   </si>
   <si>
+    <t>@Assets/3D/Animation/Jyx2Anims/胡家刀法待机.anim</t>
+  </si>
+  <si>
+    <t>@Assets/3D/Animation/Jyx2Anims/胡家刀法.anim</t>
+  </si>
+  <si>
     <t>Assets/BuildSource/sound/atk05.wav</t>
   </si>
   <si>
@@ -458,10 +494,28 @@
     <t>Assets/3D/AnimationControllers/蛇_controller.controller</t>
   </si>
   <si>
+    <t>@Assets/3D/Animation/Jyx2Anims/金花婆婆待机.anim</t>
+  </si>
+  <si>
+    <t>@Assets/3D/Animation/Jyx2Anims/金花婆婆攻击.anim</t>
+  </si>
+  <si>
     <t>Assets/BuildSource/sound/e09.wav</t>
   </si>
   <si>
     <t>Assets/BuildSource/sound/atk11.wav</t>
+  </si>
+  <si>
+    <t>@Assets/3D/Animation/Jyx2Anims/松风剑法待机.anim</t>
+  </si>
+  <si>
+    <t>@Assets/3D/Animation/Jyx2Anims/松风剑法.anim</t>
+  </si>
+  <si>
+    <t>@Assets/3D/Animation/Jyx2Anims/九阳神功待机.anim</t>
+  </si>
+  <si>
+    <t>@Assets/3D/Animation/Jyx2Anims/九阳神功.anim</t>
   </si>
   <si>
     <t>用毒</t>
@@ -490,12 +544,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -522,9 +576,31 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="8"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -535,8 +611,16 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -549,23 +633,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -586,15 +656,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -608,35 +672,26 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -648,9 +703,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -664,15 +718,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -704,43 +752,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -764,31 +776,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -806,13 +812,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -824,7 +848,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -836,55 +890,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -926,13 +974,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -942,6 +994,21 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -960,36 +1027,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1023,165 +1060,176 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1234,7 +1282,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1243,7 +1291,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1252,7 +1300,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2450,11 +2498,11 @@
   <dimension ref="A1:Q98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C43" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C65" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E48" sqref="E48"/>
+      <selection pane="bottomRight" activeCell="D66" sqref="D66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3128,11 +3176,11 @@
       <c r="C15" s="3">
         <v>0</v>
       </c>
-      <c r="D15" s="4">
-        <v>12</v>
-      </c>
-      <c r="E15" s="4">
-        <v>13</v>
+      <c r="D15" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>37</v>
       </c>
       <c r="F15" s="5">
         <v>0</v>
@@ -3240,13 +3288,13 @@
         <v>0</v>
       </c>
       <c r="L17" s="6" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="M17">
         <v>0.9</v>
       </c>
       <c r="O17" s="16" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="P17">
         <v>0.6</v>
@@ -3291,7 +3339,7 @@
         <v>0.6</v>
       </c>
       <c r="O18" s="16" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="P18">
         <v>0.4</v>
@@ -3336,7 +3384,7 @@
         <v>0.6</v>
       </c>
       <c r="O19" s="16" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="P19">
         <v>0.4</v>
@@ -3369,7 +3417,7 @@
         <v>1.1</v>
       </c>
       <c r="I20" s="6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -3381,7 +3429,7 @@
         <v>0.9</v>
       </c>
       <c r="O20" s="16" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="P20">
         <v>0.6</v>
@@ -3414,19 +3462,19 @@
         <v>0.7</v>
       </c>
       <c r="I21" s="6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="L21" s="6" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="M21">
         <v>0.6</v>
       </c>
       <c r="O21" s="16" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="P21">
         <v>0.4</v>
@@ -3471,7 +3519,7 @@
         <v>0.9</v>
       </c>
       <c r="O22" s="16" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="P22">
         <v>0.6</v>
@@ -3516,7 +3564,7 @@
         <v>0.9</v>
       </c>
       <c r="O23" s="16" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P23">
         <v>0.6</v>
@@ -3561,7 +3609,7 @@
         <v>0.9</v>
       </c>
       <c r="O24" s="16" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="P24">
         <v>0.6</v>
@@ -3578,11 +3626,11 @@
       <c r="C25" s="3">
         <v>0</v>
       </c>
-      <c r="D25" s="4">
-        <v>1</v>
-      </c>
-      <c r="E25" s="4">
-        <v>23</v>
+      <c r="D25" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>50</v>
       </c>
       <c r="F25" s="5">
         <v>0</v>
@@ -3594,7 +3642,7 @@
         <v>1.1</v>
       </c>
       <c r="I25" s="6" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -3639,19 +3687,19 @@
         <v>0.7</v>
       </c>
       <c r="I26" s="6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J26">
         <v>0</v>
       </c>
       <c r="L26" s="6" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="M26">
         <v>0.6</v>
       </c>
       <c r="O26" s="16" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="P26">
         <v>0.4</v>
@@ -3684,19 +3732,19 @@
         <v>1.5</v>
       </c>
       <c r="I27" s="6" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="J27">
         <v>0</v>
       </c>
       <c r="L27" s="6" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="M27">
         <v>0.23</v>
       </c>
       <c r="O27" s="16" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="P27">
         <v>0.8</v>
@@ -3729,7 +3777,7 @@
         <v>1.4</v>
       </c>
       <c r="I28" s="6" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="J28">
         <v>0</v>
@@ -3741,7 +3789,7 @@
         <v>1.2</v>
       </c>
       <c r="O28" s="16" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="P28">
         <f>ROUNDUP(G28*0.4,1)</f>
@@ -3787,7 +3835,7 @@
         <v>0.9</v>
       </c>
       <c r="O29" s="16" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="P29">
         <f t="shared" ref="P29:P92" si="0">ROUNDUP(G29*0.4,1)</f>
@@ -3833,7 +3881,7 @@
         <v>0.6</v>
       </c>
       <c r="O30" s="16" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="P30">
         <f t="shared" si="0"/>
@@ -3879,7 +3927,7 @@
         <v>0.6</v>
       </c>
       <c r="O31" s="16" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="P31">
         <f t="shared" si="0"/>
@@ -3925,7 +3973,7 @@
         <v>0.9</v>
       </c>
       <c r="O32" s="16" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="P32">
         <f t="shared" si="0"/>
@@ -3959,7 +4007,7 @@
         <v>0.7</v>
       </c>
       <c r="I33" s="6" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="J33">
         <v>0</v>
@@ -3971,7 +4019,7 @@
         <v>0.6</v>
       </c>
       <c r="O33" s="16" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="P33">
         <f t="shared" si="0"/>
@@ -4005,7 +4053,7 @@
         <v>0.7</v>
       </c>
       <c r="I34" s="6" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="J34">
         <v>0</v>
@@ -4017,7 +4065,7 @@
         <v>0.6</v>
       </c>
       <c r="O34" s="16" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="P34">
         <f t="shared" si="0"/>
@@ -4051,7 +4099,7 @@
         <v>0.7</v>
       </c>
       <c r="I35" s="6" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="J35">
         <v>0</v>
@@ -4063,7 +4111,7 @@
         <v>0.6</v>
       </c>
       <c r="O35" s="16" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="P35">
         <f t="shared" si="0"/>
@@ -4097,7 +4145,7 @@
         <v>0.7</v>
       </c>
       <c r="I36" s="6" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="J36">
         <v>0</v>
@@ -4109,7 +4157,7 @@
         <v>0.6</v>
       </c>
       <c r="O36" s="16" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="P36">
         <f t="shared" si="0"/>
@@ -4143,7 +4191,7 @@
         <v>1.1</v>
       </c>
       <c r="I37" s="6" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="J37">
         <v>0</v>
@@ -4155,7 +4203,7 @@
         <v>0.9</v>
       </c>
       <c r="O37" s="16" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="P37">
         <f t="shared" si="0"/>
@@ -4189,7 +4237,7 @@
         <v>1.4</v>
       </c>
       <c r="I38" s="6" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="J38">
         <v>0</v>
@@ -4201,7 +4249,7 @@
         <v>1.2</v>
       </c>
       <c r="O38" s="16" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="P38">
         <f t="shared" si="0"/>
@@ -4235,7 +4283,7 @@
         <v>1.1</v>
       </c>
       <c r="I39" s="6" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="J39">
         <v>0</v>
@@ -4247,7 +4295,7 @@
         <v>0.9</v>
       </c>
       <c r="O39" s="16" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="P39">
         <f t="shared" si="0"/>
@@ -4281,7 +4329,7 @@
         <v>0.7</v>
       </c>
       <c r="I40" s="6" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="J40">
         <v>0</v>
@@ -4293,7 +4341,7 @@
         <v>0.6</v>
       </c>
       <c r="O40" s="16" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="P40">
         <f t="shared" si="0"/>
@@ -4327,7 +4375,7 @@
         <v>1.1</v>
       </c>
       <c r="I41" s="6" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="J41">
         <v>0</v>
@@ -4339,7 +4387,7 @@
         <v>0.9</v>
       </c>
       <c r="O41" s="16" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="P41">
         <f t="shared" si="0"/>
@@ -4373,7 +4421,7 @@
         <v>1.8</v>
       </c>
       <c r="I42" s="6" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="J42">
         <v>0</v>
@@ -4385,7 +4433,7 @@
         <v>1.5</v>
       </c>
       <c r="O42" s="16" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="P42">
         <f t="shared" si="0"/>
@@ -4419,7 +4467,7 @@
         <v>1.1</v>
       </c>
       <c r="I43" s="6" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="J43">
         <v>0</v>
@@ -4431,7 +4479,7 @@
         <v>0.9</v>
       </c>
       <c r="O43" s="16" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="P43">
         <f t="shared" si="0"/>
@@ -4465,7 +4513,7 @@
         <v>1.1</v>
       </c>
       <c r="I44" s="6" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="J44">
         <v>0</v>
@@ -4477,7 +4525,7 @@
         <v>0.9</v>
       </c>
       <c r="O44" s="16" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="P44">
         <f t="shared" si="0"/>
@@ -4511,7 +4559,7 @@
         <v>1.4</v>
       </c>
       <c r="I45" s="6" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="J45">
         <v>0</v>
@@ -4523,7 +4571,7 @@
         <v>1.2</v>
       </c>
       <c r="O45" s="16" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="P45">
         <f t="shared" si="0"/>
@@ -4557,7 +4605,7 @@
         <v>0.7</v>
       </c>
       <c r="I46" s="6" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="J46">
         <v>0</v>
@@ -4569,7 +4617,7 @@
         <v>0.6</v>
       </c>
       <c r="O46" s="16" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="P46">
         <f t="shared" si="0"/>
@@ -4588,10 +4636,10 @@
         <v>1</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="F47" s="5">
         <v>0</v>
@@ -4603,7 +4651,7 @@
         <v>0.7</v>
       </c>
       <c r="I47" s="6" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="J47">
         <v>0</v>
@@ -4615,7 +4663,7 @@
         <v>0.6</v>
       </c>
       <c r="O47" s="16" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="P47">
         <f t="shared" si="0"/>
@@ -4649,7 +4697,7 @@
         <v>1.8</v>
       </c>
       <c r="I48" s="6" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="J48">
         <v>0</v>
@@ -4661,7 +4709,7 @@
         <v>1.5</v>
       </c>
       <c r="O48" s="16" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="P48">
         <f t="shared" si="0"/>
@@ -4695,7 +4743,7 @@
         <v>0.7</v>
       </c>
       <c r="I49" s="6" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="J49">
         <v>0</v>
@@ -4707,7 +4755,7 @@
         <v>0.6</v>
       </c>
       <c r="O49" s="16" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="P49">
         <f t="shared" si="0"/>
@@ -4741,7 +4789,7 @@
         <v>1.8</v>
       </c>
       <c r="I50" s="6" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="J50">
         <v>0</v>
@@ -4753,7 +4801,7 @@
         <v>1.5</v>
       </c>
       <c r="O50" s="16" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="P50">
         <f t="shared" si="0"/>
@@ -4787,7 +4835,7 @@
         <v>1.8</v>
       </c>
       <c r="I51" s="6" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="J51">
         <v>0</v>
@@ -4799,7 +4847,7 @@
         <v>1.5</v>
       </c>
       <c r="O51" s="16" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="P51">
         <f t="shared" si="0"/>
@@ -4833,7 +4881,7 @@
         <v>1.1</v>
       </c>
       <c r="I52" s="6" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="J52">
         <v>0</v>
@@ -4845,7 +4893,7 @@
         <v>0.9</v>
       </c>
       <c r="O52" s="16" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="P52">
         <f t="shared" si="0"/>
@@ -4879,7 +4927,7 @@
         <v>1.1</v>
       </c>
       <c r="I53" s="6" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="J53">
         <v>0</v>
@@ -4891,7 +4939,7 @@
         <v>0.9</v>
       </c>
       <c r="O53" s="16" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="P53">
         <f t="shared" si="0"/>
@@ -4909,11 +4957,11 @@
       <c r="C54" s="3">
         <v>1</v>
       </c>
-      <c r="D54" s="4">
-        <v>9</v>
-      </c>
-      <c r="E54" s="4">
-        <v>6</v>
+      <c r="D54" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>76</v>
       </c>
       <c r="F54" s="5">
         <v>0</v>
@@ -4925,7 +4973,7 @@
         <v>1.1</v>
       </c>
       <c r="I54" s="6" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="J54">
         <v>0</v>
@@ -4937,7 +4985,7 @@
         <v>0.9</v>
       </c>
       <c r="O54" s="16" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="P54">
         <f t="shared" si="0"/>
@@ -4971,7 +5019,7 @@
         <v>0.7</v>
       </c>
       <c r="I55" s="6" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="J55">
         <v>0</v>
@@ -4983,7 +5031,7 @@
         <v>0.6</v>
       </c>
       <c r="O55" s="16" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="P55">
         <f t="shared" si="0"/>
@@ -5017,7 +5065,7 @@
         <v>1.1</v>
       </c>
       <c r="I56" s="6" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="J56">
         <v>0</v>
@@ -5029,7 +5077,7 @@
         <v>0.9</v>
       </c>
       <c r="O56" s="16" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="P56">
         <f t="shared" si="0"/>
@@ -5063,7 +5111,7 @@
         <v>1.1</v>
       </c>
       <c r="I57" s="6" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="J57">
         <v>0</v>
@@ -5075,7 +5123,7 @@
         <v>0.9</v>
       </c>
       <c r="O57" s="16" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="P57">
         <f t="shared" si="0"/>
@@ -5109,7 +5157,7 @@
         <v>1.1</v>
       </c>
       <c r="I58" s="6" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="J58">
         <v>0</v>
@@ -5121,7 +5169,7 @@
         <v>0.9</v>
       </c>
       <c r="O58" s="16" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="P58">
         <f t="shared" si="0"/>
@@ -5155,19 +5203,19 @@
         <v>1.1</v>
       </c>
       <c r="I59" s="6" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="J59">
         <v>0</v>
       </c>
       <c r="L59" s="6" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="M59">
         <v>0.9</v>
       </c>
       <c r="O59" s="16" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="P59">
         <f t="shared" si="0"/>
@@ -5201,7 +5249,7 @@
         <v>1.8</v>
       </c>
       <c r="I60" s="6" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="J60">
         <v>0</v>
@@ -5213,7 +5261,7 @@
         <v>1.5</v>
       </c>
       <c r="O60" s="16" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="P60">
         <f t="shared" si="0"/>
@@ -5253,13 +5301,13 @@
         <v>0</v>
       </c>
       <c r="L61" s="6" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="M61">
         <v>0.6</v>
       </c>
       <c r="O61" s="16" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="P61">
         <f t="shared" si="0"/>
@@ -5293,7 +5341,7 @@
         <v>1.8</v>
       </c>
       <c r="I62" s="6" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="J62">
         <v>0</v>
@@ -5305,7 +5353,7 @@
         <v>1.5</v>
       </c>
       <c r="O62" s="16" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="P62">
         <f t="shared" si="0"/>
@@ -5324,10 +5372,10 @@
         <v>1</v>
       </c>
       <c r="D63" s="15" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="F63" s="5">
         <v>0</v>
@@ -5346,14 +5394,14 @@
       </c>
       <c r="K63" s="18"/>
       <c r="L63" s="17" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="M63">
         <v>1.5</v>
       </c>
       <c r="N63" s="7"/>
       <c r="O63" s="16" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="P63">
         <f t="shared" si="0"/>
@@ -5388,7 +5436,7 @@
         <v>1.8</v>
       </c>
       <c r="I64" s="6" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="J64">
         <v>0</v>
@@ -5400,7 +5448,7 @@
         <v>1.5</v>
       </c>
       <c r="O64" s="16" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="P64">
         <f t="shared" si="0"/>
@@ -5418,11 +5466,11 @@
       <c r="C65" s="3">
         <v>2</v>
       </c>
-      <c r="D65" s="4">
-        <v>7</v>
-      </c>
-      <c r="E65" s="4">
-        <v>63</v>
+      <c r="D65" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E65" s="4" t="s">
+        <v>93</v>
       </c>
       <c r="F65" s="5">
         <v>0</v>
@@ -5434,7 +5482,7 @@
         <v>0.7</v>
       </c>
       <c r="I65" s="6" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="J65">
         <v>0</v>
@@ -5446,7 +5494,7 @@
         <v>0.6</v>
       </c>
       <c r="O65" s="16" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="P65">
         <f t="shared" si="0"/>
@@ -5464,11 +5512,11 @@
       <c r="C66" s="14">
         <v>2</v>
       </c>
-      <c r="D66" s="15">
-        <v>18</v>
-      </c>
-      <c r="E66" s="4">
-        <v>64</v>
+      <c r="D66" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="E66" s="4" t="s">
+        <v>96</v>
       </c>
       <c r="F66" s="5">
         <v>0</v>
@@ -5480,7 +5528,7 @@
         <v>1.8</v>
       </c>
       <c r="I66" s="17" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="J66">
         <v>0</v>
@@ -5494,7 +5542,7 @@
       </c>
       <c r="N66" s="7"/>
       <c r="O66" s="16" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="P66">
         <f t="shared" si="0"/>
@@ -5529,7 +5577,7 @@
         <v>1.8</v>
       </c>
       <c r="I67" s="6" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="J67">
         <v>0</v>
@@ -5541,7 +5589,7 @@
         <v>1.5</v>
       </c>
       <c r="O67" s="16" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="P67">
         <f t="shared" si="0"/>
@@ -5581,13 +5629,13 @@
         <v>0</v>
       </c>
       <c r="L68" s="6" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="M68">
         <v>0.9</v>
       </c>
       <c r="O68" s="16" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="P68">
         <f t="shared" si="0"/>
@@ -5605,11 +5653,11 @@
       <c r="C69" s="3">
         <v>2</v>
       </c>
-      <c r="D69" s="4">
-        <v>18</v>
-      </c>
-      <c r="E69" s="4">
-        <v>67</v>
+      <c r="D69" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="E69" s="4" t="s">
+        <v>101</v>
       </c>
       <c r="F69" s="5">
         <v>0</v>
@@ -5621,7 +5669,7 @@
         <v>1.4</v>
       </c>
       <c r="I69" s="6" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="J69">
         <v>0</v>
@@ -5633,7 +5681,7 @@
         <v>1.2</v>
       </c>
       <c r="O69" s="16" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="P69">
         <f t="shared" si="0"/>
@@ -5667,19 +5715,19 @@
         <v>1.1</v>
       </c>
       <c r="I70" s="6" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="J70">
         <v>0</v>
       </c>
       <c r="L70" s="6" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="M70">
         <v>0.9</v>
       </c>
       <c r="O70" s="16" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="P70">
         <f t="shared" si="0"/>
@@ -5713,7 +5761,7 @@
         <v>1.1</v>
       </c>
       <c r="I71" s="6" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="J71">
         <v>0</v>
@@ -5725,7 +5773,7 @@
         <v>0.9</v>
       </c>
       <c r="O71" s="16" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="P71">
         <f t="shared" si="0"/>
@@ -5771,7 +5819,7 @@
         <v>0.9</v>
       </c>
       <c r="O72" s="16" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="P72">
         <f t="shared" si="0"/>
@@ -5814,7 +5862,7 @@
         <v>1.2</v>
       </c>
       <c r="O73" s="16" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="P73">
         <f t="shared" si="0"/>
@@ -5860,7 +5908,7 @@
         <v>0.6</v>
       </c>
       <c r="O74" s="16" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="P74">
         <f t="shared" si="0"/>
@@ -5906,7 +5954,7 @@
         <v>1.5</v>
       </c>
       <c r="O75" s="16" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="P75">
         <f t="shared" si="0"/>
@@ -5946,7 +5994,7 @@
         <v>1.2</v>
       </c>
       <c r="O76" s="16" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="P76">
         <f t="shared" si="0"/>
@@ -5983,14 +6031,14 @@
         <v>0.5</v>
       </c>
       <c r="O77" s="16" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="P77">
         <f t="shared" si="0"/>
         <v>0.4</v>
       </c>
       <c r="Q77" s="4" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
     </row>
     <row r="78" ht="54" spans="1:17">
@@ -6023,14 +6071,14 @@
         <v>0.9</v>
       </c>
       <c r="O78" s="16" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="P78">
         <f t="shared" si="0"/>
         <v>0.6</v>
       </c>
       <c r="Q78" s="4" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
     </row>
     <row r="79" ht="54" spans="1:16">
@@ -6069,7 +6117,7 @@
         <v>1.2</v>
       </c>
       <c r="O79" s="16" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="P79">
         <f t="shared" si="0"/>
@@ -6115,7 +6163,7 @@
         <v>1.2</v>
       </c>
       <c r="O80" s="16" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="P80">
         <f t="shared" si="0"/>
@@ -6192,7 +6240,7 @@
         <v>1.1</v>
       </c>
       <c r="I82" s="6" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="J82">
         <v>0</v>
@@ -6204,7 +6252,7 @@
         <v>0.9</v>
       </c>
       <c r="O82" s="16" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="P82">
         <f t="shared" si="0"/>
@@ -6238,7 +6286,7 @@
         <v>0.7</v>
       </c>
       <c r="I83" s="6" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="J83">
         <v>0</v>
@@ -6250,7 +6298,7 @@
         <v>0.6</v>
       </c>
       <c r="O83" s="16" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="P83">
         <f t="shared" si="0"/>
@@ -6278,7 +6326,7 @@
         <v>1.4</v>
       </c>
       <c r="I84" s="6" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="J84">
         <v>0</v>
@@ -6290,7 +6338,7 @@
         <v>1.2</v>
       </c>
       <c r="O84" s="16" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="P84">
         <f t="shared" si="0"/>
@@ -6321,7 +6369,7 @@
         <v>1.4</v>
       </c>
       <c r="I85" s="6" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="J85">
         <v>0</v>
@@ -6333,7 +6381,7 @@
         <v>1.2</v>
       </c>
       <c r="O85" s="16" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="P85">
         <f t="shared" si="0"/>
@@ -6370,14 +6418,14 @@
         <v>0.9</v>
       </c>
       <c r="O86" s="16" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="P86">
         <f t="shared" si="0"/>
         <v>0.6</v>
       </c>
       <c r="Q86" s="4" t="s">
-        <v>103</v>
+        <v>115</v>
       </c>
     </row>
     <row r="87" ht="54" spans="1:16">
@@ -6391,11 +6439,11 @@
       <c r="C87" s="3">
         <v>3</v>
       </c>
-      <c r="D87" s="4">
-        <v>9</v>
-      </c>
-      <c r="E87" s="4">
-        <v>73</v>
+      <c r="D87" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="E87" s="4" t="s">
+        <v>117</v>
       </c>
       <c r="F87" s="5">
         <v>0</v>
@@ -6407,7 +6455,7 @@
         <v>1.1</v>
       </c>
       <c r="I87" s="6" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="J87">
         <v>0</v>
@@ -6419,7 +6467,7 @@
         <v>0.9</v>
       </c>
       <c r="O87" s="16" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="P87">
         <f t="shared" si="0"/>
@@ -6465,7 +6513,7 @@
         <v>1.2</v>
       </c>
       <c r="O88" s="16" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="P88">
         <f t="shared" si="0"/>
@@ -6499,7 +6547,7 @@
         <v>1.1</v>
       </c>
       <c r="I89" s="6" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="J89">
         <v>0</v>
@@ -6511,7 +6559,7 @@
         <v>0.9</v>
       </c>
       <c r="O89" s="16" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="P89">
         <f t="shared" si="0"/>
@@ -6545,19 +6593,19 @@
         <v>1.1</v>
       </c>
       <c r="I90" s="6" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="J90">
         <v>0</v>
       </c>
       <c r="L90" s="6" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="M90">
         <v>0.9</v>
       </c>
       <c r="O90" s="16" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="P90">
         <f t="shared" si="0"/>
@@ -6575,11 +6623,11 @@
       <c r="C91" s="3">
         <v>1</v>
       </c>
-      <c r="D91" s="4">
-        <v>6</v>
-      </c>
-      <c r="E91" s="4">
-        <v>34</v>
+      <c r="D91" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="E91" s="4" t="s">
+        <v>121</v>
       </c>
       <c r="F91" s="5">
         <v>0</v>
@@ -6603,7 +6651,7 @@
         <v>0.6</v>
       </c>
       <c r="O91" s="16" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="P91">
         <f t="shared" si="0"/>
@@ -6689,13 +6737,13 @@
         <v>0</v>
       </c>
       <c r="L93" s="6" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="M93">
         <v>1.5</v>
       </c>
       <c r="O93" s="16" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="P93">
         <f t="shared" ref="P93:P98" si="1">ROUNDUP(G93*0.4,1)</f>
@@ -6713,11 +6761,11 @@
       <c r="C94" s="3">
         <v>0</v>
       </c>
-      <c r="D94" s="4">
-        <v>17</v>
-      </c>
-      <c r="E94" s="4">
-        <v>92</v>
+      <c r="D94" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="E94" s="4" t="s">
+        <v>123</v>
       </c>
       <c r="F94" s="5">
         <v>0</v>
@@ -6735,7 +6783,7 @@
         <v>0</v>
       </c>
       <c r="L94" s="6" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="M94">
         <v>0.9</v>
@@ -6753,7 +6801,7 @@
         <v>93</v>
       </c>
       <c r="B95" s="21" t="s">
-        <v>106</v>
+        <v>124</v>
       </c>
       <c r="C95" s="3">
         <v>0</v>
@@ -6783,7 +6831,7 @@
         <v>0.25</v>
       </c>
       <c r="O95" s="16" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="P95">
         <f t="shared" si="1"/>
@@ -6795,7 +6843,7 @@
         <v>94</v>
       </c>
       <c r="B96" s="21" t="s">
-        <v>108</v>
+        <v>126</v>
       </c>
       <c r="C96" s="3">
         <v>0</v>
@@ -6825,7 +6873,7 @@
         <v>0.25</v>
       </c>
       <c r="O96" s="16" t="s">
-        <v>109</v>
+        <v>127</v>
       </c>
       <c r="P96">
         <f t="shared" si="1"/>
@@ -6837,7 +6885,7 @@
         <v>95</v>
       </c>
       <c r="B97" s="21" t="s">
-        <v>110</v>
+        <v>128</v>
       </c>
       <c r="C97" s="3">
         <v>0</v>
@@ -6867,7 +6915,7 @@
         <v>0.25</v>
       </c>
       <c r="O97" s="16" t="s">
-        <v>111</v>
+        <v>129</v>
       </c>
       <c r="P97">
         <f t="shared" si="1"/>
@@ -6910,14 +6958,14 @@
         <v>0.9</v>
       </c>
       <c r="O98" s="16" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="P98">
         <f t="shared" si="1"/>
         <v>0.6</v>
       </c>
       <c r="Q98" s="22" t="s">
-        <v>112</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>

--- a/jyx2/excel/武功招式特效.xlsx
+++ b/jyx2/excel/武功招式特效.xlsx
@@ -254,10 +254,10 @@
     <t>Assets/BuildSource/sound/e50.wav</t>
   </si>
   <si>
-    <t>@Assets/3D/Animation/Jyx2Anims/寒冰神掌待机.anim</t>
-  </si>
-  <si>
-    <t>@Assets/3D/Animation/Jyx2Anims/寒冰神掌.anim</t>
+    <t>@Assets/BuildSource/Skills寒冰神掌待机.anim</t>
+  </si>
+  <si>
+    <t>@Assets/BuildSource/Skills寒冰神掌.anim</t>
   </si>
   <si>
     <t>Assets/Effects/Prefabs/SinKnif/Fx_Nan_SinKnif_Hit.prefab</t>
@@ -293,10 +293,10 @@
     <t>Assets/BuildSource/sound/atk16.wav</t>
   </si>
   <si>
-    <t>@Assets/3D/Animation/Jyx2Anims/太玄神功待机.anim</t>
-  </si>
-  <si>
-    <t>@Assets/3D/Animation/Jyx2Anims/太玄神功.anim</t>
+    <t>@Assets/BuildSource/Skills太玄神功待机.anim</t>
+  </si>
+  <si>
+    <t>@Assets/BuildSource/Skills太玄神功.anim</t>
   </si>
   <si>
     <t>Assets/Effects/Prefabs/hand/Fx_Nan_hand_Skill02_low.prefab</t>
@@ -344,10 +344,10 @@
     <t>Assets/BuildSource/sound/e48.wav</t>
   </si>
   <si>
-    <t>@Assets/3D/Animation/Jyx2Anims/泰山十八盘待机.anim</t>
-  </si>
-  <si>
-    <t>@Assets/3D/Animation/Jyx2Anims/泰山十八盘.anim</t>
+    <t>@Assets/BuildSource/Skills泰山十八盘待机.anim</t>
+  </si>
+  <si>
+    <t>@Assets/BuildSource/Skills泰山十八盘.anim</t>
   </si>
   <si>
     <t>Assets/BuildSource/sound/e23.wav</t>
@@ -371,10 +371,10 @@
     <t>Assets/BuildSource/sound/e33.wav</t>
   </si>
   <si>
-    <t>@Assets/3D/Animation/Jyx2Anims/灭绝剑法待机.anim</t>
-  </si>
-  <si>
-    <t>@Assets/3D/Animation/Jyx2Anims/灭绝剑法.anim</t>
+    <t>@Assets/BuildSource/Skills灭绝剑法待机.anim</t>
+  </si>
+  <si>
+    <t>@Assets/BuildSource/Skills灭绝剑法.anim</t>
   </si>
   <si>
     <t>Assets/BuildSource/sound/e25.wav</t>
@@ -404,10 +404,10 @@
     <t>Assets/BuildSource/sound/e35.wav</t>
   </si>
   <si>
-    <t>@Assets/3D/Animation/Jyx2Anims/独孤九剑待机.anim</t>
-  </si>
-  <si>
-    <t>@Assets/3D/Animation/Jyx2Anims/独孤九剑.anim</t>
+    <t>@Assets/BuildSource/Skills独孤九剑待机.anim</t>
+  </si>
+  <si>
+    <t>@Assets/BuildSource/Skills独孤九剑.anim</t>
   </si>
   <si>
     <t>Assets/Jyx2Effect/Prefabs/eft006.prefab</t>
@@ -422,19 +422,19 @@
     <t>Assets/BuildSource/sound/e43.wav</t>
   </si>
   <si>
-    <t>@Assets/3D/Animation/Jyx2Anims/血刀大法待机.anim</t>
-  </si>
-  <si>
-    <t>@Assets/3D/Animation/Jyx2Anims/血刀大法.anim</t>
+    <t>@Assets/BuildSource/Skills血刀大法待机.anim</t>
+  </si>
+  <si>
+    <t>@Assets/BuildSource/Skills血刀大法.anim</t>
   </si>
   <si>
     <t>Assets/BuildSource/sound/e12.wav</t>
   </si>
   <si>
-    <t>@Assets/3D/Animation/Jyx2Anims/狂风刀法待机.anim</t>
-  </si>
-  <si>
-    <t>@Assets/3D/Animation/Jyx2Anims/狂风刀法.anim</t>
+    <t>@Assets/BuildSource/Skills狂风刀法待机.anim</t>
+  </si>
+  <si>
+    <t>@Assets/BuildSource/Skills狂风刀法.anim</t>
   </si>
   <si>
     <t>Assets/BuildSource/sound/e45.wav</t>
@@ -446,10 +446,10 @@
     <t>Assets/BuildSource/sound/e13.wav</t>
   </si>
   <si>
-    <t>@Assets/3D/Animation/Jyx2Anims/胡家刀法待机.anim</t>
-  </si>
-  <si>
-    <t>@Assets/3D/Animation/Jyx2Anims/胡家刀法.anim</t>
+    <t>@Assets/BuildSource/Skills胡家刀法待机.anim</t>
+  </si>
+  <si>
+    <t>@Assets/BuildSource/Skills胡家刀法.anim</t>
   </si>
   <si>
     <t>Assets/BuildSource/sound/atk05.wav</t>
@@ -479,10 +479,10 @@
     <t>Assets/BuildSource/sound/e51.wav</t>
   </si>
   <si>
-    <t>Assets/3D/AnimationControllers/鳄鱼_controller.controller</t>
-  </si>
-  <si>
-    <t>Assets/3D/AnimationControllers/火蜘蛛controller.controller</t>
+    <t>Assets/BuildSource/AnimationControllers/鳄鱼_controller.controller</t>
+  </si>
+  <si>
+    <t>Assets/BuildSource/AnimationControllers/火蜘蛛controller.controller</t>
   </si>
   <si>
     <t>Assets/BuildSource/sound/e08.wav</t>
@@ -491,13 +491,13 @@
     <t>Assets/BuildSource/sound/atk19.wav</t>
   </si>
   <si>
-    <t>Assets/3D/AnimationControllers/蛇_controller.controller</t>
-  </si>
-  <si>
-    <t>@Assets/3D/Animation/Jyx2Anims/金花婆婆待机.anim</t>
-  </si>
-  <si>
-    <t>@Assets/3D/Animation/Jyx2Anims/金花婆婆攻击.anim</t>
+    <t>Assets/BuildSource/AnimationControllers/蛇_controller.controller</t>
+  </si>
+  <si>
+    <t>@Assets/BuildSource/Skills金花婆婆待机.anim</t>
+  </si>
+  <si>
+    <t>@Assets/BuildSource/Skills金花婆婆攻击.anim</t>
   </si>
   <si>
     <t>Assets/BuildSource/sound/e09.wav</t>
@@ -506,16 +506,16 @@
     <t>Assets/BuildSource/sound/atk11.wav</t>
   </si>
   <si>
-    <t>@Assets/3D/Animation/Jyx2Anims/松风剑法待机.anim</t>
-  </si>
-  <si>
-    <t>@Assets/3D/Animation/Jyx2Anims/松风剑法.anim</t>
-  </si>
-  <si>
-    <t>@Assets/3D/Animation/Jyx2Anims/九阳神功待机.anim</t>
-  </si>
-  <si>
-    <t>@Assets/3D/Animation/Jyx2Anims/九阳神功.anim</t>
+    <t>@Assets/BuildSource/Skills松风剑法待机.anim</t>
+  </si>
+  <si>
+    <t>@Assets/BuildSource/Skills松风剑法.anim</t>
+  </si>
+  <si>
+    <t>@Assets/BuildSource/Skills九阳神功待机.anim</t>
+  </si>
+  <si>
+    <t>@Assets/BuildSource/Skills九阳神功.anim</t>
   </si>
   <si>
     <t>用毒</t>
@@ -536,7 +536,7 @@
     <t>Assets/BuildSource/sound/atk24.wav</t>
   </si>
   <si>
-    <t>Assets/3D/AnimationControllers/青蛙_controller.controller</t>
+    <t>Assets/BuildSource/AnimationControllers/青蛙_controller.controller</t>
   </si>
 </sst>
 </file>
@@ -2498,11 +2498,11 @@
   <dimension ref="A1:Q98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C65" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D66" sqref="D66"/>
+      <selection pane="bottomRight" activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/jyx2/excel/武功招式特效.xlsx
+++ b/jyx2/excel/武功招式特效.xlsx
@@ -254,10 +254,10 @@
     <t>Assets/BuildSource/sound/e50.wav</t>
   </si>
   <si>
-    <t>@Assets/BuildSource/Skills寒冰神掌待机.anim</t>
-  </si>
-  <si>
-    <t>@Assets/BuildSource/Skills寒冰神掌.anim</t>
+    <t>@Assets/BuildSource/Animations寒冰神掌待机.anim</t>
+  </si>
+  <si>
+    <t>@Assets/BuildSource/Animations寒冰神掌.anim</t>
   </si>
   <si>
     <t>Assets/Effects/Prefabs/SinKnif/Fx_Nan_SinKnif_Hit.prefab</t>
@@ -293,10 +293,10 @@
     <t>Assets/BuildSource/sound/atk16.wav</t>
   </si>
   <si>
-    <t>@Assets/BuildSource/Skills太玄神功待机.anim</t>
-  </si>
-  <si>
-    <t>@Assets/BuildSource/Skills太玄神功.anim</t>
+    <t>@Assets/BuildSource/Animations太玄神功待机.anim</t>
+  </si>
+  <si>
+    <t>@Assets/BuildSource/Animations太玄神功.anim</t>
   </si>
   <si>
     <t>Assets/Effects/Prefabs/hand/Fx_Nan_hand_Skill02_low.prefab</t>
@@ -344,10 +344,10 @@
     <t>Assets/BuildSource/sound/e48.wav</t>
   </si>
   <si>
-    <t>@Assets/BuildSource/Skills泰山十八盘待机.anim</t>
-  </si>
-  <si>
-    <t>@Assets/BuildSource/Skills泰山十八盘.anim</t>
+    <t>@Assets/BuildSource/Animations泰山十八盘待机.anim</t>
+  </si>
+  <si>
+    <t>@Assets/BuildSource/Animations泰山十八盘.anim</t>
   </si>
   <si>
     <t>Assets/BuildSource/sound/e23.wav</t>
@@ -371,10 +371,10 @@
     <t>Assets/BuildSource/sound/e33.wav</t>
   </si>
   <si>
-    <t>@Assets/BuildSource/Skills灭绝剑法待机.anim</t>
-  </si>
-  <si>
-    <t>@Assets/BuildSource/Skills灭绝剑法.anim</t>
+    <t>@Assets/BuildSource/Animations灭绝剑法待机.anim</t>
+  </si>
+  <si>
+    <t>@Assets/BuildSource/Animations灭绝剑法.anim</t>
   </si>
   <si>
     <t>Assets/BuildSource/sound/e25.wav</t>
@@ -404,10 +404,10 @@
     <t>Assets/BuildSource/sound/e35.wav</t>
   </si>
   <si>
-    <t>@Assets/BuildSource/Skills独孤九剑待机.anim</t>
-  </si>
-  <si>
-    <t>@Assets/BuildSource/Skills独孤九剑.anim</t>
+    <t>@Assets/BuildSource/Animations独孤九剑待机.anim</t>
+  </si>
+  <si>
+    <t>@Assets/BuildSource/Animations独孤九剑.anim</t>
   </si>
   <si>
     <t>Assets/Jyx2Effect/Prefabs/eft006.prefab</t>
@@ -422,19 +422,19 @@
     <t>Assets/BuildSource/sound/e43.wav</t>
   </si>
   <si>
-    <t>@Assets/BuildSource/Skills血刀大法待机.anim</t>
-  </si>
-  <si>
-    <t>@Assets/BuildSource/Skills血刀大法.anim</t>
+    <t>@Assets/BuildSource/Animations血刀大法待机.anim</t>
+  </si>
+  <si>
+    <t>@Assets/BuildSource/Animations血刀大法.anim</t>
   </si>
   <si>
     <t>Assets/BuildSource/sound/e12.wav</t>
   </si>
   <si>
-    <t>@Assets/BuildSource/Skills狂风刀法待机.anim</t>
-  </si>
-  <si>
-    <t>@Assets/BuildSource/Skills狂风刀法.anim</t>
+    <t>@Assets/BuildSource/Animations狂风刀法待机.anim</t>
+  </si>
+  <si>
+    <t>@Assets/BuildSource/Animations狂风刀法.anim</t>
   </si>
   <si>
     <t>Assets/BuildSource/sound/e45.wav</t>
@@ -446,10 +446,10 @@
     <t>Assets/BuildSource/sound/e13.wav</t>
   </si>
   <si>
-    <t>@Assets/BuildSource/Skills胡家刀法待机.anim</t>
-  </si>
-  <si>
-    <t>@Assets/BuildSource/Skills胡家刀法.anim</t>
+    <t>@Assets/BuildSource/Animations胡家刀法待机.anim</t>
+  </si>
+  <si>
+    <t>@Assets/BuildSource/Animations胡家刀法.anim</t>
   </si>
   <si>
     <t>Assets/BuildSource/sound/atk05.wav</t>
@@ -494,10 +494,10 @@
     <t>Assets/BuildSource/AnimationControllers/蛇_controller.controller</t>
   </si>
   <si>
-    <t>@Assets/BuildSource/Skills金花婆婆待机.anim</t>
-  </si>
-  <si>
-    <t>@Assets/BuildSource/Skills金花婆婆攻击.anim</t>
+    <t>@Assets/BuildSource/Animations金花婆婆待机.anim</t>
+  </si>
+  <si>
+    <t>@Assets/BuildSource/Animations金花婆婆攻击.anim</t>
   </si>
   <si>
     <t>Assets/BuildSource/sound/e09.wav</t>
@@ -506,16 +506,16 @@
     <t>Assets/BuildSource/sound/atk11.wav</t>
   </si>
   <si>
-    <t>@Assets/BuildSource/Skills松风剑法待机.anim</t>
-  </si>
-  <si>
-    <t>@Assets/BuildSource/Skills松风剑法.anim</t>
-  </si>
-  <si>
-    <t>@Assets/BuildSource/Skills九阳神功待机.anim</t>
-  </si>
-  <si>
-    <t>@Assets/BuildSource/Skills九阳神功.anim</t>
+    <t>@Assets/BuildSource/Animations松风剑法待机.anim</t>
+  </si>
+  <si>
+    <t>@Assets/BuildSource/Animations松风剑法.anim</t>
+  </si>
+  <si>
+    <t>@Assets/BuildSource/Animations九阳神功待机.anim</t>
+  </si>
+  <si>
+    <t>@Assets/BuildSource/Animations九阳神功.anim</t>
   </si>
   <si>
     <t>用毒</t>
@@ -545,8 +545,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
@@ -576,13 +576,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -597,7 +590,37 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -610,24 +633,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -638,6 +646,14 @@
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -656,11 +672,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -673,29 +689,6 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -704,7 +697,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -726,12 +719,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -752,7 +752,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -764,13 +776,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -788,37 +824,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -836,19 +848,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -860,19 +878,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -890,31 +920,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -926,13 +932,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -975,6 +975,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -998,6 +1013,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1017,31 +1041,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1076,157 +1076,157 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2498,11 +2498,11 @@
   <dimension ref="A1:Q98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K3" sqref="K3"/>
+      <selection pane="bottomRight" activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/jyx2/excel/武功招式特效.xlsx
+++ b/jyx2/excel/武功招式特效.xlsx
@@ -13,7 +13,7 @@
     <externalReference r:id="rId2"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$Q$98</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$S$98</definedName>
   </definedNames>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
@@ -44,11 +44,33 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
+为空则使用默认</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>cg:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
 对应AnimationController里的PoseCode，影响待机、移动、受击等动作</t>
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0">
+    <comment ref="G1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -71,7 +93,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="1">
+    <comment ref="M1" authorId="1">
       <text>
         <r>
           <rPr>
@@ -94,7 +116,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="1">
+    <comment ref="P1" authorId="1">
       <text>
         <r>
           <rPr>
@@ -116,7 +138,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q1" authorId="0">
+    <comment ref="S1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -144,7 +166,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="140">
   <si>
     <t>代号</t>
   </si>
@@ -155,10 +177,16 @@
     <t>武器绑定</t>
   </si>
   <si>
-    <t>动作ID</t>
-  </si>
-  <si>
-    <t>攻击ID</t>
+    <t>受击动作</t>
+  </si>
+  <si>
+    <t>移动动作</t>
+  </si>
+  <si>
+    <t>待机动作</t>
+  </si>
+  <si>
+    <t>攻击动作</t>
   </si>
   <si>
     <t>出招动作延迟</t>
@@ -254,10 +282,10 @@
     <t>Assets/BuildSource/sound/e50.wav</t>
   </si>
   <si>
-    <t>@Assets/BuildSource/Animations寒冰神掌待机.anim</t>
-  </si>
-  <si>
-    <t>@Assets/BuildSource/Animations寒冰神掌.anim</t>
+    <t>@Assets/BuildSource/Animations/寒冰神掌待机.anim</t>
+  </si>
+  <si>
+    <t>@Assets/BuildSource/Animations/寒冰神掌.anim</t>
   </si>
   <si>
     <t>Assets/Effects/Prefabs/SinKnif/Fx_Nan_SinKnif_Hit.prefab</t>
@@ -293,10 +321,10 @@
     <t>Assets/BuildSource/sound/atk16.wav</t>
   </si>
   <si>
-    <t>@Assets/BuildSource/Animations太玄神功待机.anim</t>
-  </si>
-  <si>
-    <t>@Assets/BuildSource/Animations太玄神功.anim</t>
+    <t>@Assets/BuildSource/Animations/太玄神功待机.anim</t>
+  </si>
+  <si>
+    <t>@Assets/BuildSource/Animations/太玄神功.anim</t>
   </si>
   <si>
     <t>Assets/Effects/Prefabs/hand/Fx_Nan_hand_Skill02_low.prefab</t>
@@ -344,10 +372,10 @@
     <t>Assets/BuildSource/sound/e48.wav</t>
   </si>
   <si>
-    <t>@Assets/BuildSource/Animations泰山十八盘待机.anim</t>
-  </si>
-  <si>
-    <t>@Assets/BuildSource/Animations泰山十八盘.anim</t>
+    <t>@Assets/BuildSource/Animations/泰山十八盘待机.anim</t>
+  </si>
+  <si>
+    <t>@Assets/BuildSource/Animations/泰山十八盘.anim</t>
   </si>
   <si>
     <t>Assets/BuildSource/sound/e23.wav</t>
@@ -371,10 +399,13 @@
     <t>Assets/BuildSource/sound/e33.wav</t>
   </si>
   <si>
-    <t>@Assets/BuildSource/Animations灭绝剑法待机.anim</t>
-  </si>
-  <si>
-    <t>@Assets/BuildSource/Animations灭绝剑法.anim</t>
+    <t>@Assets/BuildSource/Animations/灭绝剑法移动.anim</t>
+  </si>
+  <si>
+    <t>@Assets/BuildSource/Animations/灭绝剑法待机.anim</t>
+  </si>
+  <si>
+    <t>@Assets/BuildSource/Animations/灭绝剑法.anim</t>
   </si>
   <si>
     <t>Assets/BuildSource/sound/e25.wav</t>
@@ -404,10 +435,13 @@
     <t>Assets/BuildSource/sound/e35.wav</t>
   </si>
   <si>
-    <t>@Assets/BuildSource/Animations独孤九剑待机.anim</t>
-  </si>
-  <si>
-    <t>@Assets/BuildSource/Animations独孤九剑.anim</t>
+    <t>@Assets/BuildSource/Animations/独孤九剑移动.anim</t>
+  </si>
+  <si>
+    <t>@Assets/BuildSource/Animations/独孤九剑待机.anim</t>
+  </si>
+  <si>
+    <t>@Assets/BuildSource/Animations/独孤九剑.anim</t>
   </si>
   <si>
     <t>Assets/Jyx2Effect/Prefabs/eft006.prefab</t>
@@ -422,19 +456,25 @@
     <t>Assets/BuildSource/sound/e43.wav</t>
   </si>
   <si>
-    <t>@Assets/BuildSource/Animations血刀大法待机.anim</t>
-  </si>
-  <si>
-    <t>@Assets/BuildSource/Animations血刀大法.anim</t>
+    <t>@Assets/BuildSource/Animations/血刀大法移动.anim</t>
+  </si>
+  <si>
+    <t>@Assets/BuildSource/Animations/血刀大法待机.anim</t>
+  </si>
+  <si>
+    <t>@Assets/BuildSource/Animations/血刀大法.anim</t>
   </si>
   <si>
     <t>Assets/BuildSource/sound/e12.wav</t>
   </si>
   <si>
-    <t>@Assets/BuildSource/Animations狂风刀法待机.anim</t>
-  </si>
-  <si>
-    <t>@Assets/BuildSource/Animations狂风刀法.anim</t>
+    <t>@Assets/BuildSource/Animations/狂风刀法移动.anim</t>
+  </si>
+  <si>
+    <t>@Assets/BuildSource/Animations/狂风刀法待机.anim</t>
+  </si>
+  <si>
+    <t>@Assets/BuildSource/Animations/狂风刀法.anim</t>
   </si>
   <si>
     <t>Assets/BuildSource/sound/e45.wav</t>
@@ -446,10 +486,13 @@
     <t>Assets/BuildSource/sound/e13.wav</t>
   </si>
   <si>
-    <t>@Assets/BuildSource/Animations胡家刀法待机.anim</t>
-  </si>
-  <si>
-    <t>@Assets/BuildSource/Animations胡家刀法.anim</t>
+    <t>@Assets/BuildSource/Animations/胡家刀法移动.anim</t>
+  </si>
+  <si>
+    <t>@Assets/BuildSource/Animations/胡家刀法待机.anim</t>
+  </si>
+  <si>
+    <t>@Assets/BuildSource/Animations/胡家刀法.anim</t>
   </si>
   <si>
     <t>Assets/BuildSource/sound/atk05.wav</t>
@@ -494,10 +537,10 @@
     <t>Assets/BuildSource/AnimationControllers/蛇_controller.controller</t>
   </si>
   <si>
-    <t>@Assets/BuildSource/Animations金花婆婆待机.anim</t>
-  </si>
-  <si>
-    <t>@Assets/BuildSource/Animations金花婆婆攻击.anim</t>
+    <t>@Assets/BuildSource/Animations/金花婆婆待机.anim</t>
+  </si>
+  <si>
+    <t>@Assets/BuildSource/Animations/金花婆婆攻击.anim</t>
   </si>
   <si>
     <t>Assets/BuildSource/sound/e09.wav</t>
@@ -506,16 +549,22 @@
     <t>Assets/BuildSource/sound/atk11.wav</t>
   </si>
   <si>
-    <t>@Assets/BuildSource/Animations松风剑法待机.anim</t>
-  </si>
-  <si>
-    <t>@Assets/BuildSource/Animations松风剑法.anim</t>
-  </si>
-  <si>
-    <t>@Assets/BuildSource/Animations九阳神功待机.anim</t>
-  </si>
-  <si>
-    <t>@Assets/BuildSource/Animations九阳神功.anim</t>
+    <t>@Assets/BuildSource/Animations/松风剑法移动.anim</t>
+  </si>
+  <si>
+    <t>@Assets/BuildSource/Animations/松风剑法待机.anim</t>
+  </si>
+  <si>
+    <t>@Assets/BuildSource/Animations/松风剑法.anim</t>
+  </si>
+  <si>
+    <t>@Assets/BuildSource/Animations/九阳神功移动.anim</t>
+  </si>
+  <si>
+    <t>@Assets/BuildSource/Animations/九阳神功待机.anim</t>
+  </si>
+  <si>
+    <t>@Assets/BuildSource/Animations/九阳神功.anim</t>
   </si>
   <si>
     <t>用毒</t>
@@ -544,10 +593,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -576,13 +625,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -596,9 +638,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -611,23 +667,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -641,6 +697,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -649,11 +713,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -665,18 +728,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -690,6 +754,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -697,41 +769,18 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -752,13 +801,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -770,7 +891,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -782,37 +915,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -830,19 +957,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -854,85 +981,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -974,16 +1023,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1007,16 +1056,18 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1046,16 +1097,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1063,11 +1114,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1076,157 +1125,157 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1282,23 +1331,23 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2495,34 +2544,36 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q98"/>
+  <dimension ref="A1:S98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C77" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E12" sqref="E12"/>
+      <selection pane="bottomRight" activeCell="F81" sqref="F81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="2" width="9" style="2"/>
     <col min="3" max="3" width="8.125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="28.125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="27.625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="12.625" style="5" customWidth="1"/>
-    <col min="9" max="9" width="18.375" style="6" customWidth="1"/>
-    <col min="10" max="10" width="12.75" customWidth="1"/>
-    <col min="11" max="11" width="12.75" style="7" customWidth="1"/>
-    <col min="12" max="12" width="16.375" style="6" customWidth="1"/>
-    <col min="13" max="13" width="11.875" customWidth="1"/>
-    <col min="14" max="14" width="11.875" style="7" customWidth="1"/>
-    <col min="15" max="15" width="23.75" style="6" customWidth="1"/>
-    <col min="17" max="17" width="43.75" style="4" customWidth="1"/>
+    <col min="4" max="4" width="19.25" style="4" customWidth="1"/>
+    <col min="5" max="5" width="18.625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="28.125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="27.625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="12.625" style="5" customWidth="1"/>
+    <col min="11" max="11" width="18.375" style="6" customWidth="1"/>
+    <col min="12" max="12" width="12.75" customWidth="1"/>
+    <col min="13" max="13" width="12.75" style="7" customWidth="1"/>
+    <col min="14" max="14" width="16.375" style="6" customWidth="1"/>
+    <col min="15" max="15" width="11.875" customWidth="1"/>
+    <col min="16" max="16" width="11.875" style="7" customWidth="1"/>
+    <col min="17" max="17" width="23.75" style="6" customWidth="1"/>
+    <col min="19" max="19" width="43.75" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -2538,44 +2589,50 @@
       <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
       <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="K1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="N1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="O1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="Q1" s="6" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" ht="54" spans="1:16">
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" ht="54" spans="1:18">
       <c r="A2" s="8">
         <v>0</v>
       </c>
@@ -2586,41 +2643,44 @@
       <c r="C2" s="3">
         <v>0</v>
       </c>
-      <c r="D2" s="4">
-        <v>1</v>
-      </c>
       <c r="E2" s="4">
         <v>1</v>
       </c>
-      <c r="F2" s="11">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-      <c r="H2">
+      <c r="F2" s="4">
+        <v>1</v>
+      </c>
+      <c r="G2" s="4">
+        <v>1</v>
+      </c>
+      <c r="H2" s="11">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
         <v>0.7</v>
       </c>
-      <c r="I2" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2">
+      <c r="K2" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2">
         <v>0.2</v>
       </c>
-      <c r="L2" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="M2">
+      <c r="N2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="O2">
         <v>0.6</v>
       </c>
-      <c r="O2" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="P2">
+      <c r="Q2" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="R2">
         <v>0.4</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="54" spans="1:17">
+    <row r="3" s="1" customFormat="1" ht="54" spans="1:19">
       <c r="A3" s="12">
         <v>1</v>
       </c>
@@ -2631,46 +2691,50 @@
       <c r="C3" s="14">
         <v>0</v>
       </c>
-      <c r="D3" s="15">
+      <c r="D3" s="15"/>
+      <c r="E3" s="15">
         <v>17</v>
       </c>
-      <c r="E3" s="4">
-        <v>1</v>
-      </c>
-      <c r="F3" s="11">
-        <v>0</v>
-      </c>
-      <c r="G3" s="1">
+      <c r="F3" s="15">
+        <v>17</v>
+      </c>
+      <c r="G3" s="4">
+        <v>1</v>
+      </c>
+      <c r="H3" s="11">
+        <v>0</v>
+      </c>
+      <c r="I3" s="1">
         <v>1.5</v>
       </c>
-      <c r="H3" s="1">
-        <v>1</v>
-      </c>
-      <c r="I3" s="17" t="s">
+      <c r="J3" s="1">
+        <v>1</v>
+      </c>
+      <c r="K3" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="L3" s="1">
+        <v>0</v>
+      </c>
+      <c r="M3" s="17"/>
+      <c r="N3" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="J3" s="1">
-        <v>0</v>
-      </c>
-      <c r="K3" s="18"/>
-      <c r="L3" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="M3" s="1">
+      <c r="O3" s="1">
         <v>0.8</v>
       </c>
-      <c r="N3" s="18" t="s">
+      <c r="P3" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q3" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="O3" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="P3" s="1">
+      <c r="R3" s="1">
         <v>0.6</v>
       </c>
-      <c r="Q3" s="15"/>
-    </row>
-    <row r="4" ht="54" spans="1:16">
+      <c r="S3" s="15"/>
+    </row>
+    <row r="4" ht="54" spans="1:18">
       <c r="A4" s="8">
         <v>2</v>
       </c>
@@ -2681,41 +2745,44 @@
       <c r="C4" s="3">
         <v>0</v>
       </c>
-      <c r="D4" s="4">
+      <c r="E4" s="4">
         <v>17</v>
       </c>
-      <c r="E4" s="4">
-        <v>1</v>
-      </c>
-      <c r="F4" s="5">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="H4">
+      <c r="F4" s="4">
+        <v>17</v>
+      </c>
+      <c r="G4" s="4">
+        <v>1</v>
+      </c>
+      <c r="H4" s="5">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
         <v>0.7</v>
       </c>
-      <c r="I4" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="L4" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="M4">
+      <c r="K4" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="N4" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="O4">
         <v>0.6</v>
       </c>
-      <c r="O4" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="P4">
+      <c r="Q4" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="R4">
         <v>0.4</v>
       </c>
     </row>
-    <row r="5" ht="54" spans="1:16">
+    <row r="5" ht="54" spans="1:18">
       <c r="A5" s="8">
         <v>3</v>
       </c>
@@ -2726,41 +2793,44 @@
       <c r="C5" s="3">
         <v>0</v>
       </c>
-      <c r="D5" s="4">
+      <c r="E5" s="4">
         <v>5</v>
       </c>
-      <c r="E5" s="4">
-        <v>1</v>
-      </c>
-      <c r="F5" s="5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-      <c r="H5">
+      <c r="F5" s="4">
+        <v>5</v>
+      </c>
+      <c r="G5" s="4">
+        <v>1</v>
+      </c>
+      <c r="H5" s="5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
         <v>0.7</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="K5" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="N5" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="L5" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="M5">
+      <c r="O5">
         <v>0.6</v>
       </c>
-      <c r="O5" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="P5">
+      <c r="Q5" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="R5">
         <v>0.4</v>
       </c>
     </row>
-    <row r="6" ht="54" spans="1:16">
+    <row r="6" ht="54" spans="1:18">
       <c r="A6" s="8">
         <v>4</v>
       </c>
@@ -2771,41 +2841,44 @@
       <c r="C6" s="3">
         <v>0</v>
       </c>
-      <c r="D6" s="4">
+      <c r="E6" s="4">
         <v>19</v>
       </c>
-      <c r="E6" s="4">
+      <c r="F6" s="4">
+        <v>19</v>
+      </c>
+      <c r="G6" s="4">
         <v>4</v>
       </c>
-      <c r="F6" s="5">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-      <c r="H6">
+      <c r="H6" s="5">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
         <v>0.7</v>
       </c>
-      <c r="I6" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="L6" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="M6">
+      <c r="K6" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="N6" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="O6">
         <v>0.6</v>
       </c>
-      <c r="O6" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="P6">
+      <c r="Q6" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="R6">
         <v>0.4</v>
       </c>
     </row>
-    <row r="7" ht="54" spans="1:16">
+    <row r="7" ht="54" spans="1:18">
       <c r="A7" s="8">
         <v>5</v>
       </c>
@@ -2816,41 +2889,44 @@
       <c r="C7" s="3">
         <v>0</v>
       </c>
-      <c r="D7" s="4">
+      <c r="E7" s="4">
         <v>9</v>
       </c>
-      <c r="E7" s="4">
+      <c r="F7" s="4">
+        <v>9</v>
+      </c>
+      <c r="G7" s="4">
         <v>5</v>
       </c>
-      <c r="F7" s="5">
-        <v>0</v>
-      </c>
-      <c r="G7">
+      <c r="H7" s="5">
+        <v>0</v>
+      </c>
+      <c r="I7">
         <v>1.5</v>
       </c>
-      <c r="H7">
+      <c r="J7">
         <v>1.1</v>
       </c>
-      <c r="I7" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="L7" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="M7">
+      <c r="K7" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="N7" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="O7">
         <v>0.9</v>
       </c>
-      <c r="O7" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="P7">
+      <c r="Q7" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="R7">
         <v>0.6</v>
       </c>
     </row>
-    <row r="8" ht="54" spans="1:16">
+    <row r="8" ht="54" spans="1:18">
       <c r="A8" s="8">
         <v>6</v>
       </c>
@@ -2861,41 +2937,44 @@
       <c r="C8" s="3">
         <v>0</v>
       </c>
-      <c r="D8" s="4">
+      <c r="E8" s="4">
         <v>7</v>
       </c>
-      <c r="E8" s="4">
+      <c r="F8" s="4">
+        <v>7</v>
+      </c>
+      <c r="G8" s="4">
         <v>6</v>
       </c>
-      <c r="F8" s="5">
-        <v>0</v>
-      </c>
-      <c r="G8">
+      <c r="H8" s="5">
+        <v>0</v>
+      </c>
+      <c r="I8">
         <v>1.5</v>
       </c>
-      <c r="H8">
+      <c r="J8">
         <v>1.1</v>
       </c>
-      <c r="I8" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="L8" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="M8">
+      <c r="K8" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="O8">
         <v>0.9</v>
       </c>
-      <c r="O8" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="P8">
+      <c r="Q8" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="R8">
         <v>0.6</v>
       </c>
     </row>
-    <row r="9" ht="54" spans="1:16">
+    <row r="9" ht="54" spans="1:18">
       <c r="A9" s="8">
         <v>7</v>
       </c>
@@ -2906,41 +2985,44 @@
       <c r="C9" s="3">
         <v>0</v>
       </c>
-      <c r="D9" s="4">
+      <c r="E9" s="4">
         <v>13</v>
       </c>
-      <c r="E9" s="4">
+      <c r="F9" s="4">
+        <v>13</v>
+      </c>
+      <c r="G9" s="4">
         <v>7</v>
       </c>
-      <c r="F9" s="5">
-        <v>0</v>
-      </c>
-      <c r="G9">
+      <c r="H9" s="5">
+        <v>0</v>
+      </c>
+      <c r="I9">
         <v>3.5</v>
       </c>
-      <c r="H9">
+      <c r="J9">
         <v>2.5</v>
       </c>
-      <c r="I9" s="6" t="s">
+      <c r="K9" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="N9" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="L9" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="M9">
+      <c r="O9">
         <v>2.1</v>
       </c>
-      <c r="O9" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="P9">
+      <c r="Q9" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="R9">
         <v>1.6</v>
       </c>
     </row>
-    <row r="10" ht="54" spans="1:16">
+    <row r="10" ht="54" spans="1:18">
       <c r="A10" s="8">
         <v>8</v>
       </c>
@@ -2951,41 +3033,44 @@
       <c r="C10" s="3">
         <v>0</v>
       </c>
-      <c r="D10" s="4">
+      <c r="E10" s="4">
         <v>18</v>
       </c>
-      <c r="E10" s="4">
+      <c r="F10" s="4">
+        <v>18</v>
+      </c>
+      <c r="G10" s="4">
         <v>8</v>
       </c>
-      <c r="F10" s="5">
-        <v>0</v>
-      </c>
-      <c r="G10">
+      <c r="H10" s="5">
+        <v>0</v>
+      </c>
+      <c r="I10">
         <v>1.5</v>
       </c>
-      <c r="H10">
+      <c r="J10">
         <v>1.1</v>
       </c>
-      <c r="I10" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="L10" s="6" t="s">
+      <c r="K10" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="M10">
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="N10" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="O10">
         <v>0.9</v>
       </c>
-      <c r="O10" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="P10">
+      <c r="Q10" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="R10">
         <v>0.6</v>
       </c>
     </row>
-    <row r="11" ht="54" spans="1:16">
+    <row r="11" ht="54" spans="1:18">
       <c r="A11" s="8">
         <v>9</v>
       </c>
@@ -2996,41 +3081,44 @@
       <c r="C11" s="3">
         <v>0</v>
       </c>
-      <c r="D11" s="4">
+      <c r="E11" s="4">
         <v>12</v>
       </c>
-      <c r="E11" s="4">
+      <c r="F11" s="4">
+        <v>12</v>
+      </c>
+      <c r="G11" s="4">
         <v>9</v>
       </c>
-      <c r="F11" s="5">
-        <v>0</v>
-      </c>
-      <c r="G11">
+      <c r="H11" s="5">
+        <v>0</v>
+      </c>
+      <c r="I11">
         <v>1.5</v>
       </c>
-      <c r="H11">
+      <c r="J11">
         <v>1.1</v>
       </c>
-      <c r="I11" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="L11" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="M11">
+      <c r="K11" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="N11" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="O11">
         <v>0.9</v>
       </c>
-      <c r="O11" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="P11">
+      <c r="Q11" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="R11">
         <v>0.6</v>
       </c>
     </row>
-    <row r="12" ht="54" spans="1:16">
+    <row r="12" ht="54" spans="1:18">
       <c r="A12" s="8">
         <v>10</v>
       </c>
@@ -3041,41 +3129,44 @@
       <c r="C12" s="3">
         <v>0</v>
       </c>
-      <c r="D12" s="4">
+      <c r="E12" s="4">
         <v>19</v>
       </c>
-      <c r="E12" s="4">
+      <c r="F12" s="4">
+        <v>19</v>
+      </c>
+      <c r="G12" s="4">
         <v>10</v>
       </c>
-      <c r="F12" s="5">
-        <v>0</v>
-      </c>
-      <c r="G12">
+      <c r="H12" s="5">
+        <v>0</v>
+      </c>
+      <c r="I12">
         <v>1.5</v>
       </c>
-      <c r="H12">
+      <c r="J12">
         <v>1.1</v>
       </c>
-      <c r="I12" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-      <c r="L12" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="M12">
+      <c r="K12" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="N12" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="O12">
         <v>0.9</v>
       </c>
-      <c r="O12" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="P12">
+      <c r="Q12" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="R12">
         <v>0.6</v>
       </c>
     </row>
-    <row r="13" ht="54" spans="1:16">
+    <row r="13" ht="54" spans="1:18">
       <c r="A13" s="8">
         <v>11</v>
       </c>
@@ -3086,41 +3177,44 @@
       <c r="C13" s="3">
         <v>0</v>
       </c>
-      <c r="D13" s="4">
+      <c r="E13" s="4">
         <v>7</v>
       </c>
-      <c r="E13" s="4">
+      <c r="F13" s="4">
+        <v>7</v>
+      </c>
+      <c r="G13" s="4">
         <v>11</v>
       </c>
-      <c r="F13" s="5">
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <v>1</v>
-      </c>
-      <c r="H13">
+      <c r="H13" s="5">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13">
         <v>0.7</v>
       </c>
-      <c r="I13" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-      <c r="L13" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="M13">
+      <c r="K13" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="N13" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="O13">
         <v>0.6</v>
       </c>
-      <c r="O13" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="P13">
+      <c r="Q13" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="R13">
         <v>0.4</v>
       </c>
     </row>
-    <row r="14" ht="54" spans="1:16">
+    <row r="14" ht="54" spans="1:18">
       <c r="A14" s="8">
         <v>12</v>
       </c>
@@ -3131,41 +3225,44 @@
       <c r="C14" s="3">
         <v>0</v>
       </c>
-      <c r="D14" s="4">
+      <c r="E14" s="4">
         <v>15</v>
       </c>
-      <c r="E14" s="4">
+      <c r="F14" s="4">
+        <v>15</v>
+      </c>
+      <c r="G14" s="4">
         <v>12</v>
       </c>
-      <c r="F14" s="5">
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <v>1</v>
-      </c>
-      <c r="H14">
+      <c r="H14" s="5">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14">
         <v>0.7</v>
       </c>
-      <c r="I14" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-      <c r="L14" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="M14">
+      <c r="K14" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="N14" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="O14">
         <v>0.6</v>
       </c>
-      <c r="O14" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="P14">
+      <c r="Q14" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="R14">
         <v>0.4</v>
       </c>
     </row>
-    <row r="15" ht="54" spans="1:16">
+    <row r="15" ht="54" spans="1:18">
       <c r="A15" s="8">
         <v>13</v>
       </c>
@@ -3176,41 +3273,41 @@
       <c r="C15" s="3">
         <v>0</v>
       </c>
-      <c r="D15" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F15" s="5">
-        <v>0</v>
-      </c>
-      <c r="G15">
-        <v>1</v>
-      </c>
-      <c r="H15">
+      <c r="F15" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H15" s="5">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15">
         <v>0.7</v>
       </c>
-      <c r="I15" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
-      <c r="L15" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="M15">
+      <c r="K15" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="N15" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="O15">
         <v>0.6</v>
       </c>
-      <c r="O15" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="P15">
+      <c r="Q15" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="R15">
         <v>0.4</v>
       </c>
     </row>
-    <row r="16" ht="54" spans="1:16">
+    <row r="16" ht="54" spans="1:18">
       <c r="A16" s="8">
         <v>14</v>
       </c>
@@ -3221,41 +3318,44 @@
       <c r="C16" s="3">
         <v>0</v>
       </c>
-      <c r="D16" s="4">
+      <c r="E16" s="4">
         <v>5</v>
       </c>
-      <c r="E16" s="4">
+      <c r="F16" s="4">
+        <v>5</v>
+      </c>
+      <c r="G16" s="4">
         <v>14</v>
       </c>
-      <c r="F16" s="5">
-        <v>0</v>
-      </c>
-      <c r="G16">
+      <c r="H16" s="5">
+        <v>0</v>
+      </c>
+      <c r="I16">
         <v>1.5</v>
       </c>
-      <c r="H16">
+      <c r="J16">
         <v>1.1</v>
       </c>
-      <c r="I16" s="6" t="s">
+      <c r="K16" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="N16" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="J16">
-        <v>0</v>
-      </c>
-      <c r="L16" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="M16">
+      <c r="O16">
         <v>0.9</v>
       </c>
-      <c r="O16" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="P16">
+      <c r="Q16" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="R16">
         <v>0.6</v>
       </c>
     </row>
-    <row r="17" ht="54" spans="1:16">
+    <row r="17" ht="54" spans="1:18">
       <c r="A17" s="8">
         <v>15</v>
       </c>
@@ -3266,41 +3366,44 @@
       <c r="C17" s="3">
         <v>0</v>
       </c>
-      <c r="D17" s="4">
+      <c r="E17" s="4">
         <v>19</v>
       </c>
-      <c r="E17" s="4">
+      <c r="F17" s="4">
+        <v>19</v>
+      </c>
+      <c r="G17" s="4">
         <v>15</v>
       </c>
-      <c r="F17" s="5">
-        <v>0</v>
-      </c>
-      <c r="G17">
+      <c r="H17" s="5">
+        <v>0</v>
+      </c>
+      <c r="I17">
         <v>1.5</v>
       </c>
-      <c r="H17">
+      <c r="J17">
         <v>1.1</v>
       </c>
-      <c r="I17" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
-      <c r="L17" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="M17">
+      <c r="K17" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="N17" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="O17">
         <v>0.9</v>
       </c>
-      <c r="O17" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="P17">
+      <c r="Q17" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="R17">
         <v>0.6</v>
       </c>
     </row>
-    <row r="18" ht="54" spans="1:16">
+    <row r="18" ht="54" spans="1:18">
       <c r="A18" s="8">
         <v>16</v>
       </c>
@@ -3311,41 +3414,44 @@
       <c r="C18" s="3">
         <v>0</v>
       </c>
-      <c r="D18" s="4">
-        <v>16</v>
-      </c>
       <c r="E18" s="4">
         <v>16</v>
       </c>
-      <c r="F18" s="5">
-        <v>0</v>
-      </c>
-      <c r="G18">
-        <v>1</v>
-      </c>
-      <c r="H18">
+      <c r="F18" s="4">
+        <v>16</v>
+      </c>
+      <c r="G18" s="4">
+        <v>16</v>
+      </c>
+      <c r="H18" s="5">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="J18">
         <v>0.7</v>
       </c>
-      <c r="I18" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
-      <c r="L18" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="M18">
+      <c r="K18" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="N18" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="O18">
         <v>0.6</v>
       </c>
-      <c r="O18" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="P18">
+      <c r="Q18" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="R18">
         <v>0.4</v>
       </c>
     </row>
-    <row r="19" ht="54" spans="1:16">
+    <row r="19" ht="54" spans="1:18">
       <c r="A19" s="8">
         <v>17</v>
       </c>
@@ -3356,41 +3462,44 @@
       <c r="C19" s="3">
         <v>0</v>
       </c>
-      <c r="D19" s="4">
-        <v>1</v>
-      </c>
       <c r="E19" s="4">
+        <v>1</v>
+      </c>
+      <c r="F19" s="4">
+        <v>1</v>
+      </c>
+      <c r="G19" s="4">
         <v>17</v>
       </c>
-      <c r="F19" s="5">
-        <v>0</v>
-      </c>
-      <c r="G19">
-        <v>1</v>
-      </c>
-      <c r="H19">
+      <c r="H19" s="5">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="J19">
         <v>0.7</v>
       </c>
-      <c r="I19" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="J19">
-        <v>0</v>
-      </c>
-      <c r="L19" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="M19">
+      <c r="K19" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="N19" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="O19">
         <v>0.6</v>
       </c>
-      <c r="O19" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="P19">
+      <c r="Q19" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="R19">
         <v>0.4</v>
       </c>
     </row>
-    <row r="20" ht="54" spans="1:16">
+    <row r="20" ht="54" spans="1:18">
       <c r="A20" s="8">
         <v>18</v>
       </c>
@@ -3401,41 +3510,44 @@
       <c r="C20" s="3">
         <v>0</v>
       </c>
-      <c r="D20" s="4">
+      <c r="E20" s="4">
         <v>5</v>
       </c>
-      <c r="E20" s="4">
+      <c r="F20" s="4">
+        <v>5</v>
+      </c>
+      <c r="G20" s="4">
         <v>18</v>
       </c>
-      <c r="F20" s="5">
-        <v>0</v>
-      </c>
-      <c r="G20">
+      <c r="H20" s="5">
+        <v>0</v>
+      </c>
+      <c r="I20">
         <v>1.5</v>
       </c>
-      <c r="H20">
+      <c r="J20">
         <v>1.1</v>
       </c>
-      <c r="I20" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="J20">
-        <v>0</v>
-      </c>
-      <c r="L20" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="M20">
+      <c r="K20" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="N20" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="O20">
         <v>0.9</v>
       </c>
-      <c r="O20" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="P20">
+      <c r="Q20" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="R20">
         <v>0.6</v>
       </c>
     </row>
-    <row r="21" ht="54" spans="1:16">
+    <row r="21" ht="54" spans="1:18">
       <c r="A21" s="8">
         <v>19</v>
       </c>
@@ -3446,41 +3558,44 @@
       <c r="C21" s="3">
         <v>0</v>
       </c>
-      <c r="D21" s="4">
+      <c r="E21" s="4">
         <v>5</v>
       </c>
-      <c r="E21" s="4">
+      <c r="F21" s="4">
+        <v>5</v>
+      </c>
+      <c r="G21" s="4">
         <v>19</v>
       </c>
-      <c r="F21" s="5">
-        <v>0</v>
-      </c>
-      <c r="G21">
-        <v>1</v>
-      </c>
-      <c r="H21">
+      <c r="H21" s="5">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+      <c r="J21">
         <v>0.7</v>
       </c>
-      <c r="I21" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="J21">
-        <v>0</v>
-      </c>
-      <c r="L21" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="M21">
+      <c r="K21" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="N21" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="O21">
         <v>0.6</v>
       </c>
-      <c r="O21" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="P21">
+      <c r="Q21" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="R21">
         <v>0.4</v>
       </c>
     </row>
-    <row r="22" ht="54" spans="1:16">
+    <row r="22" ht="54" spans="1:18">
       <c r="A22" s="8">
         <v>20</v>
       </c>
@@ -3491,41 +3606,44 @@
       <c r="C22" s="3">
         <v>0</v>
       </c>
-      <c r="D22" s="4">
+      <c r="E22" s="4">
         <v>8</v>
       </c>
-      <c r="E22" s="4">
+      <c r="F22" s="4">
+        <v>8</v>
+      </c>
+      <c r="G22" s="4">
         <v>20</v>
       </c>
-      <c r="F22" s="5">
-        <v>0</v>
-      </c>
-      <c r="G22">
+      <c r="H22" s="5">
+        <v>0</v>
+      </c>
+      <c r="I22">
         <v>1.5</v>
       </c>
-      <c r="H22">
+      <c r="J22">
         <v>1.1</v>
       </c>
-      <c r="I22" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="J22">
-        <v>0</v>
-      </c>
-      <c r="L22" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="M22">
+      <c r="K22" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="N22" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="O22">
         <v>0.9</v>
       </c>
-      <c r="O22" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="P22">
+      <c r="Q22" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="R22">
         <v>0.6</v>
       </c>
     </row>
-    <row r="23" ht="54" spans="1:16">
+    <row r="23" ht="54" spans="1:18">
       <c r="A23" s="8">
         <v>21</v>
       </c>
@@ -3536,41 +3654,44 @@
       <c r="C23" s="3">
         <v>0</v>
       </c>
-      <c r="D23" s="4">
+      <c r="E23" s="4">
         <v>17</v>
       </c>
-      <c r="E23" s="4">
+      <c r="F23" s="4">
+        <v>17</v>
+      </c>
+      <c r="G23" s="4">
         <v>21</v>
       </c>
-      <c r="F23" s="5">
-        <v>0</v>
-      </c>
-      <c r="G23">
+      <c r="H23" s="5">
+        <v>0</v>
+      </c>
+      <c r="I23">
         <v>1.5</v>
       </c>
-      <c r="H23">
+      <c r="J23">
         <v>1.1</v>
       </c>
-      <c r="I23" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="J23">
-        <v>0</v>
-      </c>
-      <c r="L23" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="M23">
+      <c r="K23" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="N23" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="O23">
         <v>0.9</v>
       </c>
-      <c r="O23" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="P23">
+      <c r="Q23" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="R23">
         <v>0.6</v>
       </c>
     </row>
-    <row r="24" ht="54" spans="1:16">
+    <row r="24" ht="54" spans="1:18">
       <c r="A24" s="8">
         <v>22</v>
       </c>
@@ -3581,41 +3702,44 @@
       <c r="C24" s="3">
         <v>0</v>
       </c>
-      <c r="D24" s="4">
+      <c r="E24" s="4">
         <v>13</v>
       </c>
-      <c r="E24" s="4">
+      <c r="F24" s="4">
+        <v>13</v>
+      </c>
+      <c r="G24" s="4">
         <v>22</v>
       </c>
-      <c r="F24" s="5">
-        <v>0</v>
-      </c>
-      <c r="G24">
+      <c r="H24" s="5">
+        <v>0</v>
+      </c>
+      <c r="I24">
         <v>1.5</v>
       </c>
-      <c r="H24">
+      <c r="J24">
         <v>1.1</v>
       </c>
-      <c r="I24" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="J24">
-        <v>0</v>
-      </c>
-      <c r="L24" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="M24">
+      <c r="K24" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="N24" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="O24">
         <v>0.9</v>
       </c>
-      <c r="O24" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="P24">
+      <c r="Q24" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="R24">
         <v>0.6</v>
       </c>
     </row>
-    <row r="25" ht="54" spans="1:16">
+    <row r="25" ht="54" spans="1:18">
       <c r="A25" s="8">
         <v>23</v>
       </c>
@@ -3626,41 +3750,44 @@
       <c r="C25" s="3">
         <v>0</v>
       </c>
-      <c r="D25" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="F25" s="5">
-        <v>0</v>
-      </c>
-      <c r="G25">
+      <c r="E25" s="4">
+        <v>3</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="H25" s="5">
+        <v>0</v>
+      </c>
+      <c r="I25">
         <v>1.5</v>
       </c>
-      <c r="H25">
+      <c r="J25">
         <v>1.1</v>
       </c>
-      <c r="I25" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="J25">
-        <v>0</v>
-      </c>
-      <c r="L25" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="M25">
+      <c r="K25" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="N25" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="O25">
         <v>0.9</v>
       </c>
-      <c r="O25" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="P25">
+      <c r="Q25" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="R25">
         <v>0.6</v>
       </c>
     </row>
-    <row r="26" ht="54" spans="1:16">
+    <row r="26" ht="54" spans="1:18">
       <c r="A26" s="8">
         <v>24</v>
       </c>
@@ -3671,41 +3798,44 @@
       <c r="C26" s="3">
         <v>0</v>
       </c>
-      <c r="D26" s="4">
+      <c r="E26" s="4">
         <v>3</v>
       </c>
-      <c r="E26" s="4">
+      <c r="F26" s="4">
+        <v>3</v>
+      </c>
+      <c r="G26" s="4">
         <v>24</v>
       </c>
-      <c r="F26" s="5">
-        <v>0</v>
-      </c>
-      <c r="G26">
-        <v>1</v>
-      </c>
-      <c r="H26">
+      <c r="H26" s="5">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>1</v>
+      </c>
+      <c r="J26">
         <v>0.7</v>
       </c>
-      <c r="I26" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="J26">
-        <v>0</v>
-      </c>
-      <c r="L26" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="M26">
+      <c r="K26" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="N26" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="O26">
         <v>0.6</v>
       </c>
-      <c r="O26" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="P26">
+      <c r="Q26" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="R26">
         <v>0.4</v>
       </c>
     </row>
-    <row r="27" ht="54" spans="1:16">
+    <row r="27" ht="54" spans="1:18">
       <c r="A27" s="8">
         <v>25</v>
       </c>
@@ -3716,41 +3846,44 @@
       <c r="C27" s="3">
         <v>0</v>
       </c>
-      <c r="D27" s="4">
-        <v>25</v>
-      </c>
       <c r="E27" s="4">
         <v>25</v>
       </c>
-      <c r="F27" s="5">
-        <v>0</v>
-      </c>
-      <c r="G27">
+      <c r="F27" s="4">
+        <v>25</v>
+      </c>
+      <c r="G27" s="4">
+        <v>25</v>
+      </c>
+      <c r="H27" s="5">
+        <v>0</v>
+      </c>
+      <c r="I27">
         <v>2</v>
       </c>
-      <c r="H27">
+      <c r="J27">
         <v>1.5</v>
       </c>
-      <c r="I27" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="J27">
-        <v>0</v>
-      </c>
-      <c r="L27" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="M27">
+      <c r="K27" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="N27" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="O27">
         <v>0.23</v>
       </c>
-      <c r="O27" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="P27">
+      <c r="Q27" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="R27">
         <v>0.8</v>
       </c>
     </row>
-    <row r="28" ht="54" spans="1:16">
+    <row r="28" ht="54" spans="1:18">
       <c r="A28" s="8">
         <v>26</v>
       </c>
@@ -3761,42 +3894,45 @@
       <c r="C28" s="3">
         <v>0</v>
       </c>
-      <c r="D28" s="4">
+      <c r="E28" s="4">
         <v>10</v>
       </c>
-      <c r="E28" s="4">
+      <c r="F28" s="4">
+        <v>10</v>
+      </c>
+      <c r="G28" s="4">
         <v>26</v>
       </c>
-      <c r="F28" s="5">
-        <v>0</v>
-      </c>
-      <c r="G28">
+      <c r="H28" s="5">
+        <v>0</v>
+      </c>
+      <c r="I28">
         <v>2</v>
       </c>
-      <c r="H28">
+      <c r="J28">
         <v>1.4</v>
       </c>
-      <c r="I28" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="J28">
-        <v>0</v>
-      </c>
-      <c r="L28" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="M28">
+      <c r="K28" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="N28" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="O28">
         <v>1.2</v>
       </c>
-      <c r="O28" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="P28">
-        <f>ROUNDUP(G28*0.4,1)</f>
+      <c r="Q28" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="R28">
+        <f>ROUNDUP(I28*0.4,1)</f>
         <v>0.8</v>
       </c>
     </row>
-    <row r="29" ht="54" spans="1:16">
+    <row r="29" ht="54" spans="1:18">
       <c r="A29" s="8">
         <v>27</v>
       </c>
@@ -3807,42 +3943,45 @@
       <c r="C29" s="3">
         <v>0</v>
       </c>
-      <c r="D29" s="4">
+      <c r="E29" s="4">
         <v>19</v>
       </c>
-      <c r="E29" s="4">
+      <c r="F29" s="4">
+        <v>19</v>
+      </c>
+      <c r="G29" s="4">
         <v>27</v>
       </c>
-      <c r="F29" s="5">
-        <v>0</v>
-      </c>
-      <c r="G29">
+      <c r="H29" s="5">
+        <v>0</v>
+      </c>
+      <c r="I29">
         <v>1.5</v>
       </c>
-      <c r="H29">
+      <c r="J29">
         <v>1.1</v>
       </c>
-      <c r="I29" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="J29">
-        <v>0</v>
-      </c>
-      <c r="L29" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="M29">
+      <c r="K29" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="N29" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="O29">
         <v>0.9</v>
       </c>
-      <c r="O29" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="P29">
-        <f t="shared" ref="P29:P92" si="0">ROUNDUP(G29*0.4,1)</f>
+      <c r="Q29" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="R29">
+        <f t="shared" ref="R29:R92" si="0">ROUNDUP(I29*0.4,1)</f>
         <v>0.6</v>
       </c>
     </row>
-    <row r="30" ht="54" spans="1:16">
+    <row r="30" ht="54" spans="1:18">
       <c r="A30" s="8">
         <v>28</v>
       </c>
@@ -3853,42 +3992,45 @@
       <c r="C30" s="3">
         <v>0</v>
       </c>
-      <c r="D30" s="4">
+      <c r="E30" s="4">
         <v>15</v>
       </c>
-      <c r="E30" s="4">
+      <c r="F30" s="4">
+        <v>15</v>
+      </c>
+      <c r="G30" s="4">
         <v>28</v>
       </c>
-      <c r="F30" s="5">
-        <v>0</v>
-      </c>
-      <c r="G30">
-        <v>1</v>
-      </c>
-      <c r="H30">
+      <c r="H30" s="5">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>1</v>
+      </c>
+      <c r="J30">
         <v>0.7</v>
       </c>
-      <c r="I30" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="J30">
-        <v>0</v>
-      </c>
-      <c r="L30" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="M30">
+      <c r="K30" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="N30" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="O30">
         <v>0.6</v>
       </c>
-      <c r="O30" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="P30">
+      <c r="Q30" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="R30">
         <f t="shared" si="0"/>
         <v>0.4</v>
       </c>
     </row>
-    <row r="31" ht="54" spans="1:16">
+    <row r="31" ht="54" spans="1:18">
       <c r="A31" s="8">
         <v>29</v>
       </c>
@@ -3899,42 +4041,45 @@
       <c r="C31" s="3">
         <v>0</v>
       </c>
-      <c r="D31" s="4">
+      <c r="E31" s="4">
         <v>10</v>
       </c>
-      <c r="E31" s="4">
+      <c r="F31" s="4">
+        <v>10</v>
+      </c>
+      <c r="G31" s="4">
         <v>29</v>
       </c>
-      <c r="F31" s="5">
-        <v>0</v>
-      </c>
-      <c r="G31">
-        <v>1</v>
-      </c>
-      <c r="H31">
+      <c r="H31" s="5">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>1</v>
+      </c>
+      <c r="J31">
         <v>0.7</v>
       </c>
-      <c r="I31" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="J31">
-        <v>0</v>
-      </c>
-      <c r="L31" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="M31">
+      <c r="K31" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="N31" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="O31">
         <v>0.6</v>
       </c>
-      <c r="O31" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="P31">
+      <c r="Q31" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="R31">
         <f t="shared" si="0"/>
         <v>0.4</v>
       </c>
     </row>
-    <row r="32" ht="54" spans="1:16">
+    <row r="32" ht="54" spans="1:18">
       <c r="A32" s="8">
         <v>30</v>
       </c>
@@ -3945,42 +4090,45 @@
       <c r="C32" s="3">
         <v>0</v>
       </c>
-      <c r="D32" s="4">
+      <c r="E32" s="4">
         <v>10</v>
       </c>
-      <c r="E32" s="4">
+      <c r="F32" s="4">
+        <v>10</v>
+      </c>
+      <c r="G32" s="4">
         <v>30</v>
       </c>
-      <c r="F32" s="5">
-        <v>0</v>
-      </c>
-      <c r="G32">
+      <c r="H32" s="5">
+        <v>0</v>
+      </c>
+      <c r="I32">
         <v>1.5</v>
       </c>
-      <c r="H32">
+      <c r="J32">
         <v>1.1</v>
       </c>
-      <c r="I32" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="J32">
-        <v>0</v>
-      </c>
-      <c r="L32" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="M32">
+      <c r="K32" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="N32" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="O32">
         <v>0.9</v>
       </c>
-      <c r="O32" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="P32">
+      <c r="Q32" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="R32">
         <f t="shared" si="0"/>
         <v>0.6</v>
       </c>
     </row>
-    <row r="33" ht="54" spans="1:16">
+    <row r="33" ht="54" spans="1:18">
       <c r="A33" s="8">
         <v>31</v>
       </c>
@@ -3991,42 +4139,45 @@
       <c r="C33" s="3">
         <v>1</v>
       </c>
-      <c r="D33" s="4">
-        <v>1</v>
-      </c>
       <c r="E33" s="4">
+        <v>1</v>
+      </c>
+      <c r="F33" s="4">
+        <v>1</v>
+      </c>
+      <c r="G33" s="4">
         <v>31</v>
       </c>
-      <c r="F33" s="5">
-        <v>0</v>
-      </c>
-      <c r="G33">
-        <v>1</v>
-      </c>
-      <c r="H33">
+      <c r="H33" s="5">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>1</v>
+      </c>
+      <c r="J33">
         <v>0.7</v>
       </c>
-      <c r="I33" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="J33">
-        <v>0</v>
-      </c>
-      <c r="L33" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="M33">
+      <c r="K33" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="N33" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="O33">
         <v>0.6</v>
       </c>
-      <c r="O33" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="P33">
+      <c r="Q33" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="R33">
         <f t="shared" si="0"/>
         <v>0.4</v>
       </c>
     </row>
-    <row r="34" ht="54" spans="1:16">
+    <row r="34" ht="54" spans="1:18">
       <c r="A34" s="8">
         <v>32</v>
       </c>
@@ -4037,42 +4188,45 @@
       <c r="C34" s="3">
         <v>1</v>
       </c>
-      <c r="D34" s="4">
+      <c r="E34" s="4">
         <v>6</v>
       </c>
-      <c r="E34" s="4">
+      <c r="F34" s="4">
+        <v>6</v>
+      </c>
+      <c r="G34" s="4">
         <v>32</v>
       </c>
-      <c r="F34" s="5">
-        <v>0</v>
-      </c>
-      <c r="G34">
-        <v>1</v>
-      </c>
-      <c r="H34">
+      <c r="H34" s="5">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>1</v>
+      </c>
+      <c r="J34">
         <v>0.7</v>
       </c>
-      <c r="I34" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="J34">
-        <v>0</v>
-      </c>
-      <c r="L34" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="M34">
+      <c r="K34" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+      <c r="N34" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="O34">
         <v>0.6</v>
       </c>
-      <c r="O34" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="P34">
+      <c r="Q34" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="R34">
         <f t="shared" si="0"/>
         <v>0.4</v>
       </c>
     </row>
-    <row r="35" ht="54" spans="1:16">
+    <row r="35" ht="54" spans="1:18">
       <c r="A35" s="8">
         <v>33</v>
       </c>
@@ -4083,42 +4237,45 @@
       <c r="C35" s="3">
         <v>1</v>
       </c>
-      <c r="D35" s="4">
+      <c r="E35" s="4">
         <v>6</v>
       </c>
-      <c r="E35" s="4">
+      <c r="F35" s="4">
+        <v>6</v>
+      </c>
+      <c r="G35" s="4">
         <v>31</v>
       </c>
-      <c r="F35" s="5">
-        <v>0</v>
-      </c>
-      <c r="G35">
-        <v>1</v>
-      </c>
-      <c r="H35">
+      <c r="H35" s="5">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>1</v>
+      </c>
+      <c r="J35">
         <v>0.7</v>
       </c>
-      <c r="I35" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="J35">
-        <v>0</v>
-      </c>
-      <c r="L35" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="M35">
+      <c r="K35" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+      <c r="N35" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="O35">
         <v>0.6</v>
       </c>
-      <c r="O35" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="P35">
+      <c r="Q35" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="R35">
         <f t="shared" si="0"/>
         <v>0.4</v>
       </c>
     </row>
-    <row r="36" ht="54" spans="1:16">
+    <row r="36" ht="54" spans="1:18">
       <c r="A36" s="8">
         <v>34</v>
       </c>
@@ -4129,42 +4286,45 @@
       <c r="C36" s="3">
         <v>1</v>
       </c>
-      <c r="D36" s="4">
+      <c r="E36" s="4">
         <v>6</v>
       </c>
-      <c r="E36" s="4">
+      <c r="F36" s="4">
+        <v>6</v>
+      </c>
+      <c r="G36" s="4">
         <v>34</v>
       </c>
-      <c r="F36" s="5">
-        <v>0</v>
-      </c>
-      <c r="G36">
-        <v>1</v>
-      </c>
-      <c r="H36">
+      <c r="H36" s="5">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>1</v>
+      </c>
+      <c r="J36">
         <v>0.7</v>
       </c>
-      <c r="I36" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="J36">
-        <v>0</v>
-      </c>
-      <c r="L36" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="M36">
+      <c r="K36" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="L36">
+        <v>0</v>
+      </c>
+      <c r="N36" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="O36">
         <v>0.6</v>
       </c>
-      <c r="O36" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="P36">
+      <c r="Q36" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="R36">
         <f t="shared" si="0"/>
         <v>0.4</v>
       </c>
     </row>
-    <row r="37" ht="54" spans="1:16">
+    <row r="37" ht="54" spans="1:18">
       <c r="A37" s="8">
         <v>35</v>
       </c>
@@ -4175,42 +4335,45 @@
       <c r="C37" s="3">
         <v>1</v>
       </c>
-      <c r="D37" s="4">
+      <c r="E37" s="4">
         <v>6</v>
       </c>
-      <c r="E37" s="4">
+      <c r="F37" s="4">
+        <v>6</v>
+      </c>
+      <c r="G37" s="4">
         <v>35</v>
       </c>
-      <c r="F37" s="5">
-        <v>0</v>
-      </c>
-      <c r="G37">
+      <c r="H37" s="5">
+        <v>0</v>
+      </c>
+      <c r="I37">
         <v>1.5</v>
       </c>
-      <c r="H37">
+      <c r="J37">
         <v>1.1</v>
       </c>
-      <c r="I37" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="J37">
-        <v>0</v>
-      </c>
-      <c r="L37" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="M37">
+      <c r="K37" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="N37" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="O37">
         <v>0.9</v>
       </c>
-      <c r="O37" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="P37">
+      <c r="Q37" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="R37">
         <f t="shared" si="0"/>
         <v>0.6</v>
       </c>
     </row>
-    <row r="38" ht="54" spans="1:16">
+    <row r="38" ht="54" spans="1:18">
       <c r="A38" s="8">
         <v>36</v>
       </c>
@@ -4221,42 +4384,45 @@
       <c r="C38" s="3">
         <v>1</v>
       </c>
-      <c r="D38" s="4">
+      <c r="E38" s="4">
         <v>6</v>
       </c>
-      <c r="E38" s="4">
+      <c r="F38" s="4">
+        <v>6</v>
+      </c>
+      <c r="G38" s="4">
         <v>36</v>
       </c>
-      <c r="F38" s="5">
-        <v>0</v>
-      </c>
-      <c r="G38">
+      <c r="H38" s="5">
+        <v>0</v>
+      </c>
+      <c r="I38">
         <v>2</v>
       </c>
-      <c r="H38">
+      <c r="J38">
         <v>1.4</v>
       </c>
-      <c r="I38" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="J38">
-        <v>0</v>
-      </c>
-      <c r="L38" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="M38">
+      <c r="K38" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="L38">
+        <v>0</v>
+      </c>
+      <c r="N38" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="O38">
         <v>1.2</v>
       </c>
-      <c r="O38" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="P38">
+      <c r="Q38" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="R38">
         <f t="shared" si="0"/>
         <v>0.8</v>
       </c>
     </row>
-    <row r="39" ht="54" spans="1:16">
+    <row r="39" ht="54" spans="1:18">
       <c r="A39" s="8">
         <v>37</v>
       </c>
@@ -4267,42 +4433,45 @@
       <c r="C39" s="3">
         <v>1</v>
       </c>
-      <c r="D39" s="4">
+      <c r="E39" s="4">
         <v>6</v>
       </c>
-      <c r="E39" s="4">
+      <c r="F39" s="4">
+        <v>6</v>
+      </c>
+      <c r="G39" s="4">
         <v>14</v>
       </c>
-      <c r="F39" s="5">
-        <v>0</v>
-      </c>
-      <c r="G39">
+      <c r="H39" s="5">
+        <v>0</v>
+      </c>
+      <c r="I39">
         <v>1.5</v>
       </c>
-      <c r="H39">
+      <c r="J39">
         <v>1.1</v>
       </c>
-      <c r="I39" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="J39">
-        <v>0</v>
-      </c>
-      <c r="L39" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="M39">
+      <c r="K39" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="L39">
+        <v>0</v>
+      </c>
+      <c r="N39" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="O39">
         <v>0.9</v>
       </c>
-      <c r="O39" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="P39">
+      <c r="Q39" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="R39">
         <f t="shared" si="0"/>
         <v>0.6</v>
       </c>
     </row>
-    <row r="40" ht="54" spans="1:16">
+    <row r="40" ht="54" spans="1:18">
       <c r="A40" s="8">
         <v>38</v>
       </c>
@@ -4313,42 +4482,45 @@
       <c r="C40" s="3">
         <v>1</v>
       </c>
-      <c r="D40" s="4">
+      <c r="E40" s="4">
         <v>6</v>
       </c>
-      <c r="E40" s="4">
+      <c r="F40" s="4">
+        <v>6</v>
+      </c>
+      <c r="G40" s="4">
         <v>38</v>
       </c>
-      <c r="F40" s="5">
-        <v>0</v>
-      </c>
-      <c r="G40">
-        <v>1</v>
-      </c>
-      <c r="H40">
+      <c r="H40" s="5">
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <v>1</v>
+      </c>
+      <c r="J40">
         <v>0.7</v>
       </c>
-      <c r="I40" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="J40">
-        <v>0</v>
-      </c>
-      <c r="L40" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="M40">
+      <c r="K40" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="L40">
+        <v>0</v>
+      </c>
+      <c r="N40" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="O40">
         <v>0.6</v>
       </c>
-      <c r="O40" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="P40">
+      <c r="Q40" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="R40">
         <f t="shared" si="0"/>
         <v>0.4</v>
       </c>
     </row>
-    <row r="41" ht="54" spans="1:16">
+    <row r="41" ht="54" spans="1:18">
       <c r="A41" s="8">
         <v>39</v>
       </c>
@@ -4359,42 +4531,45 @@
       <c r="C41" s="3">
         <v>1</v>
       </c>
-      <c r="D41" s="4">
+      <c r="E41" s="4">
         <v>6</v>
       </c>
-      <c r="E41" s="4">
+      <c r="F41" s="4">
+        <v>6</v>
+      </c>
+      <c r="G41" s="4">
         <v>35</v>
       </c>
-      <c r="F41" s="5">
-        <v>0</v>
-      </c>
-      <c r="G41">
+      <c r="H41" s="5">
+        <v>0</v>
+      </c>
+      <c r="I41">
         <v>1.5</v>
       </c>
-      <c r="H41">
+      <c r="J41">
         <v>1.1</v>
       </c>
-      <c r="I41" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="J41">
-        <v>0</v>
-      </c>
-      <c r="L41" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="M41">
+      <c r="K41" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="L41">
+        <v>0</v>
+      </c>
+      <c r="N41" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="O41">
         <v>0.9</v>
       </c>
-      <c r="O41" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="P41">
+      <c r="Q41" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="R41">
         <f t="shared" si="0"/>
         <v>0.6</v>
       </c>
     </row>
-    <row r="42" ht="54" spans="1:16">
+    <row r="42" ht="54" spans="1:18">
       <c r="A42" s="8">
         <v>40</v>
       </c>
@@ -4405,42 +4580,45 @@
       <c r="C42" s="3">
         <v>1</v>
       </c>
-      <c r="D42" s="4">
+      <c r="E42" s="4">
         <v>6</v>
       </c>
-      <c r="E42" s="4">
+      <c r="F42" s="4">
+        <v>6</v>
+      </c>
+      <c r="G42" s="4">
         <v>40</v>
       </c>
-      <c r="F42" s="5">
-        <v>0</v>
-      </c>
-      <c r="G42">
+      <c r="H42" s="5">
+        <v>0</v>
+      </c>
+      <c r="I42">
         <v>2.5</v>
       </c>
-      <c r="H42">
+      <c r="J42">
         <v>1.8</v>
       </c>
-      <c r="I42" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="J42">
-        <v>0</v>
-      </c>
-      <c r="L42" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="M42">
+      <c r="K42" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="N42" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="O42">
         <v>1.5</v>
       </c>
-      <c r="O42" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="P42">
+      <c r="Q42" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="R42">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="43" ht="54" spans="1:16">
+    <row r="43" ht="54" spans="1:18">
       <c r="A43" s="8">
         <v>41</v>
       </c>
@@ -4451,42 +4629,45 @@
       <c r="C43" s="3">
         <v>1</v>
       </c>
-      <c r="D43" s="4">
+      <c r="E43" s="4">
         <v>6</v>
       </c>
-      <c r="E43" s="4">
+      <c r="F43" s="4">
+        <v>6</v>
+      </c>
+      <c r="G43" s="4">
         <v>20</v>
       </c>
-      <c r="F43" s="5">
-        <v>0</v>
-      </c>
-      <c r="G43">
+      <c r="H43" s="5">
+        <v>0</v>
+      </c>
+      <c r="I43">
         <v>1.5</v>
       </c>
-      <c r="H43">
+      <c r="J43">
         <v>1.1</v>
       </c>
-      <c r="I43" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="J43">
-        <v>0</v>
-      </c>
-      <c r="L43" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="M43">
+      <c r="K43" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="N43" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="O43">
         <v>0.9</v>
       </c>
-      <c r="O43" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="P43">
+      <c r="Q43" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="R43">
         <f t="shared" si="0"/>
         <v>0.6</v>
       </c>
     </row>
-    <row r="44" ht="54" spans="1:16">
+    <row r="44" ht="54" spans="1:18">
       <c r="A44" s="8">
         <v>42</v>
       </c>
@@ -4497,42 +4678,45 @@
       <c r="C44" s="3">
         <v>1</v>
       </c>
-      <c r="D44" s="4">
+      <c r="E44" s="4">
         <v>6</v>
       </c>
-      <c r="E44" s="4">
+      <c r="F44" s="4">
+        <v>6</v>
+      </c>
+      <c r="G44" s="4">
         <v>42</v>
       </c>
-      <c r="F44" s="5">
-        <v>0</v>
-      </c>
-      <c r="G44">
+      <c r="H44" s="5">
+        <v>0</v>
+      </c>
+      <c r="I44">
         <v>1.5</v>
       </c>
-      <c r="H44">
+      <c r="J44">
         <v>1.1</v>
       </c>
-      <c r="I44" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="J44">
-        <v>0</v>
-      </c>
-      <c r="L44" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="M44">
+      <c r="K44" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="N44" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="O44">
         <v>0.9</v>
       </c>
-      <c r="O44" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="P44">
+      <c r="Q44" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="R44">
         <f t="shared" si="0"/>
         <v>0.6</v>
       </c>
     </row>
-    <row r="45" ht="54" spans="1:16">
+    <row r="45" ht="54" spans="1:18">
       <c r="A45" s="8">
         <v>43</v>
       </c>
@@ -4543,42 +4727,45 @@
       <c r="C45" s="3">
         <v>1</v>
       </c>
-      <c r="D45" s="4">
+      <c r="E45" s="4">
         <v>6</v>
       </c>
-      <c r="E45" s="4">
+      <c r="F45" s="4">
+        <v>6</v>
+      </c>
+      <c r="G45" s="4">
         <v>36</v>
       </c>
-      <c r="F45" s="5">
-        <v>0</v>
-      </c>
-      <c r="G45">
+      <c r="H45" s="5">
+        <v>0</v>
+      </c>
+      <c r="I45">
         <v>2</v>
       </c>
-      <c r="H45">
+      <c r="J45">
         <v>1.4</v>
       </c>
-      <c r="I45" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="J45">
-        <v>0</v>
-      </c>
-      <c r="L45" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="M45">
+      <c r="K45" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="N45" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="O45">
         <v>1.2</v>
       </c>
-      <c r="O45" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="P45">
+      <c r="Q45" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="R45">
         <f t="shared" si="0"/>
         <v>0.8</v>
       </c>
     </row>
-    <row r="46" ht="54" spans="1:16">
+    <row r="46" ht="54" spans="1:18">
       <c r="A46" s="8">
         <v>44</v>
       </c>
@@ -4589,42 +4776,45 @@
       <c r="C46" s="3">
         <v>1</v>
       </c>
-      <c r="D46" s="4">
+      <c r="E46" s="4">
         <v>6</v>
       </c>
-      <c r="E46" s="4">
+      <c r="F46" s="4">
+        <v>6</v>
+      </c>
+      <c r="G46" s="4">
         <v>32</v>
       </c>
-      <c r="F46" s="5">
-        <v>0</v>
-      </c>
-      <c r="G46">
-        <v>1</v>
-      </c>
-      <c r="H46">
+      <c r="H46" s="5">
+        <v>0</v>
+      </c>
+      <c r="I46">
+        <v>1</v>
+      </c>
+      <c r="J46">
         <v>0.7</v>
       </c>
-      <c r="I46" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="J46">
-        <v>0</v>
-      </c>
-      <c r="L46" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="M46">
+      <c r="K46" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="N46" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="O46">
         <v>0.6</v>
       </c>
-      <c r="O46" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="P46">
+      <c r="Q46" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="R46">
         <f t="shared" si="0"/>
         <v>0.4</v>
       </c>
     </row>
-    <row r="47" ht="54" spans="1:16">
+    <row r="47" ht="54" spans="1:18">
       <c r="A47" s="8">
         <v>45</v>
       </c>
@@ -4635,42 +4825,45 @@
       <c r="C47" s="3">
         <v>1</v>
       </c>
-      <c r="D47" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="E47" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="F47" s="5">
-        <v>0</v>
-      </c>
-      <c r="G47">
-        <v>1</v>
-      </c>
-      <c r="H47">
+      <c r="E47" s="4">
+        <v>1</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="G47" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="H47" s="5">
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <v>1</v>
+      </c>
+      <c r="J47">
         <v>0.7</v>
       </c>
-      <c r="I47" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="J47">
-        <v>0</v>
-      </c>
-      <c r="L47" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="M47">
+      <c r="K47" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="N47" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="O47">
         <v>0.6</v>
       </c>
-      <c r="O47" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="P47">
+      <c r="Q47" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="R47">
         <f t="shared" si="0"/>
         <v>0.4</v>
       </c>
     </row>
-    <row r="48" ht="54" spans="1:16">
+    <row r="48" ht="54" spans="1:18">
       <c r="A48" s="8">
         <v>46</v>
       </c>
@@ -4681,42 +4874,45 @@
       <c r="C48" s="3">
         <v>1</v>
       </c>
-      <c r="D48" s="4">
+      <c r="E48" s="4">
         <v>17</v>
       </c>
-      <c r="E48" s="4">
+      <c r="F48" s="4">
+        <v>17</v>
+      </c>
+      <c r="G48" s="4">
         <v>46</v>
       </c>
-      <c r="F48" s="5">
-        <v>0</v>
-      </c>
-      <c r="G48">
+      <c r="H48" s="5">
+        <v>0</v>
+      </c>
+      <c r="I48">
         <v>2.5</v>
       </c>
-      <c r="H48">
+      <c r="J48">
         <v>1.8</v>
       </c>
-      <c r="I48" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="J48">
-        <v>0</v>
-      </c>
-      <c r="L48" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="M48">
+      <c r="K48" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="N48" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="O48">
         <v>1.5</v>
       </c>
-      <c r="O48" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="P48">
+      <c r="Q48" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="R48">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="49" ht="54" spans="1:16">
+    <row r="49" ht="54" spans="1:18">
       <c r="A49" s="8">
         <v>47</v>
       </c>
@@ -4727,42 +4923,45 @@
       <c r="C49" s="3">
         <v>1</v>
       </c>
-      <c r="D49" s="4">
+      <c r="E49" s="4">
         <v>9</v>
       </c>
-      <c r="E49" s="4">
+      <c r="F49" s="4">
+        <v>9</v>
+      </c>
+      <c r="G49" s="4">
         <v>47</v>
       </c>
-      <c r="F49" s="5">
-        <v>0</v>
-      </c>
-      <c r="G49">
-        <v>1</v>
-      </c>
-      <c r="H49">
+      <c r="H49" s="5">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>1</v>
+      </c>
+      <c r="J49">
         <v>0.7</v>
       </c>
-      <c r="I49" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="J49">
-        <v>0</v>
-      </c>
-      <c r="L49" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="M49">
+      <c r="K49" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="N49" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="O49">
         <v>0.6</v>
       </c>
-      <c r="O49" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="P49">
+      <c r="Q49" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="R49">
         <f t="shared" si="0"/>
         <v>0.4</v>
       </c>
     </row>
-    <row r="50" ht="54" spans="1:16">
+    <row r="50" ht="54" spans="1:18">
       <c r="A50" s="8">
         <v>48</v>
       </c>
@@ -4773,42 +4972,45 @@
       <c r="C50" s="3">
         <v>1</v>
       </c>
-      <c r="D50" s="4">
+      <c r="E50" s="4">
         <v>13</v>
       </c>
-      <c r="E50" s="4">
+      <c r="F50" s="4">
+        <v>13</v>
+      </c>
+      <c r="G50" s="4">
         <v>48</v>
       </c>
-      <c r="F50" s="5">
-        <v>0</v>
-      </c>
-      <c r="G50">
+      <c r="H50" s="5">
+        <v>0</v>
+      </c>
+      <c r="I50">
         <v>2.5</v>
       </c>
-      <c r="H50">
+      <c r="J50">
         <v>1.8</v>
       </c>
-      <c r="I50" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="J50">
-        <v>0</v>
-      </c>
-      <c r="L50" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="M50">
+      <c r="K50" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="N50" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="O50">
         <v>1.5</v>
       </c>
-      <c r="O50" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="P50">
+      <c r="Q50" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="R50">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="51" ht="54" spans="1:16">
+    <row r="51" ht="54" spans="1:18">
       <c r="A51" s="8">
         <v>49</v>
       </c>
@@ -4819,42 +5021,45 @@
       <c r="C51" s="3">
         <v>1</v>
       </c>
-      <c r="D51" s="4">
+      <c r="E51" s="4">
         <v>9</v>
       </c>
-      <c r="E51" s="4">
+      <c r="F51" s="4">
+        <v>9</v>
+      </c>
+      <c r="G51" s="4">
         <v>49</v>
       </c>
-      <c r="F51" s="5">
-        <v>0</v>
-      </c>
-      <c r="G51">
+      <c r="H51" s="5">
+        <v>0</v>
+      </c>
+      <c r="I51">
         <v>2.5</v>
       </c>
-      <c r="H51">
+      <c r="J51">
         <v>1.8</v>
       </c>
-      <c r="I51" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="J51">
-        <v>0</v>
-      </c>
-      <c r="L51" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="M51">
+      <c r="K51" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="N51" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="O51">
         <v>1.5</v>
       </c>
-      <c r="O51" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="P51">
+      <c r="Q51" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="R51">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="52" ht="54" spans="1:16">
+    <row r="52" ht="54" spans="1:18">
       <c r="A52" s="8">
         <v>50</v>
       </c>
@@ -4865,42 +5070,45 @@
       <c r="C52" s="3">
         <v>1</v>
       </c>
-      <c r="D52" s="4">
+      <c r="E52" s="4">
         <v>19</v>
       </c>
-      <c r="E52" s="4">
+      <c r="F52" s="4">
+        <v>19</v>
+      </c>
+      <c r="G52" s="4">
         <v>50</v>
       </c>
-      <c r="F52" s="5">
-        <v>0</v>
-      </c>
-      <c r="G52">
+      <c r="H52" s="5">
+        <v>0</v>
+      </c>
+      <c r="I52">
         <v>1.5</v>
       </c>
-      <c r="H52">
+      <c r="J52">
         <v>1.1</v>
       </c>
-      <c r="I52" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="J52">
-        <v>0</v>
-      </c>
-      <c r="L52" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="M52">
+      <c r="K52" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="N52" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="O52">
         <v>0.9</v>
       </c>
-      <c r="O52" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="P52">
+      <c r="Q52" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="R52">
         <f t="shared" si="0"/>
         <v>0.6</v>
       </c>
     </row>
-    <row r="53" ht="54" spans="1:16">
+    <row r="53" ht="54" spans="1:18">
       <c r="A53" s="8">
         <v>51</v>
       </c>
@@ -4911,42 +5119,45 @@
       <c r="C53" s="3">
         <v>1</v>
       </c>
-      <c r="D53" s="4">
+      <c r="E53" s="4">
         <v>19</v>
       </c>
-      <c r="E53" s="4">
+      <c r="F53" s="4">
+        <v>19</v>
+      </c>
+      <c r="G53" s="4">
         <v>51</v>
       </c>
-      <c r="F53" s="5">
-        <v>0</v>
-      </c>
-      <c r="G53">
+      <c r="H53" s="5">
+        <v>0</v>
+      </c>
+      <c r="I53">
         <v>1.5</v>
       </c>
-      <c r="H53">
+      <c r="J53">
         <v>1.1</v>
       </c>
-      <c r="I53" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="J53">
-        <v>0</v>
-      </c>
-      <c r="L53" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="M53">
+      <c r="K53" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="N53" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="O53">
         <v>0.9</v>
       </c>
-      <c r="O53" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="P53">
+      <c r="Q53" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="R53">
         <f t="shared" si="0"/>
         <v>0.6</v>
       </c>
     </row>
-    <row r="54" ht="54" spans="1:16">
+    <row r="54" ht="54" spans="1:18">
       <c r="A54" s="8">
         <v>52</v>
       </c>
@@ -4957,42 +5168,45 @@
       <c r="C54" s="3">
         <v>1</v>
       </c>
-      <c r="D54" s="4" t="s">
-        <v>75</v>
-      </c>
       <c r="E54" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="F54" s="5">
-        <v>0</v>
-      </c>
-      <c r="G54">
+        <v>77</v>
+      </c>
+      <c r="F54" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="G54" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="H54" s="5">
+        <v>0</v>
+      </c>
+      <c r="I54">
         <v>1.5</v>
       </c>
-      <c r="H54">
+      <c r="J54">
         <v>1.1</v>
       </c>
-      <c r="I54" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="J54">
-        <v>0</v>
-      </c>
-      <c r="L54" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="M54">
+      <c r="K54" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="N54" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="O54">
         <v>0.9</v>
       </c>
-      <c r="O54" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="P54">
+      <c r="Q54" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="R54">
         <f t="shared" si="0"/>
         <v>0.6</v>
       </c>
     </row>
-    <row r="55" ht="54" spans="1:16">
+    <row r="55" ht="54" spans="1:18">
       <c r="A55" s="8">
         <v>53</v>
       </c>
@@ -5003,42 +5217,45 @@
       <c r="C55" s="3">
         <v>1</v>
       </c>
-      <c r="D55" s="4">
-        <v>13</v>
-      </c>
       <c r="E55" s="4">
         <v>13</v>
       </c>
-      <c r="F55" s="5">
-        <v>0</v>
-      </c>
-      <c r="G55">
-        <v>1</v>
-      </c>
-      <c r="H55">
+      <c r="F55" s="4">
+        <v>13</v>
+      </c>
+      <c r="G55" s="4">
+        <v>13</v>
+      </c>
+      <c r="H55" s="5">
+        <v>0</v>
+      </c>
+      <c r="I55">
+        <v>1</v>
+      </c>
+      <c r="J55">
         <v>0.7</v>
       </c>
-      <c r="I55" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="J55">
-        <v>0</v>
-      </c>
-      <c r="L55" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="M55">
+      <c r="K55" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="N55" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="O55">
         <v>0.6</v>
       </c>
-      <c r="O55" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="P55">
+      <c r="Q55" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="R55">
         <f t="shared" si="0"/>
         <v>0.4</v>
       </c>
     </row>
-    <row r="56" ht="54" spans="1:16">
+    <row r="56" ht="54" spans="1:18">
       <c r="A56" s="8">
         <v>54</v>
       </c>
@@ -5049,42 +5266,45 @@
       <c r="C56" s="3">
         <v>1</v>
       </c>
-      <c r="D56" s="4">
+      <c r="E56" s="4">
         <v>17</v>
       </c>
-      <c r="E56" s="4">
+      <c r="F56" s="4">
+        <v>17</v>
+      </c>
+      <c r="G56" s="4">
         <v>54</v>
       </c>
-      <c r="F56" s="5">
-        <v>0</v>
-      </c>
-      <c r="G56">
+      <c r="H56" s="5">
+        <v>0</v>
+      </c>
+      <c r="I56">
         <v>1.5</v>
       </c>
-      <c r="H56">
+      <c r="J56">
         <v>1.1</v>
       </c>
-      <c r="I56" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="J56">
-        <v>0</v>
-      </c>
-      <c r="L56" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="M56">
+      <c r="K56" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="N56" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="O56">
         <v>0.9</v>
       </c>
-      <c r="O56" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="P56">
+      <c r="Q56" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="R56">
         <f t="shared" si="0"/>
         <v>0.6</v>
       </c>
     </row>
-    <row r="57" ht="54" spans="1:16">
+    <row r="57" ht="54" spans="1:18">
       <c r="A57" s="8">
         <v>55</v>
       </c>
@@ -5095,42 +5315,45 @@
       <c r="C57" s="3">
         <v>1</v>
       </c>
-      <c r="D57" s="4">
+      <c r="E57" s="4">
         <v>16</v>
       </c>
-      <c r="E57" s="4">
+      <c r="F57" s="4">
+        <v>16</v>
+      </c>
+      <c r="G57" s="4">
         <v>10</v>
       </c>
-      <c r="F57" s="5">
-        <v>0</v>
-      </c>
-      <c r="G57">
+      <c r="H57" s="5">
+        <v>0</v>
+      </c>
+      <c r="I57">
         <v>1.5</v>
       </c>
-      <c r="H57">
+      <c r="J57">
         <v>1.1</v>
       </c>
-      <c r="I57" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="J57">
-        <v>0</v>
-      </c>
-      <c r="L57" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="M57">
+      <c r="K57" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="N57" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="O57">
         <v>0.9</v>
       </c>
-      <c r="O57" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="P57">
+      <c r="Q57" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="R57">
         <f t="shared" si="0"/>
         <v>0.6</v>
       </c>
     </row>
-    <row r="58" ht="54" spans="1:16">
+    <row r="58" ht="54" spans="1:18">
       <c r="A58" s="8">
         <v>56</v>
       </c>
@@ -5141,42 +5364,45 @@
       <c r="C58" s="3">
         <v>1</v>
       </c>
-      <c r="D58" s="4">
+      <c r="E58" s="4">
         <v>13</v>
       </c>
-      <c r="E58" s="4">
+      <c r="F58" s="4">
+        <v>13</v>
+      </c>
+      <c r="G58" s="4">
         <v>56</v>
       </c>
-      <c r="F58" s="5">
-        <v>0</v>
-      </c>
-      <c r="G58">
+      <c r="H58" s="5">
+        <v>0</v>
+      </c>
+      <c r="I58">
         <v>1.5</v>
       </c>
-      <c r="H58">
+      <c r="J58">
         <v>1.1</v>
       </c>
-      <c r="I58" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="J58">
-        <v>0</v>
-      </c>
-      <c r="L58" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="M58">
+      <c r="K58" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="N58" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="O58">
         <v>0.9</v>
       </c>
-      <c r="O58" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="P58">
+      <c r="Q58" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="R58">
         <f t="shared" si="0"/>
         <v>0.6</v>
       </c>
     </row>
-    <row r="59" ht="54" spans="1:16">
+    <row r="59" ht="54" spans="1:18">
       <c r="A59" s="8">
         <v>57</v>
       </c>
@@ -5187,42 +5413,45 @@
       <c r="C59" s="3">
         <v>1</v>
       </c>
-      <c r="D59" s="4">
+      <c r="E59" s="4">
         <v>3</v>
       </c>
-      <c r="E59" s="4">
+      <c r="F59" s="4">
+        <v>3</v>
+      </c>
+      <c r="G59" s="4">
         <v>57</v>
       </c>
-      <c r="F59" s="5">
-        <v>0</v>
-      </c>
-      <c r="G59">
+      <c r="H59" s="5">
+        <v>0</v>
+      </c>
+      <c r="I59">
         <v>1.5</v>
       </c>
-      <c r="H59">
+      <c r="J59">
         <v>1.1</v>
       </c>
-      <c r="I59" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="J59">
-        <v>0</v>
-      </c>
-      <c r="L59" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="M59">
+      <c r="K59" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="N59" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="O59">
         <v>0.9</v>
       </c>
-      <c r="O59" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="P59">
+      <c r="Q59" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="R59">
         <f t="shared" si="0"/>
         <v>0.6</v>
       </c>
     </row>
-    <row r="60" ht="54" spans="1:16">
+    <row r="60" ht="54" spans="1:18">
       <c r="A60" s="8">
         <v>58</v>
       </c>
@@ -5233,42 +5462,45 @@
       <c r="C60" s="3">
         <v>1</v>
       </c>
-      <c r="D60" s="4">
+      <c r="E60" s="4">
         <v>8</v>
       </c>
-      <c r="E60" s="4">
+      <c r="F60" s="4">
+        <v>8</v>
+      </c>
+      <c r="G60" s="4">
         <v>58</v>
       </c>
-      <c r="F60" s="5">
-        <v>0</v>
-      </c>
-      <c r="G60">
+      <c r="H60" s="5">
+        <v>0</v>
+      </c>
+      <c r="I60">
         <v>2.5</v>
       </c>
-      <c r="H60">
+      <c r="J60">
         <v>1.8</v>
       </c>
-      <c r="I60" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="J60">
-        <v>0</v>
-      </c>
-      <c r="L60" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="M60">
+      <c r="K60" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="N60" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="O60">
         <v>1.5</v>
       </c>
-      <c r="O60" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="P60">
+      <c r="Q60" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="R60">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="61" ht="54" spans="1:16">
+    <row r="61" ht="54" spans="1:18">
       <c r="A61" s="8">
         <v>59</v>
       </c>
@@ -5279,42 +5511,45 @@
       <c r="C61" s="3">
         <v>1</v>
       </c>
-      <c r="D61" s="4">
+      <c r="E61" s="4">
         <v>5</v>
       </c>
-      <c r="E61" s="4">
+      <c r="F61" s="4">
+        <v>5</v>
+      </c>
+      <c r="G61" s="4">
         <v>59</v>
       </c>
-      <c r="F61" s="5">
-        <v>0</v>
-      </c>
-      <c r="G61">
-        <v>1</v>
-      </c>
-      <c r="H61">
+      <c r="H61" s="5">
+        <v>0</v>
+      </c>
+      <c r="I61">
+        <v>1</v>
+      </c>
+      <c r="J61">
         <v>0.7</v>
       </c>
-      <c r="I61" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="J61">
-        <v>0</v>
-      </c>
-      <c r="L61" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="M61">
+      <c r="K61" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="N61" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="O61">
         <v>0.6</v>
       </c>
-      <c r="O61" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="P61">
+      <c r="Q61" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="R61">
         <f t="shared" si="0"/>
         <v>0.4</v>
       </c>
     </row>
-    <row r="62" ht="54" spans="1:16">
+    <row r="62" ht="54" spans="1:18">
       <c r="A62" s="8">
         <v>60</v>
       </c>
@@ -5325,42 +5560,45 @@
       <c r="C62" s="3">
         <v>1</v>
       </c>
-      <c r="D62" s="4">
+      <c r="E62" s="4">
         <v>10</v>
       </c>
-      <c r="E62" s="4">
+      <c r="F62" s="4">
+        <v>10</v>
+      </c>
+      <c r="G62" s="4">
         <v>60</v>
       </c>
-      <c r="F62" s="5">
-        <v>0</v>
-      </c>
-      <c r="G62">
+      <c r="H62" s="5">
+        <v>0</v>
+      </c>
+      <c r="I62">
         <v>2.5</v>
       </c>
-      <c r="H62">
+      <c r="J62">
         <v>1.8</v>
       </c>
-      <c r="I62" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="J62">
-        <v>0</v>
-      </c>
-      <c r="L62" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="M62">
+      <c r="K62" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="N62" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="O62">
         <v>1.5</v>
       </c>
-      <c r="O62" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="P62">
+      <c r="Q62" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="R62">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="63" s="1" customFormat="1" ht="54" spans="1:17">
+    <row r="63" s="1" customFormat="1" ht="54" spans="1:19">
       <c r="A63" s="12">
         <v>61</v>
       </c>
@@ -5371,45 +5609,49 @@
       <c r="C63" s="14">
         <v>1</v>
       </c>
-      <c r="D63" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="E63" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="F63" s="5">
-        <v>0</v>
-      </c>
-      <c r="G63" s="1">
+      <c r="D63" s="15"/>
+      <c r="E63" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="F63" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="G63" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="H63" s="5">
+        <v>0</v>
+      </c>
+      <c r="I63" s="1">
         <v>2.5</v>
       </c>
-      <c r="H63">
+      <c r="J63">
         <v>1.8</v>
       </c>
-      <c r="I63" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="J63" s="1">
+      <c r="K63" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="L63" s="1">
         <v>0.5</v>
       </c>
-      <c r="K63" s="18"/>
-      <c r="L63" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="M63">
+      <c r="M63" s="17"/>
+      <c r="N63" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="O63">
         <v>1.5</v>
       </c>
-      <c r="N63" s="7"/>
-      <c r="O63" s="16" t="s">
-        <v>89</v>
-      </c>
-      <c r="P63">
+      <c r="P63" s="7"/>
+      <c r="Q63" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="R63">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="Q63" s="15"/>
-    </row>
-    <row r="64" ht="54" spans="1:16">
+      <c r="S63" s="15"/>
+    </row>
+    <row r="64" ht="54" spans="1:18">
       <c r="A64" s="8">
         <v>62</v>
       </c>
@@ -5420,42 +5662,45 @@
       <c r="C64" s="3">
         <v>2</v>
       </c>
-      <c r="D64" s="4">
-        <v>1</v>
-      </c>
       <c r="E64" s="4">
+        <v>1</v>
+      </c>
+      <c r="F64" s="4">
+        <v>1</v>
+      </c>
+      <c r="G64" s="4">
         <v>62</v>
       </c>
-      <c r="F64" s="5">
-        <v>0</v>
-      </c>
-      <c r="G64">
+      <c r="H64" s="5">
+        <v>0</v>
+      </c>
+      <c r="I64">
         <v>2.5</v>
       </c>
-      <c r="H64">
+      <c r="J64">
         <v>1.8</v>
       </c>
-      <c r="I64" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="J64">
-        <v>0</v>
-      </c>
-      <c r="L64" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="M64">
+      <c r="K64" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="N64" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="O64">
         <v>1.5</v>
       </c>
-      <c r="O64" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="P64">
+      <c r="Q64" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="R64">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="65" ht="54" spans="1:16">
+    <row r="65" ht="54" spans="1:18">
       <c r="A65" s="8">
         <v>63</v>
       </c>
@@ -5466,42 +5711,45 @@
       <c r="C65" s="3">
         <v>2</v>
       </c>
-      <c r="D65" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="E65" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="F65" s="5">
-        <v>0</v>
-      </c>
-      <c r="G65">
-        <v>1</v>
-      </c>
-      <c r="H65">
+      <c r="E65" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="F65" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="G65" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="H65" s="5">
+        <v>0</v>
+      </c>
+      <c r="I65">
+        <v>1</v>
+      </c>
+      <c r="J65">
         <v>0.7</v>
       </c>
-      <c r="I65" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="J65">
-        <v>0</v>
-      </c>
-      <c r="L65" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="M65">
+      <c r="K65" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="N65" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="O65">
         <v>0.6</v>
       </c>
-      <c r="O65" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="P65">
+      <c r="Q65" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="R65">
         <f t="shared" si="0"/>
         <v>0.4</v>
       </c>
     </row>
-    <row r="66" s="1" customFormat="1" ht="54" spans="1:17">
+    <row r="66" s="1" customFormat="1" ht="54" spans="1:19">
       <c r="A66" s="12">
         <v>64</v>
       </c>
@@ -5512,45 +5760,49 @@
       <c r="C66" s="14">
         <v>2</v>
       </c>
-      <c r="D66" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="E66" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="F66" s="5">
-        <v>0</v>
-      </c>
-      <c r="G66" s="1">
+      <c r="D66" s="15"/>
+      <c r="E66" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="F66" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="G66" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="H66" s="5">
+        <v>0</v>
+      </c>
+      <c r="I66" s="1">
         <v>2.5</v>
       </c>
-      <c r="H66">
+      <c r="J66">
         <v>1.8</v>
       </c>
-      <c r="I66" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="J66">
-        <v>0</v>
-      </c>
-      <c r="K66" s="7"/>
-      <c r="L66" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="M66">
+      <c r="K66" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66" s="7"/>
+      <c r="N66" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="O66">
         <v>1.5</v>
       </c>
-      <c r="N66" s="7"/>
-      <c r="O66" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="P66">
+      <c r="P66" s="7"/>
+      <c r="Q66" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="R66">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="Q66" s="15"/>
-    </row>
-    <row r="67" ht="54" spans="1:16">
+      <c r="S66" s="15"/>
+    </row>
+    <row r="67" ht="54" spans="1:18">
       <c r="A67" s="8">
         <v>65</v>
       </c>
@@ -5561,42 +5813,45 @@
       <c r="C67" s="3">
         <v>2</v>
       </c>
-      <c r="D67" s="4">
+      <c r="E67" s="4">
         <v>15</v>
       </c>
-      <c r="E67" s="4">
+      <c r="F67" s="4">
+        <v>15</v>
+      </c>
+      <c r="G67" s="4">
         <v>40</v>
       </c>
-      <c r="F67" s="5">
-        <v>0</v>
-      </c>
-      <c r="G67">
+      <c r="H67" s="5">
+        <v>0</v>
+      </c>
+      <c r="I67">
         <v>2.5</v>
       </c>
-      <c r="H67">
+      <c r="J67">
         <v>1.8</v>
       </c>
-      <c r="I67" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="J67">
-        <v>0</v>
-      </c>
-      <c r="L67" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="M67">
+      <c r="K67" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="N67" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="O67">
         <v>1.5</v>
       </c>
-      <c r="O67" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="P67">
+      <c r="Q67" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="R67">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="68" ht="54" spans="1:16">
+    <row r="68" ht="54" spans="1:18">
       <c r="A68" s="8">
         <v>66</v>
       </c>
@@ -5607,42 +5862,45 @@
       <c r="C68" s="3">
         <v>2</v>
       </c>
-      <c r="D68" s="4">
+      <c r="E68" s="4">
         <v>5</v>
       </c>
-      <c r="E68" s="4">
+      <c r="F68" s="4">
+        <v>5</v>
+      </c>
+      <c r="G68" s="4">
         <v>66</v>
       </c>
-      <c r="F68" s="5">
-        <v>0</v>
-      </c>
-      <c r="G68">
+      <c r="H68" s="5">
+        <v>0</v>
+      </c>
+      <c r="I68">
         <v>1.5</v>
       </c>
-      <c r="H68">
+      <c r="J68">
         <v>1.1</v>
       </c>
-      <c r="I68" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="J68">
-        <v>0</v>
-      </c>
-      <c r="L68" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="M68">
+      <c r="K68" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="N68" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="O68">
         <v>0.9</v>
       </c>
-      <c r="O68" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="P68">
+      <c r="Q68" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="R68">
         <f t="shared" si="0"/>
         <v>0.6</v>
       </c>
     </row>
-    <row r="69" ht="54" spans="1:16">
+    <row r="69" ht="54" spans="1:18">
       <c r="A69" s="8">
         <v>67</v>
       </c>
@@ -5653,42 +5911,45 @@
       <c r="C69" s="3">
         <v>2</v>
       </c>
-      <c r="D69" s="4" t="s">
-        <v>100</v>
-      </c>
       <c r="E69" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="F69" s="5">
-        <v>0</v>
-      </c>
-      <c r="G69">
+        <v>106</v>
+      </c>
+      <c r="F69" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="G69" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="H69" s="5">
+        <v>0</v>
+      </c>
+      <c r="I69">
         <v>2</v>
       </c>
-      <c r="H69">
+      <c r="J69">
         <v>1.4</v>
       </c>
-      <c r="I69" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="J69">
-        <v>0</v>
-      </c>
-      <c r="L69" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="M69">
+      <c r="K69" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="N69" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="O69">
         <v>1.2</v>
       </c>
-      <c r="O69" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="P69">
+      <c r="Q69" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="R69">
         <f t="shared" si="0"/>
         <v>0.8</v>
       </c>
     </row>
-    <row r="70" ht="54" spans="1:16">
+    <row r="70" ht="54" spans="1:18">
       <c r="A70" s="8">
         <v>68</v>
       </c>
@@ -5699,42 +5960,45 @@
       <c r="C70" s="3">
         <v>2</v>
       </c>
-      <c r="D70" s="4">
+      <c r="E70" s="4">
         <v>14</v>
       </c>
-      <c r="E70" s="4">
+      <c r="F70" s="4">
+        <v>14</v>
+      </c>
+      <c r="G70" s="4">
         <v>42</v>
       </c>
-      <c r="F70" s="5">
-        <v>0</v>
-      </c>
-      <c r="G70">
+      <c r="H70" s="5">
+        <v>0</v>
+      </c>
+      <c r="I70">
         <v>1.5</v>
       </c>
-      <c r="H70">
+      <c r="J70">
         <v>1.1</v>
       </c>
-      <c r="I70" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="J70">
-        <v>0</v>
-      </c>
-      <c r="L70" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="M70">
+      <c r="K70" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="N70" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="O70">
         <v>0.9</v>
       </c>
-      <c r="O70" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="P70">
+      <c r="Q70" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="R70">
         <f t="shared" si="0"/>
         <v>0.6</v>
       </c>
     </row>
-    <row r="71" ht="54" spans="1:16">
+    <row r="71" ht="54" spans="1:18">
       <c r="A71" s="8">
         <v>69</v>
       </c>
@@ -5745,42 +6009,45 @@
       <c r="C71" s="3">
         <v>3</v>
       </c>
-      <c r="D71" s="4">
+      <c r="E71" s="4">
         <v>6</v>
       </c>
-      <c r="E71" s="4">
+      <c r="F71" s="4">
+        <v>6</v>
+      </c>
+      <c r="G71" s="4">
         <v>69</v>
       </c>
-      <c r="F71" s="5">
-        <v>0</v>
-      </c>
-      <c r="G71">
+      <c r="H71" s="5">
+        <v>0</v>
+      </c>
+      <c r="I71">
         <v>1.5</v>
       </c>
-      <c r="H71">
+      <c r="J71">
         <v>1.1</v>
       </c>
-      <c r="I71" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="J71">
-        <v>0</v>
-      </c>
-      <c r="L71" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="M71">
+      <c r="K71" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="N71" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="O71">
         <v>0.9</v>
       </c>
-      <c r="O71" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="P71">
+      <c r="Q71" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="R71">
         <f t="shared" si="0"/>
         <v>0.6</v>
       </c>
     </row>
-    <row r="72" ht="54" spans="1:16">
+    <row r="72" ht="54" spans="1:18">
       <c r="A72" s="8">
         <v>70</v>
       </c>
@@ -5791,42 +6058,45 @@
       <c r="C72" s="3">
         <v>3</v>
       </c>
-      <c r="D72" s="4">
+      <c r="E72" s="4">
         <v>5</v>
       </c>
-      <c r="E72" s="4">
+      <c r="F72" s="4">
+        <v>5</v>
+      </c>
+      <c r="G72" s="4">
         <v>70</v>
       </c>
-      <c r="F72" s="5">
-        <v>0</v>
-      </c>
-      <c r="G72">
+      <c r="H72" s="5">
+        <v>0</v>
+      </c>
+      <c r="I72">
         <v>1.5</v>
       </c>
-      <c r="H72">
+      <c r="J72">
         <v>1.1</v>
       </c>
-      <c r="I72" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J72">
-        <v>0</v>
-      </c>
-      <c r="L72" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="M72">
+      <c r="K72" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="N72" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="O72">
         <v>0.9</v>
       </c>
-      <c r="O72" s="16" t="s">
-        <v>105</v>
-      </c>
-      <c r="P72">
+      <c r="Q72" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="R72">
         <f t="shared" si="0"/>
         <v>0.6</v>
       </c>
     </row>
-    <row r="73" ht="54" spans="1:16">
+    <row r="73" ht="54" spans="1:18">
       <c r="A73" s="8">
         <v>71</v>
       </c>
@@ -5837,39 +6107,42 @@
       <c r="C73" s="3">
         <v>3</v>
       </c>
-      <c r="D73" s="4">
+      <c r="E73" s="4">
         <v>6</v>
       </c>
-      <c r="F73" s="5">
-        <v>0</v>
-      </c>
-      <c r="G73">
+      <c r="F73" s="4">
+        <v>6</v>
+      </c>
+      <c r="H73" s="5">
+        <v>0</v>
+      </c>
+      <c r="I73">
         <v>2</v>
       </c>
-      <c r="H73">
+      <c r="J73">
         <v>1.4</v>
       </c>
-      <c r="I73" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J73">
-        <v>0</v>
-      </c>
-      <c r="L73" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="M73">
+      <c r="K73" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="N73" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="O73">
         <v>1.2</v>
       </c>
-      <c r="O73" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="P73">
+      <c r="Q73" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="R73">
         <f t="shared" si="0"/>
         <v>0.8</v>
       </c>
     </row>
-    <row r="74" ht="54" spans="1:16">
+    <row r="74" ht="54" spans="1:18">
       <c r="A74" s="8">
         <v>72</v>
       </c>
@@ -5880,42 +6153,45 @@
       <c r="C74" s="3">
         <v>3</v>
       </c>
-      <c r="D74" s="4">
-        <v>1</v>
-      </c>
       <c r="E74" s="4">
+        <v>1</v>
+      </c>
+      <c r="F74" s="4">
+        <v>1</v>
+      </c>
+      <c r="G74" s="4">
         <v>72</v>
       </c>
-      <c r="F74" s="5">
-        <v>0</v>
-      </c>
-      <c r="G74">
-        <v>1</v>
-      </c>
-      <c r="H74">
+      <c r="H74" s="5">
+        <v>0</v>
+      </c>
+      <c r="I74">
+        <v>1</v>
+      </c>
+      <c r="J74">
         <v>0.7</v>
       </c>
-      <c r="I74" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J74">
-        <v>0</v>
-      </c>
-      <c r="L74" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="M74">
+      <c r="K74" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="N74" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="O74">
         <v>0.6</v>
       </c>
-      <c r="O74" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="P74">
+      <c r="Q74" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="R74">
         <f t="shared" si="0"/>
         <v>0.4</v>
       </c>
     </row>
-    <row r="75" ht="54" spans="1:16">
+    <row r="75" ht="54" spans="1:18">
       <c r="A75" s="8">
         <v>73</v>
       </c>
@@ -5926,42 +6202,45 @@
       <c r="C75" s="3">
         <v>3</v>
       </c>
-      <c r="D75" s="4">
-        <v>1</v>
-      </c>
       <c r="E75" s="4">
+        <v>1</v>
+      </c>
+      <c r="F75" s="4">
+        <v>1</v>
+      </c>
+      <c r="G75" s="4">
         <v>73</v>
       </c>
-      <c r="F75" s="5">
-        <v>0</v>
-      </c>
-      <c r="G75">
+      <c r="H75" s="5">
+        <v>0</v>
+      </c>
+      <c r="I75">
         <v>2.5</v>
       </c>
-      <c r="H75">
+      <c r="J75">
         <v>1.8</v>
       </c>
-      <c r="I75" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J75">
-        <v>0</v>
-      </c>
-      <c r="L75" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="M75">
+      <c r="K75" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+      <c r="N75" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="O75">
         <v>1.5</v>
       </c>
-      <c r="O75" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="P75">
+      <c r="Q75" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="R75">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="76" ht="54" spans="1:16">
+    <row r="76" ht="54" spans="1:18">
       <c r="A76" s="8">
         <v>74</v>
       </c>
@@ -5972,36 +6251,36 @@
       <c r="C76" s="3">
         <v>3</v>
       </c>
-      <c r="F76" s="5">
-        <v>0</v>
-      </c>
-      <c r="G76">
+      <c r="H76" s="5">
+        <v>0</v>
+      </c>
+      <c r="I76">
         <v>2</v>
       </c>
-      <c r="H76">
+      <c r="J76">
         <v>1.4</v>
       </c>
-      <c r="I76" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J76">
-        <v>0</v>
-      </c>
-      <c r="L76" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="M76">
+      <c r="K76" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="N76" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="O76">
         <v>1.2</v>
       </c>
-      <c r="O76" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="P76">
+      <c r="Q76" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="R76">
         <f t="shared" si="0"/>
         <v>0.8</v>
       </c>
     </row>
-    <row r="77" ht="54" spans="1:17">
+    <row r="77" ht="54" spans="1:19">
       <c r="A77" s="8">
         <v>75</v>
       </c>
@@ -6012,36 +6291,36 @@
       <c r="C77" s="3">
         <v>0</v>
       </c>
-      <c r="F77" s="5">
-        <v>0</v>
-      </c>
-      <c r="G77">
+      <c r="H77" s="5">
+        <v>0</v>
+      </c>
+      <c r="I77">
         <v>0.8</v>
       </c>
-      <c r="H77">
+      <c r="J77">
         <v>0.6</v>
       </c>
-      <c r="J77">
-        <v>0</v>
-      </c>
-      <c r="L77" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="M77">
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="N77" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="O77">
         <v>0.5</v>
       </c>
-      <c r="O77" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="P77">
+      <c r="Q77" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="R77">
         <f t="shared" si="0"/>
         <v>0.4</v>
       </c>
-      <c r="Q77" s="4" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="78" ht="54" spans="1:17">
+      <c r="S77" s="4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="78" ht="54" spans="1:19">
       <c r="A78" s="8">
         <v>76</v>
       </c>
@@ -6052,36 +6331,36 @@
       <c r="C78" s="3">
         <v>0</v>
       </c>
-      <c r="F78" s="5">
-        <v>0</v>
-      </c>
-      <c r="G78">
+      <c r="H78" s="5">
+        <v>0</v>
+      </c>
+      <c r="I78">
         <v>1.5</v>
       </c>
-      <c r="H78">
+      <c r="J78">
         <v>1.1</v>
       </c>
-      <c r="J78">
-        <v>0</v>
-      </c>
-      <c r="L78" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="M78">
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="N78" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="O78">
         <v>0.9</v>
       </c>
-      <c r="O78" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="P78">
+      <c r="Q78" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="R78">
         <f t="shared" si="0"/>
         <v>0.6</v>
       </c>
-      <c r="Q78" s="4" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="79" ht="54" spans="1:16">
+      <c r="S78" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="79" ht="54" spans="1:18">
       <c r="A79" s="8">
         <v>77</v>
       </c>
@@ -6092,39 +6371,42 @@
       <c r="C79" s="3">
         <v>3</v>
       </c>
-      <c r="D79" s="4">
+      <c r="E79" s="4">
         <v>10</v>
       </c>
-      <c r="E79" s="4">
+      <c r="F79" s="4">
+        <v>10</v>
+      </c>
+      <c r="G79" s="4">
         <v>77</v>
       </c>
-      <c r="F79" s="5">
-        <v>0</v>
-      </c>
-      <c r="G79">
+      <c r="H79" s="5">
+        <v>0</v>
+      </c>
+      <c r="I79">
         <v>2</v>
       </c>
-      <c r="H79">
+      <c r="J79">
         <v>1.4</v>
       </c>
-      <c r="J79">
-        <v>0</v>
-      </c>
-      <c r="L79" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="M79">
+      <c r="L79">
+        <v>0</v>
+      </c>
+      <c r="N79" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="O79">
         <v>1.2</v>
       </c>
-      <c r="O79" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="P79">
+      <c r="Q79" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="R79">
         <f t="shared" si="0"/>
         <v>0.8</v>
       </c>
     </row>
-    <row r="80" ht="54" spans="1:16">
+    <row r="80" ht="54" spans="1:18">
       <c r="A80" s="8">
         <v>78</v>
       </c>
@@ -6135,42 +6417,45 @@
       <c r="C80" s="3">
         <v>3</v>
       </c>
-      <c r="D80" s="4">
+      <c r="E80" s="4">
         <v>10</v>
       </c>
-      <c r="E80" s="4">
+      <c r="F80" s="4">
+        <v>10</v>
+      </c>
+      <c r="G80" s="4">
         <v>77</v>
       </c>
-      <c r="F80" s="5">
-        <v>0</v>
-      </c>
-      <c r="G80">
+      <c r="H80" s="5">
+        <v>0</v>
+      </c>
+      <c r="I80">
         <v>2</v>
       </c>
-      <c r="H80">
+      <c r="J80">
         <v>1.4</v>
       </c>
-      <c r="I80" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="J80">
-        <v>0</v>
-      </c>
-      <c r="L80" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="M80">
+      <c r="K80" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="N80" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="O80">
         <v>1.2</v>
       </c>
-      <c r="O80" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="P80">
+      <c r="Q80" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="R80">
         <f t="shared" si="0"/>
         <v>0.8</v>
       </c>
     </row>
-    <row r="81" ht="54" spans="1:16">
+    <row r="81" ht="54" spans="1:18">
       <c r="A81" s="8">
         <v>79</v>
       </c>
@@ -6181,39 +6466,42 @@
       <c r="C81" s="3">
         <v>3</v>
       </c>
-      <c r="D81" s="4">
+      <c r="E81" s="4">
         <v>7</v>
       </c>
-      <c r="E81" s="4">
+      <c r="F81" s="4">
+        <v>7</v>
+      </c>
+      <c r="G81" s="4">
         <v>79</v>
       </c>
-      <c r="F81" s="5">
-        <v>0</v>
-      </c>
-      <c r="G81">
-        <v>1</v>
-      </c>
-      <c r="H81">
+      <c r="H81" s="5">
+        <v>0</v>
+      </c>
+      <c r="I81">
+        <v>1</v>
+      </c>
+      <c r="J81">
         <v>0.7</v>
       </c>
-      <c r="J81">
-        <v>0</v>
-      </c>
-      <c r="L81" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="M81">
+      <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="N81" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="O81">
         <v>0.6</v>
       </c>
-      <c r="O81" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="P81">
+      <c r="Q81" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="R81">
         <f t="shared" si="0"/>
         <v>0.4</v>
       </c>
     </row>
-    <row r="82" ht="54" spans="1:16">
+    <row r="82" ht="54" spans="1:18">
       <c r="A82" s="8">
         <v>80</v>
       </c>
@@ -6224,42 +6512,45 @@
       <c r="C82" s="3">
         <v>3</v>
       </c>
-      <c r="D82" s="4">
+      <c r="E82" s="4">
         <v>19</v>
       </c>
-      <c r="E82" s="4">
+      <c r="F82" s="4">
+        <v>19</v>
+      </c>
+      <c r="G82" s="4">
         <v>9</v>
       </c>
-      <c r="F82" s="5">
-        <v>0</v>
-      </c>
-      <c r="G82">
+      <c r="H82" s="5">
+        <v>0</v>
+      </c>
+      <c r="I82">
         <v>1.5</v>
       </c>
-      <c r="H82">
+      <c r="J82">
         <v>1.1</v>
       </c>
-      <c r="I82" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="J82">
-        <v>0</v>
-      </c>
-      <c r="L82" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="M82">
+      <c r="K82" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="L82">
+        <v>0</v>
+      </c>
+      <c r="N82" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="O82">
         <v>0.9</v>
       </c>
-      <c r="O82" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="P82">
+      <c r="Q82" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="R82">
         <f t="shared" si="0"/>
         <v>0.6</v>
       </c>
     </row>
-    <row r="83" ht="54" spans="1:16">
+    <row r="83" ht="54" spans="1:18">
       <c r="A83" s="8">
         <v>81</v>
       </c>
@@ -6270,42 +6561,45 @@
       <c r="C83" s="3">
         <v>3</v>
       </c>
-      <c r="D83" s="4">
+      <c r="E83" s="4">
         <v>18</v>
       </c>
-      <c r="E83" s="4">
+      <c r="F83" s="4">
+        <v>18</v>
+      </c>
+      <c r="G83" s="4">
         <v>81</v>
       </c>
-      <c r="F83" s="5">
-        <v>0</v>
-      </c>
-      <c r="G83">
-        <v>1</v>
-      </c>
-      <c r="H83">
+      <c r="H83" s="5">
+        <v>0</v>
+      </c>
+      <c r="I83">
+        <v>1</v>
+      </c>
+      <c r="J83">
         <v>0.7</v>
       </c>
-      <c r="I83" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="J83">
-        <v>0</v>
-      </c>
-      <c r="L83" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="M83">
+      <c r="K83" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="L83">
+        <v>0</v>
+      </c>
+      <c r="N83" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="O83">
         <v>0.6</v>
       </c>
-      <c r="O83" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="P83">
+      <c r="Q83" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="R83">
         <f t="shared" si="0"/>
         <v>0.4</v>
       </c>
     </row>
-    <row r="84" ht="54" spans="1:16">
+    <row r="84" ht="54" spans="1:18">
       <c r="A84" s="8">
         <v>82</v>
       </c>
@@ -6316,36 +6610,36 @@
       <c r="C84" s="3">
         <v>3</v>
       </c>
-      <c r="F84" s="5">
-        <v>0</v>
-      </c>
-      <c r="G84">
+      <c r="H84" s="5">
+        <v>0</v>
+      </c>
+      <c r="I84">
         <v>2</v>
       </c>
-      <c r="H84">
+      <c r="J84">
         <v>1.4</v>
       </c>
-      <c r="I84" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="J84">
-        <v>0</v>
-      </c>
-      <c r="L84" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="M84">
+      <c r="K84" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="L84">
+        <v>0</v>
+      </c>
+      <c r="N84" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="O84">
         <v>1.2</v>
       </c>
-      <c r="O84" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="P84">
+      <c r="Q84" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="R84">
         <f t="shared" si="0"/>
         <v>0.8</v>
       </c>
     </row>
-    <row r="85" ht="54" spans="1:16">
+    <row r="85" ht="54" spans="1:18">
       <c r="A85" s="8">
         <v>83</v>
       </c>
@@ -6356,39 +6650,42 @@
       <c r="C85" s="3">
         <v>3</v>
       </c>
-      <c r="D85" s="4">
+      <c r="E85" s="4">
         <v>13</v>
       </c>
-      <c r="F85" s="5">
-        <v>0</v>
-      </c>
-      <c r="G85">
+      <c r="F85" s="4">
+        <v>13</v>
+      </c>
+      <c r="H85" s="5">
+        <v>0</v>
+      </c>
+      <c r="I85">
         <v>2</v>
       </c>
-      <c r="H85">
+      <c r="J85">
         <v>1.4</v>
       </c>
-      <c r="I85" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="J85">
-        <v>0</v>
-      </c>
-      <c r="L85" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="M85">
+      <c r="K85" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="L85">
+        <v>0</v>
+      </c>
+      <c r="N85" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="O85">
         <v>1.2</v>
       </c>
-      <c r="O85" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="P85">
+      <c r="Q85" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="R85">
         <f t="shared" si="0"/>
         <v>0.8</v>
       </c>
     </row>
-    <row r="86" ht="54" spans="1:17">
+    <row r="86" ht="54" spans="1:19">
       <c r="A86" s="8">
         <v>84</v>
       </c>
@@ -6399,36 +6696,36 @@
       <c r="C86" s="3">
         <v>0</v>
       </c>
-      <c r="F86" s="5">
-        <v>0</v>
-      </c>
-      <c r="G86">
+      <c r="H86" s="5">
+        <v>0</v>
+      </c>
+      <c r="I86">
         <v>1.5</v>
       </c>
-      <c r="H86">
+      <c r="J86">
         <v>1.1</v>
       </c>
-      <c r="J86">
-        <v>0</v>
-      </c>
-      <c r="L86" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="M86">
+      <c r="L86">
+        <v>0</v>
+      </c>
+      <c r="N86" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="O86">
         <v>0.9</v>
       </c>
-      <c r="O86" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="P86">
+      <c r="Q86" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="R86">
         <f t="shared" si="0"/>
         <v>0.6</v>
       </c>
-      <c r="Q86" s="4" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="87" ht="54" spans="1:16">
+      <c r="S86" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="87" ht="54" spans="1:18">
       <c r="A87" s="8">
         <v>85</v>
       </c>
@@ -6439,42 +6736,45 @@
       <c r="C87" s="3">
         <v>3</v>
       </c>
-      <c r="D87" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="E87" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="F87" s="5">
-        <v>0</v>
-      </c>
-      <c r="G87">
+      <c r="E87" s="4">
+        <v>1</v>
+      </c>
+      <c r="F87" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="G87" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="H87" s="5">
+        <v>0</v>
+      </c>
+      <c r="I87">
         <v>1.5</v>
       </c>
-      <c r="H87">
+      <c r="J87">
         <v>1.1</v>
       </c>
-      <c r="I87" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="J87">
-        <v>0</v>
-      </c>
-      <c r="L87" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="M87">
+      <c r="K87" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="L87">
+        <v>0</v>
+      </c>
+      <c r="N87" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="O87">
         <v>0.9</v>
       </c>
-      <c r="O87" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="P87">
+      <c r="Q87" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="R87">
         <f t="shared" si="0"/>
         <v>0.6</v>
       </c>
     </row>
-    <row r="88" ht="54" spans="1:16">
+    <row r="88" ht="54" spans="1:18">
       <c r="A88" s="8">
         <v>86</v>
       </c>
@@ -6485,42 +6785,45 @@
       <c r="C88" s="3">
         <v>3</v>
       </c>
-      <c r="D88" s="4">
+      <c r="E88" s="4">
         <v>13</v>
       </c>
-      <c r="E88" s="4">
+      <c r="F88" s="4">
+        <v>13</v>
+      </c>
+      <c r="G88" s="4">
         <v>86</v>
       </c>
-      <c r="F88" s="5">
-        <v>0</v>
-      </c>
-      <c r="G88">
+      <c r="H88" s="5">
+        <v>0</v>
+      </c>
+      <c r="I88">
         <v>2</v>
       </c>
-      <c r="H88">
+      <c r="J88">
         <v>1.4</v>
       </c>
-      <c r="I88" s="6" t="s">
+      <c r="K88" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="L88">
+        <v>0</v>
+      </c>
+      <c r="N88" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="J88">
-        <v>0</v>
-      </c>
-      <c r="L88" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="M88">
+      <c r="O88">
         <v>1.2</v>
       </c>
-      <c r="O88" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="P88">
+      <c r="Q88" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="R88">
         <f t="shared" si="0"/>
         <v>0.8</v>
       </c>
     </row>
-    <row r="89" ht="54" spans="1:16">
+    <row r="89" ht="54" spans="1:18">
       <c r="A89" s="8">
         <v>87</v>
       </c>
@@ -6531,42 +6834,45 @@
       <c r="C89" s="3">
         <v>3</v>
       </c>
-      <c r="D89" s="4">
-        <v>1</v>
-      </c>
       <c r="E89" s="4">
+        <v>1</v>
+      </c>
+      <c r="F89" s="4">
+        <v>1</v>
+      </c>
+      <c r="G89" s="4">
         <v>87</v>
       </c>
-      <c r="F89" s="5">
-        <v>0</v>
-      </c>
-      <c r="G89">
+      <c r="H89" s="5">
+        <v>0</v>
+      </c>
+      <c r="I89">
         <v>1.5</v>
       </c>
-      <c r="H89">
+      <c r="J89">
         <v>1.1</v>
       </c>
-      <c r="I89" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="J89">
-        <v>0</v>
-      </c>
-      <c r="L89" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="M89">
+      <c r="K89" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="L89">
+        <v>0</v>
+      </c>
+      <c r="N89" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="O89">
         <v>0.9</v>
       </c>
-      <c r="O89" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="P89">
+      <c r="Q89" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="R89">
         <f t="shared" si="0"/>
         <v>0.6</v>
       </c>
     </row>
-    <row r="90" ht="54" spans="1:16">
+    <row r="90" ht="54" spans="1:18">
       <c r="A90" s="8">
         <v>88</v>
       </c>
@@ -6577,42 +6883,45 @@
       <c r="C90" s="3">
         <v>3</v>
       </c>
-      <c r="D90" s="4">
+      <c r="E90" s="4">
         <v>5</v>
       </c>
-      <c r="E90" s="4">
+      <c r="F90" s="4">
+        <v>5</v>
+      </c>
+      <c r="G90" s="4">
         <v>88</v>
       </c>
-      <c r="F90" s="5">
-        <v>0</v>
-      </c>
-      <c r="G90">
+      <c r="H90" s="5">
+        <v>0</v>
+      </c>
+      <c r="I90">
         <v>1.5</v>
       </c>
-      <c r="H90">
+      <c r="J90">
         <v>1.1</v>
       </c>
-      <c r="I90" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="J90">
-        <v>0</v>
-      </c>
-      <c r="L90" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="M90">
+      <c r="K90" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="L90">
+        <v>0</v>
+      </c>
+      <c r="N90" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="O90">
         <v>0.9</v>
       </c>
-      <c r="O90" s="16" t="s">
-        <v>119</v>
-      </c>
-      <c r="P90">
+      <c r="Q90" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="R90">
         <f t="shared" si="0"/>
         <v>0.6</v>
       </c>
     </row>
-    <row r="91" ht="54" spans="1:16">
+    <row r="91" ht="54" spans="1:18">
       <c r="A91" s="8">
         <v>89</v>
       </c>
@@ -6623,42 +6932,45 @@
       <c r="C91" s="3">
         <v>1</v>
       </c>
-      <c r="D91" s="4" t="s">
-        <v>120</v>
-      </c>
       <c r="E91" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="F91" s="5">
-        <v>0</v>
-      </c>
-      <c r="G91">
-        <v>1</v>
-      </c>
-      <c r="H91">
+        <v>127</v>
+      </c>
+      <c r="F91" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="G91" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="H91" s="5">
+        <v>0</v>
+      </c>
+      <c r="I91">
+        <v>1</v>
+      </c>
+      <c r="J91">
         <v>0.7</v>
       </c>
-      <c r="I91" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="J91">
-        <v>0</v>
-      </c>
-      <c r="L91" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="M91">
+      <c r="K91" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="L91">
+        <v>0</v>
+      </c>
+      <c r="N91" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="O91">
         <v>0.6</v>
       </c>
-      <c r="O91" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="P91">
+      <c r="Q91" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="R91">
         <f t="shared" si="0"/>
         <v>0.4</v>
       </c>
     </row>
-    <row r="92" ht="54" spans="1:16">
+    <row r="92" ht="54" spans="1:18">
       <c r="A92" s="8">
         <v>90</v>
       </c>
@@ -6669,42 +6981,45 @@
       <c r="C92" s="3">
         <v>0</v>
       </c>
-      <c r="D92" s="4">
-        <v>1</v>
-      </c>
       <c r="E92" s="4">
-        <v>0</v>
-      </c>
-      <c r="F92" s="5">
-        <v>0</v>
-      </c>
-      <c r="G92">
-        <v>1</v>
-      </c>
-      <c r="H92">
+        <v>1</v>
+      </c>
+      <c r="F92" s="4">
+        <v>1</v>
+      </c>
+      <c r="G92" s="4">
+        <v>0</v>
+      </c>
+      <c r="H92" s="5">
+        <v>0</v>
+      </c>
+      <c r="I92">
+        <v>1</v>
+      </c>
+      <c r="J92">
         <v>0.7</v>
       </c>
-      <c r="I92" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="J92">
-        <v>0</v>
-      </c>
-      <c r="L92" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="M92">
+      <c r="K92" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="L92">
+        <v>0</v>
+      </c>
+      <c r="N92" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="O92">
         <v>0.6</v>
       </c>
-      <c r="O92" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="P92">
+      <c r="Q92" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="R92">
         <f t="shared" si="0"/>
         <v>0.4</v>
       </c>
     </row>
-    <row r="93" ht="54" spans="1:16">
+    <row r="93" ht="54" spans="1:18">
       <c r="A93" s="8">
         <v>91</v>
       </c>
@@ -6715,42 +7030,45 @@
       <c r="C93" s="3">
         <v>0</v>
       </c>
-      <c r="D93" s="4">
+      <c r="E93" s="4">
         <v>15</v>
       </c>
-      <c r="E93" s="4">
+      <c r="F93" s="4">
+        <v>15</v>
+      </c>
+      <c r="G93" s="4">
         <v>91</v>
       </c>
-      <c r="F93" s="5">
-        <v>0</v>
-      </c>
-      <c r="G93" s="19">
+      <c r="H93" s="5">
+        <v>0</v>
+      </c>
+      <c r="I93" s="21">
         <v>2.5</v>
       </c>
-      <c r="H93">
+      <c r="J93">
         <v>1.8</v>
       </c>
-      <c r="I93" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="J93">
-        <v>0</v>
-      </c>
-      <c r="L93" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="M93">
+      <c r="K93" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="L93">
+        <v>0</v>
+      </c>
+      <c r="N93" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="O93">
         <v>1.5</v>
       </c>
-      <c r="O93" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="P93">
-        <f t="shared" ref="P93:P98" si="1">ROUNDUP(G93*0.4,1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" ht="54" spans="1:16">
+      <c r="Q93" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="R93">
+        <f t="shared" ref="R93:R98" si="1">ROUNDUP(I93*0.4,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" ht="54" spans="1:18">
       <c r="A94" s="8">
         <v>92</v>
       </c>
@@ -6761,168 +7079,180 @@
       <c r="C94" s="3">
         <v>0</v>
       </c>
-      <c r="D94" s="4" t="s">
-        <v>122</v>
-      </c>
       <c r="E94" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="F94" s="5">
-        <v>0</v>
-      </c>
-      <c r="G94" s="19">
+        <v>130</v>
+      </c>
+      <c r="F94" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="G94" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="H94" s="5">
+        <v>0</v>
+      </c>
+      <c r="I94" s="21">
         <v>1.5</v>
       </c>
-      <c r="H94">
+      <c r="J94">
         <v>1.1</v>
       </c>
-      <c r="I94" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="J94">
-        <v>0</v>
-      </c>
-      <c r="L94" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="M94">
+      <c r="K94" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="L94">
+        <v>0</v>
+      </c>
+      <c r="N94" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="O94">
         <v>0.9</v>
       </c>
-      <c r="O94" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="P94">
+      <c r="Q94" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="R94">
         <f t="shared" si="1"/>
         <v>0.6</v>
       </c>
     </row>
-    <row r="95" ht="54" spans="1:16">
-      <c r="A95" s="20">
+    <row r="95" ht="54" spans="1:18">
+      <c r="A95" s="19">
         <v>93</v>
       </c>
-      <c r="B95" s="21" t="s">
-        <v>124</v>
+      <c r="B95" s="20" t="s">
+        <v>133</v>
       </c>
       <c r="C95" s="3">
         <v>0</v>
       </c>
-      <c r="D95" s="4">
+      <c r="E95" s="4">
         <v>13</v>
       </c>
-      <c r="E95" s="4">
+      <c r="F95" s="4">
+        <v>13</v>
+      </c>
+      <c r="G95" s="4">
         <v>93</v>
       </c>
-      <c r="F95" s="5">
-        <v>0</v>
-      </c>
-      <c r="G95">
-        <v>1</v>
-      </c>
-      <c r="H95">
+      <c r="H95" s="5">
+        <v>0</v>
+      </c>
+      <c r="I95">
+        <v>1</v>
+      </c>
+      <c r="J95">
         <v>0.7</v>
       </c>
-      <c r="J95">
-        <v>0</v>
-      </c>
-      <c r="L95" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="M95">
+      <c r="L95">
+        <v>0</v>
+      </c>
+      <c r="N95" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="O95">
         <v>0.25</v>
       </c>
-      <c r="O95" s="16" t="s">
-        <v>125</v>
-      </c>
-      <c r="P95">
+      <c r="Q95" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="R95">
         <f t="shared" si="1"/>
         <v>0.4</v>
       </c>
     </row>
-    <row r="96" ht="54" spans="1:16">
-      <c r="A96" s="20">
+    <row r="96" ht="54" spans="1:18">
+      <c r="A96" s="19">
         <v>94</v>
       </c>
-      <c r="B96" s="21" t="s">
-        <v>126</v>
+      <c r="B96" s="20" t="s">
+        <v>135</v>
       </c>
       <c r="C96" s="3">
         <v>0</v>
       </c>
-      <c r="D96" s="4">
+      <c r="E96" s="4">
         <v>13</v>
       </c>
-      <c r="E96" s="4">
+      <c r="F96" s="4">
+        <v>13</v>
+      </c>
+      <c r="G96" s="4">
         <v>94</v>
       </c>
-      <c r="F96" s="5">
-        <v>0</v>
-      </c>
-      <c r="G96">
+      <c r="H96" s="5">
+        <v>0</v>
+      </c>
+      <c r="I96">
         <v>1.5</v>
       </c>
-      <c r="H96">
+      <c r="J96">
         <v>1.1</v>
       </c>
-      <c r="J96">
-        <v>0</v>
-      </c>
-      <c r="L96" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="M96">
+      <c r="L96">
+        <v>0</v>
+      </c>
+      <c r="N96" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="O96">
         <v>0.25</v>
       </c>
-      <c r="O96" s="16" t="s">
-        <v>127</v>
-      </c>
-      <c r="P96">
+      <c r="Q96" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="R96">
         <f t="shared" si="1"/>
         <v>0.6</v>
       </c>
     </row>
-    <row r="97" ht="54" spans="1:16">
-      <c r="A97" s="20">
+    <row r="97" ht="54" spans="1:18">
+      <c r="A97" s="19">
         <v>95</v>
       </c>
-      <c r="B97" s="21" t="s">
-        <v>128</v>
+      <c r="B97" s="20" t="s">
+        <v>137</v>
       </c>
       <c r="C97" s="3">
         <v>0</v>
       </c>
-      <c r="D97" s="4">
+      <c r="E97" s="4">
         <v>13</v>
       </c>
-      <c r="E97" s="4">
+      <c r="F97" s="4">
+        <v>13</v>
+      </c>
+      <c r="G97" s="4">
         <v>95</v>
       </c>
-      <c r="F97" s="5">
-        <v>0</v>
-      </c>
-      <c r="G97">
+      <c r="H97" s="5">
+        <v>0</v>
+      </c>
+      <c r="I97">
         <v>1.5</v>
       </c>
-      <c r="H97">
+      <c r="J97">
         <v>1.1</v>
       </c>
-      <c r="J97">
-        <v>0</v>
-      </c>
-      <c r="L97" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="M97">
+      <c r="L97">
+        <v>0</v>
+      </c>
+      <c r="N97" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="O97">
         <v>0.25</v>
       </c>
-      <c r="O97" s="16" t="s">
-        <v>129</v>
-      </c>
-      <c r="P97">
+      <c r="Q97" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="R97">
         <f t="shared" si="1"/>
         <v>0.6</v>
       </c>
     </row>
-    <row r="98" ht="54" spans="1:17">
+    <row r="98" ht="54" spans="1:19">
       <c r="A98" s="8">
         <v>96</v>
       </c>
@@ -6933,43 +7263,46 @@
       <c r="C98" s="3">
         <v>0</v>
       </c>
-      <c r="D98" s="4">
-        <v>1</v>
-      </c>
       <c r="E98" s="4">
-        <v>0</v>
-      </c>
-      <c r="F98" s="5">
-        <v>0</v>
-      </c>
-      <c r="G98">
+        <v>1</v>
+      </c>
+      <c r="F98" s="4">
+        <v>1</v>
+      </c>
+      <c r="G98" s="4">
+        <v>0</v>
+      </c>
+      <c r="H98" s="5">
+        <v>0</v>
+      </c>
+      <c r="I98">
         <v>1.5</v>
       </c>
-      <c r="H98">
+      <c r="J98">
         <v>1.1</v>
       </c>
-      <c r="J98">
-        <v>0</v>
-      </c>
-      <c r="L98" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="M98">
+      <c r="L98">
+        <v>0</v>
+      </c>
+      <c r="N98" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="O98">
         <v>0.9</v>
       </c>
-      <c r="O98" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="P98">
+      <c r="Q98" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="R98">
         <f t="shared" si="1"/>
         <v>0.6</v>
       </c>
-      <c r="Q98" s="22" t="s">
-        <v>130</v>
+      <c r="S98" s="22" t="s">
+        <v>139</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Q98">
+  <autoFilter ref="A1:S98">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/jyx2/excel/武功招式特效.xlsx
+++ b/jyx2/excel/武功招式特效.xlsx
@@ -166,7 +166,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="146">
   <si>
     <t>代号</t>
   </si>
@@ -333,6 +333,12 @@
     <t>Assets/BuildSource/sound/e10.wav</t>
   </si>
   <si>
+    <t>@Assets/BuildSource/Animations/降龙十八掌洪七公待机.anim</t>
+  </si>
+  <si>
+    <t>@Assets/BuildSource/Animations/降龙十八掌洪七公.anim</t>
+  </si>
+  <si>
     <t>Assets/Effects/Prefabs/Buff/Fx_Buff_Piaomiao.prefab</t>
   </si>
   <si>
@@ -423,6 +429,12 @@
     <t>Assets/BuildSource/sound/e34.wav</t>
   </si>
   <si>
+    <t>@Assets/BuildSource/Animations/玉箫剑法程英待机.anim</t>
+  </si>
+  <si>
+    <t>@Assets/BuildSource/Animations/玉箫剑法程英.anim</t>
+  </si>
+  <si>
     <t>Assets/BuildSource/sound/e11.wav</t>
   </si>
   <si>
@@ -544,6 +556,12 @@
   </si>
   <si>
     <t>Assets/BuildSource/sound/e09.wav</t>
+  </si>
+  <si>
+    <t>@Assets/BuildSource/Animations/打狗棒法黄蓉待机.anim</t>
+  </si>
+  <si>
+    <t>@Assets/BuildSource/Animations/打狗棒法黄蓉.anim</t>
   </si>
   <si>
     <t>Assets/BuildSource/sound/atk11.wav</t>
@@ -593,9 +611,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
@@ -627,34 +645,19 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -668,22 +671,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -697,24 +692,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -725,6 +705,13 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -753,6 +740,21 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
@@ -775,12 +777,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -801,13 +819,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -819,7 +933,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -831,115 +945,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -957,31 +963,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1023,21 +1041,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1053,26 +1056,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1084,6 +1067,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1120,162 +1112,188 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2547,11 +2565,11 @@
   <dimension ref="A1:S98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C77" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C58" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F81" sqref="F81"/>
+      <selection pane="bottomRight" activeCell="G59" sqref="G59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3849,11 +3867,11 @@
       <c r="E27" s="4">
         <v>25</v>
       </c>
-      <c r="F27" s="4">
-        <v>25</v>
-      </c>
-      <c r="G27" s="4">
-        <v>25</v>
+      <c r="F27" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>56</v>
       </c>
       <c r="H27" s="5">
         <v>0</v>
@@ -3865,19 +3883,19 @@
         <v>1.5</v>
       </c>
       <c r="K27" s="6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="L27">
         <v>0</v>
       </c>
       <c r="N27" s="6" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="O27">
         <v>0.23</v>
       </c>
       <c r="Q27" s="18" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="R27">
         <v>0.8</v>
@@ -3925,7 +3943,7 @@
         <v>1.2</v>
       </c>
       <c r="Q28" s="18" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="R28">
         <f>ROUNDUP(I28*0.4,1)</f>
@@ -3974,7 +3992,7 @@
         <v>0.9</v>
       </c>
       <c r="Q29" s="18" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="R29">
         <f t="shared" ref="R29:R92" si="0">ROUNDUP(I29*0.4,1)</f>
@@ -4023,7 +4041,7 @@
         <v>0.6</v>
       </c>
       <c r="Q30" s="18" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="R30">
         <f t="shared" si="0"/>
@@ -4072,7 +4090,7 @@
         <v>0.6</v>
       </c>
       <c r="Q31" s="18" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="R31">
         <f t="shared" si="0"/>
@@ -4121,7 +4139,7 @@
         <v>0.9</v>
       </c>
       <c r="Q32" s="18" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="R32">
         <f t="shared" si="0"/>
@@ -4158,7 +4176,7 @@
         <v>0.7</v>
       </c>
       <c r="K33" s="6" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L33">
         <v>0</v>
@@ -4170,7 +4188,7 @@
         <v>0.6</v>
       </c>
       <c r="Q33" s="18" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="R33">
         <f t="shared" si="0"/>
@@ -4207,7 +4225,7 @@
         <v>0.7</v>
       </c>
       <c r="K34" s="6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="L34">
         <v>0</v>
@@ -4219,7 +4237,7 @@
         <v>0.6</v>
       </c>
       <c r="Q34" s="18" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="R34">
         <f t="shared" si="0"/>
@@ -4256,7 +4274,7 @@
         <v>0.7</v>
       </c>
       <c r="K35" s="6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="L35">
         <v>0</v>
@@ -4268,7 +4286,7 @@
         <v>0.6</v>
       </c>
       <c r="Q35" s="18" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="R35">
         <f t="shared" si="0"/>
@@ -4305,7 +4323,7 @@
         <v>0.7</v>
       </c>
       <c r="K36" s="6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="L36">
         <v>0</v>
@@ -4317,7 +4335,7 @@
         <v>0.6</v>
       </c>
       <c r="Q36" s="18" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="R36">
         <f t="shared" si="0"/>
@@ -4354,7 +4372,7 @@
         <v>1.1</v>
       </c>
       <c r="K37" s="6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="L37">
         <v>0</v>
@@ -4366,7 +4384,7 @@
         <v>0.9</v>
       </c>
       <c r="Q37" s="18" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="R37">
         <f t="shared" si="0"/>
@@ -4403,7 +4421,7 @@
         <v>1.4</v>
       </c>
       <c r="K38" s="6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="L38">
         <v>0</v>
@@ -4415,7 +4433,7 @@
         <v>1.2</v>
       </c>
       <c r="Q38" s="18" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="R38">
         <f t="shared" si="0"/>
@@ -4452,7 +4470,7 @@
         <v>1.1</v>
       </c>
       <c r="K39" s="6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="L39">
         <v>0</v>
@@ -4464,7 +4482,7 @@
         <v>0.9</v>
       </c>
       <c r="Q39" s="18" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="R39">
         <f t="shared" si="0"/>
@@ -4501,7 +4519,7 @@
         <v>0.7</v>
       </c>
       <c r="K40" s="6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="L40">
         <v>0</v>
@@ -4513,7 +4531,7 @@
         <v>0.6</v>
       </c>
       <c r="Q40" s="18" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="R40">
         <f t="shared" si="0"/>
@@ -4550,7 +4568,7 @@
         <v>1.1</v>
       </c>
       <c r="K41" s="6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="L41">
         <v>0</v>
@@ -4562,7 +4580,7 @@
         <v>0.9</v>
       </c>
       <c r="Q41" s="18" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="R41">
         <f t="shared" si="0"/>
@@ -4599,7 +4617,7 @@
         <v>1.8</v>
       </c>
       <c r="K42" s="6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="L42">
         <v>0</v>
@@ -4611,7 +4629,7 @@
         <v>1.5</v>
       </c>
       <c r="Q42" s="18" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="R42">
         <f t="shared" si="0"/>
@@ -4648,7 +4666,7 @@
         <v>1.1</v>
       </c>
       <c r="K43" s="6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="L43">
         <v>0</v>
@@ -4660,7 +4678,7 @@
         <v>0.9</v>
       </c>
       <c r="Q43" s="18" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="R43">
         <f t="shared" si="0"/>
@@ -4697,7 +4715,7 @@
         <v>1.1</v>
       </c>
       <c r="K44" s="6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="L44">
         <v>0</v>
@@ -4709,7 +4727,7 @@
         <v>0.9</v>
       </c>
       <c r="Q44" s="18" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="R44">
         <f t="shared" si="0"/>
@@ -4746,7 +4764,7 @@
         <v>1.4</v>
       </c>
       <c r="K45" s="6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="L45">
         <v>0</v>
@@ -4758,7 +4776,7 @@
         <v>1.2</v>
       </c>
       <c r="Q45" s="18" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="R45">
         <f t="shared" si="0"/>
@@ -4795,7 +4813,7 @@
         <v>0.7</v>
       </c>
       <c r="K46" s="6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="L46">
         <v>0</v>
@@ -4829,10 +4847,10 @@
         <v>1</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H47" s="5">
         <v>0</v>
@@ -4844,7 +4862,7 @@
         <v>0.7</v>
       </c>
       <c r="K47" s="6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="L47">
         <v>0</v>
@@ -4856,7 +4874,7 @@
         <v>0.6</v>
       </c>
       <c r="Q47" s="18" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="R47">
         <f t="shared" si="0"/>
@@ -4893,7 +4911,7 @@
         <v>1.8</v>
       </c>
       <c r="K48" s="6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="L48">
         <v>0</v>
@@ -4905,7 +4923,7 @@
         <v>1.5</v>
       </c>
       <c r="Q48" s="18" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="R48">
         <f t="shared" si="0"/>
@@ -4942,7 +4960,7 @@
         <v>0.7</v>
       </c>
       <c r="K49" s="6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="L49">
         <v>0</v>
@@ -4954,7 +4972,7 @@
         <v>0.6</v>
       </c>
       <c r="Q49" s="18" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="R49">
         <f t="shared" si="0"/>
@@ -4991,7 +5009,7 @@
         <v>1.8</v>
       </c>
       <c r="K50" s="6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="L50">
         <v>0</v>
@@ -5003,7 +5021,7 @@
         <v>1.5</v>
       </c>
       <c r="Q50" s="18" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="R50">
         <f t="shared" si="0"/>
@@ -5040,7 +5058,7 @@
         <v>1.8</v>
       </c>
       <c r="K51" s="6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="L51">
         <v>0</v>
@@ -5052,7 +5070,7 @@
         <v>1.5</v>
       </c>
       <c r="Q51" s="18" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="R51">
         <f t="shared" si="0"/>
@@ -5089,7 +5107,7 @@
         <v>1.1</v>
       </c>
       <c r="K52" s="6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="L52">
         <v>0</v>
@@ -5101,7 +5119,7 @@
         <v>0.9</v>
       </c>
       <c r="Q52" s="18" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="R52">
         <f t="shared" si="0"/>
@@ -5138,7 +5156,7 @@
         <v>1.1</v>
       </c>
       <c r="K53" s="6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="L53">
         <v>0</v>
@@ -5150,7 +5168,7 @@
         <v>0.9</v>
       </c>
       <c r="Q53" s="18" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="R53">
         <f t="shared" si="0"/>
@@ -5169,13 +5187,13 @@
         <v>1</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H54" s="5">
         <v>0</v>
@@ -5187,7 +5205,7 @@
         <v>1.1</v>
       </c>
       <c r="K54" s="6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="L54">
         <v>0</v>
@@ -5199,7 +5217,7 @@
         <v>0.9</v>
       </c>
       <c r="Q54" s="18" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="R54">
         <f t="shared" si="0"/>
@@ -5236,7 +5254,7 @@
         <v>0.7</v>
       </c>
       <c r="K55" s="6" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L55">
         <v>0</v>
@@ -5248,7 +5266,7 @@
         <v>0.6</v>
       </c>
       <c r="Q55" s="18" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="R55">
         <f t="shared" si="0"/>
@@ -5285,7 +5303,7 @@
         <v>1.1</v>
       </c>
       <c r="K56" s="6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="L56">
         <v>0</v>
@@ -5297,7 +5315,7 @@
         <v>0.9</v>
       </c>
       <c r="Q56" s="18" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="R56">
         <f t="shared" si="0"/>
@@ -5334,7 +5352,7 @@
         <v>1.1</v>
       </c>
       <c r="K57" s="6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="L57">
         <v>0</v>
@@ -5346,7 +5364,7 @@
         <v>0.9</v>
       </c>
       <c r="Q57" s="18" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="R57">
         <f t="shared" si="0"/>
@@ -5367,11 +5385,11 @@
       <c r="E58" s="4">
         <v>13</v>
       </c>
-      <c r="F58" s="4">
-        <v>13</v>
-      </c>
-      <c r="G58" s="4">
-        <v>56</v>
+      <c r="F58" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="G58" s="15" t="s">
+        <v>88</v>
       </c>
       <c r="H58" s="5">
         <v>0</v>
@@ -5383,7 +5401,7 @@
         <v>1.1</v>
       </c>
       <c r="K58" s="6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="L58">
         <v>0</v>
@@ -5395,7 +5413,7 @@
         <v>0.9</v>
       </c>
       <c r="Q58" s="18" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="R58">
         <f t="shared" si="0"/>
@@ -5432,7 +5450,7 @@
         <v>1.1</v>
       </c>
       <c r="K59" s="6" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L59">
         <v>0</v>
@@ -5444,7 +5462,7 @@
         <v>0.9</v>
       </c>
       <c r="Q59" s="18" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="R59">
         <f t="shared" si="0"/>
@@ -5481,7 +5499,7 @@
         <v>1.8</v>
       </c>
       <c r="K60" s="6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="L60">
         <v>0</v>
@@ -5493,7 +5511,7 @@
         <v>1.5</v>
       </c>
       <c r="Q60" s="18" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="R60">
         <f t="shared" si="0"/>
@@ -5542,7 +5560,7 @@
         <v>0.6</v>
       </c>
       <c r="Q61" s="18" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="R61">
         <f t="shared" si="0"/>
@@ -5579,7 +5597,7 @@
         <v>1.8</v>
       </c>
       <c r="K62" s="6" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L62">
         <v>0</v>
@@ -5591,7 +5609,7 @@
         <v>1.5</v>
       </c>
       <c r="Q62" s="18" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="R62">
         <f t="shared" si="0"/>
@@ -5611,13 +5629,13 @@
       </c>
       <c r="D63" s="15"/>
       <c r="E63" s="15" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="F63" s="15" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="H63" s="5">
         <v>0</v>
@@ -5636,14 +5654,14 @@
       </c>
       <c r="M63" s="17"/>
       <c r="N63" s="16" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="O63">
         <v>1.5</v>
       </c>
       <c r="P63" s="7"/>
       <c r="Q63" s="18" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="R63">
         <f t="shared" si="0"/>
@@ -5681,7 +5699,7 @@
         <v>1.8</v>
       </c>
       <c r="K64" s="6" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="L64">
         <v>0</v>
@@ -5693,7 +5711,7 @@
         <v>1.5</v>
       </c>
       <c r="Q64" s="18" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="R64">
         <f t="shared" si="0"/>
@@ -5712,13 +5730,13 @@
         <v>2</v>
       </c>
       <c r="E65" s="15" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="G65" s="4" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="H65" s="5">
         <v>0</v>
@@ -5730,7 +5748,7 @@
         <v>0.7</v>
       </c>
       <c r="K65" s="6" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="L65">
         <v>0</v>
@@ -5742,7 +5760,7 @@
         <v>0.6</v>
       </c>
       <c r="Q65" s="18" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="R65">
         <f t="shared" si="0"/>
@@ -5762,13 +5780,13 @@
       </c>
       <c r="D66" s="15"/>
       <c r="E66" s="15" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="F66" s="15" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="H66" s="5">
         <v>0</v>
@@ -5780,7 +5798,7 @@
         <v>1.8</v>
       </c>
       <c r="K66" s="16" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="L66">
         <v>0</v>
@@ -5794,7 +5812,7 @@
       </c>
       <c r="P66" s="7"/>
       <c r="Q66" s="18" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="R66">
         <f t="shared" si="0"/>
@@ -5832,7 +5850,7 @@
         <v>1.8</v>
       </c>
       <c r="K67" s="6" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="L67">
         <v>0</v>
@@ -5844,7 +5862,7 @@
         <v>1.5</v>
       </c>
       <c r="Q67" s="18" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="R67">
         <f t="shared" si="0"/>
@@ -5893,7 +5911,7 @@
         <v>0.9</v>
       </c>
       <c r="Q68" s="18" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="R68">
         <f t="shared" si="0"/>
@@ -5912,13 +5930,13 @@
         <v>2</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="G69" s="4" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="H69" s="5">
         <v>0</v>
@@ -5930,7 +5948,7 @@
         <v>1.4</v>
       </c>
       <c r="K69" s="6" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="L69">
         <v>0</v>
@@ -5942,7 +5960,7 @@
         <v>1.2</v>
       </c>
       <c r="Q69" s="18" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="R69">
         <f t="shared" si="0"/>
@@ -5979,7 +5997,7 @@
         <v>1.1</v>
       </c>
       <c r="K70" s="6" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="L70">
         <v>0</v>
@@ -5991,7 +6009,7 @@
         <v>0.9</v>
       </c>
       <c r="Q70" s="18" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="R70">
         <f t="shared" si="0"/>
@@ -6028,7 +6046,7 @@
         <v>1.1</v>
       </c>
       <c r="K71" s="6" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="L71">
         <v>0</v>
@@ -6040,7 +6058,7 @@
         <v>0.9</v>
       </c>
       <c r="Q71" s="18" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="R71">
         <f t="shared" si="0"/>
@@ -6089,7 +6107,7 @@
         <v>0.9</v>
       </c>
       <c r="Q72" s="18" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="R72">
         <f t="shared" si="0"/>
@@ -6135,7 +6153,7 @@
         <v>1.2</v>
       </c>
       <c r="Q73" s="18" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="R73">
         <f t="shared" si="0"/>
@@ -6184,7 +6202,7 @@
         <v>0.6</v>
       </c>
       <c r="Q74" s="18" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="R74">
         <f t="shared" si="0"/>
@@ -6233,7 +6251,7 @@
         <v>1.5</v>
       </c>
       <c r="Q75" s="18" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="R75">
         <f t="shared" si="0"/>
@@ -6273,7 +6291,7 @@
         <v>1.2</v>
       </c>
       <c r="Q76" s="18" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="R76">
         <f t="shared" si="0"/>
@@ -6310,14 +6328,14 @@
         <v>0.5</v>
       </c>
       <c r="Q77" s="18" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="R77">
         <f t="shared" si="0"/>
         <v>0.4</v>
       </c>
       <c r="S77" s="4" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="78" ht="54" spans="1:19">
@@ -6350,14 +6368,14 @@
         <v>0.9</v>
       </c>
       <c r="Q78" s="18" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="R78">
         <f t="shared" si="0"/>
         <v>0.6</v>
       </c>
       <c r="S78" s="4" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="79" ht="54" spans="1:18">
@@ -6399,7 +6417,7 @@
         <v>1.2</v>
       </c>
       <c r="Q79" s="18" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="R79">
         <f t="shared" si="0"/>
@@ -6448,7 +6466,7 @@
         <v>1.2</v>
       </c>
       <c r="Q80" s="18" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="R80">
         <f t="shared" si="0"/>
@@ -6531,7 +6549,7 @@
         <v>1.1</v>
       </c>
       <c r="K82" s="6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="L82">
         <v>0</v>
@@ -6543,7 +6561,7 @@
         <v>0.9</v>
       </c>
       <c r="Q82" s="18" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="R82">
         <f t="shared" si="0"/>
@@ -6580,7 +6598,7 @@
         <v>0.7</v>
       </c>
       <c r="K83" s="6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="L83">
         <v>0</v>
@@ -6592,7 +6610,7 @@
         <v>0.6</v>
       </c>
       <c r="Q83" s="18" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="R83">
         <f t="shared" si="0"/>
@@ -6620,7 +6638,7 @@
         <v>1.4</v>
       </c>
       <c r="K84" s="6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="L84">
         <v>0</v>
@@ -6632,7 +6650,7 @@
         <v>1.2</v>
       </c>
       <c r="Q84" s="18" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="R84">
         <f t="shared" si="0"/>
@@ -6666,7 +6684,7 @@
         <v>1.4</v>
       </c>
       <c r="K85" s="6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="L85">
         <v>0</v>
@@ -6678,7 +6696,7 @@
         <v>1.2</v>
       </c>
       <c r="Q85" s="18" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="R85">
         <f t="shared" si="0"/>
@@ -6715,14 +6733,14 @@
         <v>0.9</v>
       </c>
       <c r="Q86" s="18" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="R86">
         <f t="shared" si="0"/>
         <v>0.6</v>
       </c>
       <c r="S86" s="4" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
     </row>
     <row r="87" ht="54" spans="1:18">
@@ -6740,10 +6758,10 @@
         <v>1</v>
       </c>
       <c r="F87" s="4" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="G87" s="4" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="H87" s="5">
         <v>0</v>
@@ -6755,7 +6773,7 @@
         <v>1.1</v>
       </c>
       <c r="K87" s="6" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L87">
         <v>0</v>
@@ -6767,7 +6785,7 @@
         <v>0.9</v>
       </c>
       <c r="Q87" s="18" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="R87">
         <f t="shared" si="0"/>
@@ -6816,7 +6834,7 @@
         <v>1.2</v>
       </c>
       <c r="Q88" s="18" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="R88">
         <f t="shared" si="0"/>
@@ -6837,11 +6855,11 @@
       <c r="E89" s="4">
         <v>1</v>
       </c>
-      <c r="F89" s="4">
-        <v>1</v>
-      </c>
-      <c r="G89" s="4">
-        <v>87</v>
+      <c r="F89" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="G89" s="4" t="s">
+        <v>131</v>
       </c>
       <c r="H89" s="5">
         <v>0</v>
@@ -6853,7 +6871,7 @@
         <v>1.1</v>
       </c>
       <c r="K89" s="6" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L89">
         <v>0</v>
@@ -6865,7 +6883,7 @@
         <v>0.9</v>
       </c>
       <c r="Q89" s="18" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="R89">
         <f t="shared" si="0"/>
@@ -6902,7 +6920,7 @@
         <v>1.1</v>
       </c>
       <c r="K90" s="6" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L90">
         <v>0</v>
@@ -6914,7 +6932,7 @@
         <v>0.9</v>
       </c>
       <c r="Q90" s="18" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="R90">
         <f t="shared" si="0"/>
@@ -6933,13 +6951,13 @@
         <v>1</v>
       </c>
       <c r="E91" s="4" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="F91" s="4" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="G91" s="4" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="H91" s="5">
         <v>0</v>
@@ -6963,7 +6981,7 @@
         <v>0.6</v>
       </c>
       <c r="Q91" s="18" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="R91">
         <f t="shared" si="0"/>
@@ -7080,13 +7098,13 @@
         <v>0</v>
       </c>
       <c r="E94" s="4" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="F94" s="4" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="G94" s="4" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="H94" s="5">
         <v>0</v>
@@ -7122,7 +7140,7 @@
         <v>93</v>
       </c>
       <c r="B95" s="20" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="C95" s="3">
         <v>0</v>
@@ -7155,7 +7173,7 @@
         <v>0.25</v>
       </c>
       <c r="Q95" s="18" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="R95">
         <f t="shared" si="1"/>
@@ -7167,7 +7185,7 @@
         <v>94</v>
       </c>
       <c r="B96" s="20" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="C96" s="3">
         <v>0</v>
@@ -7200,7 +7218,7 @@
         <v>0.25</v>
       </c>
       <c r="Q96" s="18" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="R96">
         <f t="shared" si="1"/>
@@ -7212,7 +7230,7 @@
         <v>95</v>
       </c>
       <c r="B97" s="20" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="C97" s="3">
         <v>0</v>
@@ -7245,7 +7263,7 @@
         <v>0.25</v>
       </c>
       <c r="Q97" s="18" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="R97">
         <f t="shared" si="1"/>
@@ -7291,14 +7309,14 @@
         <v>0.9</v>
       </c>
       <c r="Q98" s="18" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="R98">
         <f t="shared" si="1"/>
         <v>0.6</v>
       </c>
       <c r="S98" s="22" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>

--- a/jyx2/excel/武功招式特效.xlsx
+++ b/jyx2/excel/武功招式特效.xlsx
@@ -166,7 +166,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="148">
   <si>
     <t>代号</t>
   </si>
@@ -316,6 +316,12 @@
   </si>
   <si>
     <t>Assets/BuildSource/sound/e40.wav</t>
+  </si>
+  <si>
+    <t>@Assets/BuildSource/Animations/蛤蟆功欧阳锋待机.anim</t>
+  </si>
+  <si>
+    <t>@Assets/BuildSource/Animations/蛤蟆功欧阳锋.anim</t>
   </si>
   <si>
     <t>Assets/BuildSource/sound/atk16.wav</t>
@@ -611,10 +617,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -643,13 +649,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -664,7 +663,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -677,8 +684,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -689,6 +704,21 @@
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -708,13 +738,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -723,34 +746,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -785,20 +785,26 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -819,13 +825,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -837,13 +843,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -855,7 +879,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -867,31 +891,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -903,7 +915,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -915,7 +927,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -927,7 +945,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -945,31 +969,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -981,13 +981,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -999,7 +1005,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1041,6 +1047,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1056,6 +1073,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1067,15 +1093,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1127,173 +1144,162 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2565,11 +2571,11 @@
   <dimension ref="A1:S98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C58" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C24" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G59" sqref="G59"/>
+      <selection pane="bottomRight" activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3723,11 +3729,11 @@
       <c r="E24" s="4">
         <v>13</v>
       </c>
-      <c r="F24" s="4">
-        <v>13</v>
-      </c>
-      <c r="G24" s="4">
-        <v>22</v>
+      <c r="F24" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>51</v>
       </c>
       <c r="H24" s="5">
         <v>0</v>
@@ -3751,7 +3757,7 @@
         <v>0.9</v>
       </c>
       <c r="Q24" s="18" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="R24">
         <v>0.6</v>
@@ -3772,10 +3778,10 @@
         <v>3</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H25" s="5">
         <v>0</v>
@@ -3787,7 +3793,7 @@
         <v>1.1</v>
       </c>
       <c r="K25" s="6" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -3847,7 +3853,7 @@
         <v>0.6</v>
       </c>
       <c r="Q26" s="18" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="R26">
         <v>0.4</v>
@@ -3868,10 +3874,10 @@
         <v>25</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H27" s="5">
         <v>0</v>
@@ -3883,19 +3889,19 @@
         <v>1.5</v>
       </c>
       <c r="K27" s="6" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="L27">
         <v>0</v>
       </c>
       <c r="N27" s="6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="O27">
         <v>0.23</v>
       </c>
       <c r="Q27" s="18" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="R27">
         <v>0.8</v>
@@ -3931,7 +3937,7 @@
         <v>1.4</v>
       </c>
       <c r="K28" s="6" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="L28">
         <v>0</v>
@@ -3943,7 +3949,7 @@
         <v>1.2</v>
       </c>
       <c r="Q28" s="18" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="R28">
         <f>ROUNDUP(I28*0.4,1)</f>
@@ -3992,7 +3998,7 @@
         <v>0.9</v>
       </c>
       <c r="Q29" s="18" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="R29">
         <f t="shared" ref="R29:R92" si="0">ROUNDUP(I29*0.4,1)</f>
@@ -4041,7 +4047,7 @@
         <v>0.6</v>
       </c>
       <c r="Q30" s="18" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="R30">
         <f t="shared" si="0"/>
@@ -4090,7 +4096,7 @@
         <v>0.6</v>
       </c>
       <c r="Q31" s="18" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="R31">
         <f t="shared" si="0"/>
@@ -4139,7 +4145,7 @@
         <v>0.9</v>
       </c>
       <c r="Q32" s="18" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="R32">
         <f t="shared" si="0"/>
@@ -4176,7 +4182,7 @@
         <v>0.7</v>
       </c>
       <c r="K33" s="6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="L33">
         <v>0</v>
@@ -4188,7 +4194,7 @@
         <v>0.6</v>
       </c>
       <c r="Q33" s="18" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="R33">
         <f t="shared" si="0"/>
@@ -4225,7 +4231,7 @@
         <v>0.7</v>
       </c>
       <c r="K34" s="6" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="L34">
         <v>0</v>
@@ -4237,7 +4243,7 @@
         <v>0.6</v>
       </c>
       <c r="Q34" s="18" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="R34">
         <f t="shared" si="0"/>
@@ -4274,7 +4280,7 @@
         <v>0.7</v>
       </c>
       <c r="K35" s="6" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="L35">
         <v>0</v>
@@ -4286,7 +4292,7 @@
         <v>0.6</v>
       </c>
       <c r="Q35" s="18" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="R35">
         <f t="shared" si="0"/>
@@ -4323,7 +4329,7 @@
         <v>0.7</v>
       </c>
       <c r="K36" s="6" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="L36">
         <v>0</v>
@@ -4335,7 +4341,7 @@
         <v>0.6</v>
       </c>
       <c r="Q36" s="18" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="R36">
         <f t="shared" si="0"/>
@@ -4372,7 +4378,7 @@
         <v>1.1</v>
       </c>
       <c r="K37" s="6" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="L37">
         <v>0</v>
@@ -4384,7 +4390,7 @@
         <v>0.9</v>
       </c>
       <c r="Q37" s="18" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="R37">
         <f t="shared" si="0"/>
@@ -4421,7 +4427,7 @@
         <v>1.4</v>
       </c>
       <c r="K38" s="6" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="L38">
         <v>0</v>
@@ -4433,7 +4439,7 @@
         <v>1.2</v>
       </c>
       <c r="Q38" s="18" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="R38">
         <f t="shared" si="0"/>
@@ -4470,7 +4476,7 @@
         <v>1.1</v>
       </c>
       <c r="K39" s="6" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="L39">
         <v>0</v>
@@ -4482,7 +4488,7 @@
         <v>0.9</v>
       </c>
       <c r="Q39" s="18" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="R39">
         <f t="shared" si="0"/>
@@ -4519,7 +4525,7 @@
         <v>0.7</v>
       </c>
       <c r="K40" s="6" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="L40">
         <v>0</v>
@@ -4531,7 +4537,7 @@
         <v>0.6</v>
       </c>
       <c r="Q40" s="18" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="R40">
         <f t="shared" si="0"/>
@@ -4568,7 +4574,7 @@
         <v>1.1</v>
       </c>
       <c r="K41" s="6" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="L41">
         <v>0</v>
@@ -4580,7 +4586,7 @@
         <v>0.9</v>
       </c>
       <c r="Q41" s="18" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="R41">
         <f t="shared" si="0"/>
@@ -4617,7 +4623,7 @@
         <v>1.8</v>
       </c>
       <c r="K42" s="6" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="L42">
         <v>0</v>
@@ -4629,7 +4635,7 @@
         <v>1.5</v>
       </c>
       <c r="Q42" s="18" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="R42">
         <f t="shared" si="0"/>
@@ -4666,7 +4672,7 @@
         <v>1.1</v>
       </c>
       <c r="K43" s="6" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="L43">
         <v>0</v>
@@ -4678,7 +4684,7 @@
         <v>0.9</v>
       </c>
       <c r="Q43" s="18" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="R43">
         <f t="shared" si="0"/>
@@ -4715,7 +4721,7 @@
         <v>1.1</v>
       </c>
       <c r="K44" s="6" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="L44">
         <v>0</v>
@@ -4727,7 +4733,7 @@
         <v>0.9</v>
       </c>
       <c r="Q44" s="18" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="R44">
         <f t="shared" si="0"/>
@@ -4764,7 +4770,7 @@
         <v>1.4</v>
       </c>
       <c r="K45" s="6" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="L45">
         <v>0</v>
@@ -4776,7 +4782,7 @@
         <v>1.2</v>
       </c>
       <c r="Q45" s="18" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="R45">
         <f t="shared" si="0"/>
@@ -4813,7 +4819,7 @@
         <v>0.7</v>
       </c>
       <c r="K46" s="6" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="L46">
         <v>0</v>
@@ -4847,10 +4853,10 @@
         <v>1</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H47" s="5">
         <v>0</v>
@@ -4862,7 +4868,7 @@
         <v>0.7</v>
       </c>
       <c r="K47" s="6" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="L47">
         <v>0</v>
@@ -4874,7 +4880,7 @@
         <v>0.6</v>
       </c>
       <c r="Q47" s="18" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="R47">
         <f t="shared" si="0"/>
@@ -4911,7 +4917,7 @@
         <v>1.8</v>
       </c>
       <c r="K48" s="6" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="L48">
         <v>0</v>
@@ -4923,7 +4929,7 @@
         <v>1.5</v>
       </c>
       <c r="Q48" s="18" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="R48">
         <f t="shared" si="0"/>
@@ -4960,7 +4966,7 @@
         <v>0.7</v>
       </c>
       <c r="K49" s="6" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="L49">
         <v>0</v>
@@ -4972,7 +4978,7 @@
         <v>0.6</v>
       </c>
       <c r="Q49" s="18" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="R49">
         <f t="shared" si="0"/>
@@ -5009,7 +5015,7 @@
         <v>1.8</v>
       </c>
       <c r="K50" s="6" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="L50">
         <v>0</v>
@@ -5021,7 +5027,7 @@
         <v>1.5</v>
       </c>
       <c r="Q50" s="18" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="R50">
         <f t="shared" si="0"/>
@@ -5058,7 +5064,7 @@
         <v>1.8</v>
       </c>
       <c r="K51" s="6" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="L51">
         <v>0</v>
@@ -5070,7 +5076,7 @@
         <v>1.5</v>
       </c>
       <c r="Q51" s="18" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="R51">
         <f t="shared" si="0"/>
@@ -5107,7 +5113,7 @@
         <v>1.1</v>
       </c>
       <c r="K52" s="6" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="L52">
         <v>0</v>
@@ -5119,7 +5125,7 @@
         <v>0.9</v>
       </c>
       <c r="Q52" s="18" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="R52">
         <f t="shared" si="0"/>
@@ -5156,7 +5162,7 @@
         <v>1.1</v>
       </c>
       <c r="K53" s="6" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="L53">
         <v>0</v>
@@ -5168,7 +5174,7 @@
         <v>0.9</v>
       </c>
       <c r="Q53" s="18" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="R53">
         <f t="shared" si="0"/>
@@ -5187,13 +5193,13 @@
         <v>1</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="H54" s="5">
         <v>0</v>
@@ -5205,7 +5211,7 @@
         <v>1.1</v>
       </c>
       <c r="K54" s="6" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="L54">
         <v>0</v>
@@ -5217,7 +5223,7 @@
         <v>0.9</v>
       </c>
       <c r="Q54" s="18" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="R54">
         <f t="shared" si="0"/>
@@ -5254,7 +5260,7 @@
         <v>0.7</v>
       </c>
       <c r="K55" s="6" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="L55">
         <v>0</v>
@@ -5266,7 +5272,7 @@
         <v>0.6</v>
       </c>
       <c r="Q55" s="18" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="R55">
         <f t="shared" si="0"/>
@@ -5303,7 +5309,7 @@
         <v>1.1</v>
       </c>
       <c r="K56" s="6" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="L56">
         <v>0</v>
@@ -5315,7 +5321,7 @@
         <v>0.9</v>
       </c>
       <c r="Q56" s="18" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="R56">
         <f t="shared" si="0"/>
@@ -5352,7 +5358,7 @@
         <v>1.1</v>
       </c>
       <c r="K57" s="6" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="L57">
         <v>0</v>
@@ -5364,7 +5370,7 @@
         <v>0.9</v>
       </c>
       <c r="Q57" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="R57">
         <f t="shared" si="0"/>
@@ -5386,10 +5392,10 @@
         <v>13</v>
       </c>
       <c r="F58" s="15" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G58" s="15" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="H58" s="5">
         <v>0</v>
@@ -5401,7 +5407,7 @@
         <v>1.1</v>
       </c>
       <c r="K58" s="6" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="L58">
         <v>0</v>
@@ -5413,7 +5419,7 @@
         <v>0.9</v>
       </c>
       <c r="Q58" s="18" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="R58">
         <f t="shared" si="0"/>
@@ -5450,7 +5456,7 @@
         <v>1.1</v>
       </c>
       <c r="K59" s="6" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="L59">
         <v>0</v>
@@ -5462,7 +5468,7 @@
         <v>0.9</v>
       </c>
       <c r="Q59" s="18" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="R59">
         <f t="shared" si="0"/>
@@ -5499,7 +5505,7 @@
         <v>1.8</v>
       </c>
       <c r="K60" s="6" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="L60">
         <v>0</v>
@@ -5511,7 +5517,7 @@
         <v>1.5</v>
       </c>
       <c r="Q60" s="18" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="R60">
         <f t="shared" si="0"/>
@@ -5560,7 +5566,7 @@
         <v>0.6</v>
       </c>
       <c r="Q61" s="18" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="R61">
         <f t="shared" si="0"/>
@@ -5597,7 +5603,7 @@
         <v>1.8</v>
       </c>
       <c r="K62" s="6" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="L62">
         <v>0</v>
@@ -5609,7 +5615,7 @@
         <v>1.5</v>
       </c>
       <c r="Q62" s="18" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="R62">
         <f t="shared" si="0"/>
@@ -5629,13 +5635,13 @@
       </c>
       <c r="D63" s="15"/>
       <c r="E63" s="15" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F63" s="15" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H63" s="5">
         <v>0</v>
@@ -5654,14 +5660,14 @@
       </c>
       <c r="M63" s="17"/>
       <c r="N63" s="16" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="O63">
         <v>1.5</v>
       </c>
       <c r="P63" s="7"/>
       <c r="Q63" s="18" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="R63">
         <f t="shared" si="0"/>
@@ -5699,7 +5705,7 @@
         <v>1.8</v>
       </c>
       <c r="K64" s="6" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="L64">
         <v>0</v>
@@ -5711,7 +5717,7 @@
         <v>1.5</v>
       </c>
       <c r="Q64" s="18" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="R64">
         <f t="shared" si="0"/>
@@ -5730,13 +5736,13 @@
         <v>2</v>
       </c>
       <c r="E65" s="15" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G65" s="4" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="H65" s="5">
         <v>0</v>
@@ -5748,7 +5754,7 @@
         <v>0.7</v>
       </c>
       <c r="K65" s="6" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="L65">
         <v>0</v>
@@ -5760,7 +5766,7 @@
         <v>0.6</v>
       </c>
       <c r="Q65" s="18" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="R65">
         <f t="shared" si="0"/>
@@ -5780,13 +5786,13 @@
       </c>
       <c r="D66" s="15"/>
       <c r="E66" s="15" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F66" s="15" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="H66" s="5">
         <v>0</v>
@@ -5798,7 +5804,7 @@
         <v>1.8</v>
       </c>
       <c r="K66" s="16" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="L66">
         <v>0</v>
@@ -5812,7 +5818,7 @@
       </c>
       <c r="P66" s="7"/>
       <c r="Q66" s="18" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="R66">
         <f t="shared" si="0"/>
@@ -5850,7 +5856,7 @@
         <v>1.8</v>
       </c>
       <c r="K67" s="6" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="L67">
         <v>0</v>
@@ -5862,7 +5868,7 @@
         <v>1.5</v>
       </c>
       <c r="Q67" s="18" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="R67">
         <f t="shared" si="0"/>
@@ -5911,7 +5917,7 @@
         <v>0.9</v>
       </c>
       <c r="Q68" s="18" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="R68">
         <f t="shared" si="0"/>
@@ -5930,13 +5936,13 @@
         <v>2</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="G69" s="4" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="H69" s="5">
         <v>0</v>
@@ -5948,7 +5954,7 @@
         <v>1.4</v>
       </c>
       <c r="K69" s="6" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="L69">
         <v>0</v>
@@ -5960,7 +5966,7 @@
         <v>1.2</v>
       </c>
       <c r="Q69" s="18" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="R69">
         <f t="shared" si="0"/>
@@ -5997,7 +6003,7 @@
         <v>1.1</v>
       </c>
       <c r="K70" s="6" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="L70">
         <v>0</v>
@@ -6009,7 +6015,7 @@
         <v>0.9</v>
       </c>
       <c r="Q70" s="18" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="R70">
         <f t="shared" si="0"/>
@@ -6046,7 +6052,7 @@
         <v>1.1</v>
       </c>
       <c r="K71" s="6" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="L71">
         <v>0</v>
@@ -6058,7 +6064,7 @@
         <v>0.9</v>
       </c>
       <c r="Q71" s="18" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="R71">
         <f t="shared" si="0"/>
@@ -6107,7 +6113,7 @@
         <v>0.9</v>
       </c>
       <c r="Q72" s="18" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="R72">
         <f t="shared" si="0"/>
@@ -6153,7 +6159,7 @@
         <v>1.2</v>
       </c>
       <c r="Q73" s="18" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="R73">
         <f t="shared" si="0"/>
@@ -6202,7 +6208,7 @@
         <v>0.6</v>
       </c>
       <c r="Q74" s="18" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="R74">
         <f t="shared" si="0"/>
@@ -6251,7 +6257,7 @@
         <v>1.5</v>
       </c>
       <c r="Q75" s="18" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="R75">
         <f t="shared" si="0"/>
@@ -6291,7 +6297,7 @@
         <v>1.2</v>
       </c>
       <c r="Q76" s="18" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="R76">
         <f t="shared" si="0"/>
@@ -6328,14 +6334,14 @@
         <v>0.5</v>
       </c>
       <c r="Q77" s="18" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="R77">
         <f t="shared" si="0"/>
         <v>0.4</v>
       </c>
       <c r="S77" s="4" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="78" ht="54" spans="1:19">
@@ -6368,14 +6374,14 @@
         <v>0.9</v>
       </c>
       <c r="Q78" s="18" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="R78">
         <f t="shared" si="0"/>
         <v>0.6</v>
       </c>
       <c r="S78" s="4" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="79" ht="54" spans="1:18">
@@ -6417,7 +6423,7 @@
         <v>1.2</v>
       </c>
       <c r="Q79" s="18" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="R79">
         <f t="shared" si="0"/>
@@ -6466,7 +6472,7 @@
         <v>1.2</v>
       </c>
       <c r="Q80" s="18" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="R80">
         <f t="shared" si="0"/>
@@ -6549,7 +6555,7 @@
         <v>1.1</v>
       </c>
       <c r="K82" s="6" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="L82">
         <v>0</v>
@@ -6561,7 +6567,7 @@
         <v>0.9</v>
       </c>
       <c r="Q82" s="18" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="R82">
         <f t="shared" si="0"/>
@@ -6598,7 +6604,7 @@
         <v>0.7</v>
       </c>
       <c r="K83" s="6" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="L83">
         <v>0</v>
@@ -6610,7 +6616,7 @@
         <v>0.6</v>
       </c>
       <c r="Q83" s="18" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="R83">
         <f t="shared" si="0"/>
@@ -6638,7 +6644,7 @@
         <v>1.4</v>
       </c>
       <c r="K84" s="6" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="L84">
         <v>0</v>
@@ -6650,7 +6656,7 @@
         <v>1.2</v>
       </c>
       <c r="Q84" s="18" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="R84">
         <f t="shared" si="0"/>
@@ -6684,7 +6690,7 @@
         <v>1.4</v>
       </c>
       <c r="K85" s="6" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="L85">
         <v>0</v>
@@ -6696,7 +6702,7 @@
         <v>1.2</v>
       </c>
       <c r="Q85" s="18" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="R85">
         <f t="shared" si="0"/>
@@ -6733,14 +6739,14 @@
         <v>0.9</v>
       </c>
       <c r="Q86" s="18" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="R86">
         <f t="shared" si="0"/>
         <v>0.6</v>
       </c>
       <c r="S86" s="4" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="87" ht="54" spans="1:18">
@@ -6758,10 +6764,10 @@
         <v>1</v>
       </c>
       <c r="F87" s="4" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="G87" s="4" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="H87" s="5">
         <v>0</v>
@@ -6773,7 +6779,7 @@
         <v>1.1</v>
       </c>
       <c r="K87" s="6" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="L87">
         <v>0</v>
@@ -6785,7 +6791,7 @@
         <v>0.9</v>
       </c>
       <c r="Q87" s="18" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="R87">
         <f t="shared" si="0"/>
@@ -6834,7 +6840,7 @@
         <v>1.2</v>
       </c>
       <c r="Q88" s="18" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="R88">
         <f t="shared" si="0"/>
@@ -6856,10 +6862,10 @@
         <v>1</v>
       </c>
       <c r="F89" s="4" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="G89" s="4" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="H89" s="5">
         <v>0</v>
@@ -6871,7 +6877,7 @@
         <v>1.1</v>
       </c>
       <c r="K89" s="6" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="L89">
         <v>0</v>
@@ -6883,7 +6889,7 @@
         <v>0.9</v>
       </c>
       <c r="Q89" s="18" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="R89">
         <f t="shared" si="0"/>
@@ -6920,7 +6926,7 @@
         <v>1.1</v>
       </c>
       <c r="K90" s="6" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="L90">
         <v>0</v>
@@ -6932,7 +6938,7 @@
         <v>0.9</v>
       </c>
       <c r="Q90" s="18" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="R90">
         <f t="shared" si="0"/>
@@ -6951,13 +6957,13 @@
         <v>1</v>
       </c>
       <c r="E91" s="4" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F91" s="4" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="G91" s="4" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="H91" s="5">
         <v>0</v>
@@ -6981,7 +6987,7 @@
         <v>0.6</v>
       </c>
       <c r="Q91" s="18" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="R91">
         <f t="shared" si="0"/>
@@ -7079,7 +7085,7 @@
         <v>1.5</v>
       </c>
       <c r="Q93" s="18" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="R93">
         <f t="shared" ref="R93:R98" si="1">ROUNDUP(I93*0.4,1)</f>
@@ -7098,13 +7104,13 @@
         <v>0</v>
       </c>
       <c r="E94" s="4" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="F94" s="4" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G94" s="4" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="H94" s="5">
         <v>0</v>
@@ -7140,7 +7146,7 @@
         <v>93</v>
       </c>
       <c r="B95" s="20" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C95" s="3">
         <v>0</v>
@@ -7173,7 +7179,7 @@
         <v>0.25</v>
       </c>
       <c r="Q95" s="18" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="R95">
         <f t="shared" si="1"/>
@@ -7185,7 +7191,7 @@
         <v>94</v>
       </c>
       <c r="B96" s="20" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C96" s="3">
         <v>0</v>
@@ -7218,7 +7224,7 @@
         <v>0.25</v>
       </c>
       <c r="Q96" s="18" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="R96">
         <f t="shared" si="1"/>
@@ -7230,7 +7236,7 @@
         <v>95</v>
       </c>
       <c r="B97" s="20" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C97" s="3">
         <v>0</v>
@@ -7263,7 +7269,7 @@
         <v>0.25</v>
       </c>
       <c r="Q97" s="18" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="R97">
         <f t="shared" si="1"/>
@@ -7309,14 +7315,14 @@
         <v>0.9</v>
       </c>
       <c r="Q98" s="18" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="R98">
         <f t="shared" si="1"/>
         <v>0.6</v>
       </c>
       <c r="S98" s="22" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>

--- a/jyx2/excel/武功招式特效.xlsx
+++ b/jyx2/excel/武功招式特效.xlsx
@@ -166,7 +166,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="151">
   <si>
     <t>代号</t>
   </si>
@@ -582,6 +582,12 @@
     <t>@Assets/BuildSource/Animations/松风剑法.anim</t>
   </si>
   <si>
+    <t>@Assets/BuildSource/Animations/平一指待机.anim</t>
+  </si>
+  <si>
+    <t>@Assets/BuildSource/Animations/平一指普通攻击.anim</t>
+  </si>
+  <si>
     <t>@Assets/BuildSource/Animations/九阳神功移动.anim</t>
   </si>
   <si>
@@ -604,6 +610,9 @@
   </si>
   <si>
     <t>医疗</t>
+  </si>
+  <si>
+    <t>@Assets/BuildSource/Animations/平一指治疗.anim</t>
   </si>
   <si>
     <t>Assets/BuildSource/sound/atk24.wav</t>
@@ -2571,11 +2580,11 @@
   <dimension ref="A1:S98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C24" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C90" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G26" sqref="G26"/>
+      <selection pane="bottomRight" activeCell="G96" sqref="G96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -7008,11 +7017,11 @@
       <c r="E92" s="4">
         <v>1</v>
       </c>
-      <c r="F92" s="4">
-        <v>1</v>
-      </c>
-      <c r="G92" s="4">
-        <v>0</v>
+      <c r="F92" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="G92" s="4" t="s">
+        <v>139</v>
       </c>
       <c r="H92" s="5">
         <v>0</v>
@@ -7104,13 +7113,13 @@
         <v>0</v>
       </c>
       <c r="E94" s="4" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F94" s="4" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="G94" s="4" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="H94" s="5">
         <v>0</v>
@@ -7146,7 +7155,7 @@
         <v>93</v>
       </c>
       <c r="B95" s="20" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C95" s="3">
         <v>0</v>
@@ -7179,7 +7188,7 @@
         <v>0.25</v>
       </c>
       <c r="Q95" s="18" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="R95">
         <f t="shared" si="1"/>
@@ -7191,7 +7200,7 @@
         <v>94</v>
       </c>
       <c r="B96" s="20" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C96" s="3">
         <v>0</v>
@@ -7224,7 +7233,7 @@
         <v>0.25</v>
       </c>
       <c r="Q96" s="18" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="R96">
         <f t="shared" si="1"/>
@@ -7236,7 +7245,7 @@
         <v>95</v>
       </c>
       <c r="B97" s="20" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C97" s="3">
         <v>0</v>
@@ -7247,8 +7256,8 @@
       <c r="F97" s="4">
         <v>13</v>
       </c>
-      <c r="G97" s="4">
-        <v>95</v>
+      <c r="G97" s="4" t="s">
+        <v>148</v>
       </c>
       <c r="H97" s="5">
         <v>0</v>
@@ -7269,7 +7278,7 @@
         <v>0.25</v>
       </c>
       <c r="Q97" s="18" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="R97">
         <f t="shared" si="1"/>
@@ -7322,7 +7331,7 @@
         <v>0.6</v>
       </c>
       <c r="S98" s="22" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>

--- a/jyx2/excel/武功招式特效.xlsx
+++ b/jyx2/excel/武功招式特效.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12090"/>
+    <workbookView windowWidth="17235" windowHeight="11745"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -166,7 +166,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="154">
   <si>
     <t>代号</t>
   </si>
@@ -288,6 +288,12 @@
     <t>@Assets/BuildSource/Animations/寒冰神掌.anim</t>
   </si>
   <si>
+    <t>@Assets/BuildSource/Animations/化功大法丁春秋待机.anim</t>
+  </si>
+  <si>
+    <t>@Assets/BuildSource/Animations/天山六阳掌丁春秋.anim</t>
+  </si>
+  <si>
     <t>Assets/Effects/Prefabs/SinKnif/Fx_Nan_SinKnif_Hit.prefab</t>
   </si>
   <si>
@@ -355,6 +361,9 @@
   </si>
   <si>
     <t>Assets/BuildSource/sound/e41.wav</t>
+  </si>
+  <si>
+    <t>@Assets/BuildSource/Animations/化功大法丁春秋.anim</t>
   </si>
   <si>
     <t>Assets/BuildSource/sound/e19.wav</t>
@@ -626,10 +635,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -658,9 +667,33 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -672,15 +705,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -693,16 +718,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -717,14 +750,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -741,61 +782,29 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -808,12 +817,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -829,6 +838,36 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -852,13 +891,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -870,43 +915,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -918,19 +945,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -948,37 +969,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -996,7 +987,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1008,13 +1011,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1056,17 +1065,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1086,22 +1084,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1110,7 +1093,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1139,17 +1137,28 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1158,157 +1167,157 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2580,11 +2589,11 @@
   <dimension ref="A1:S98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C90" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C26" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G96" sqref="G96"/>
+      <selection pane="bottomRight" activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3402,11 +3411,11 @@
       <c r="E17" s="4">
         <v>19</v>
       </c>
-      <c r="F17" s="4">
-        <v>19</v>
-      </c>
-      <c r="G17" s="4">
-        <v>15</v>
+      <c r="F17" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>41</v>
       </c>
       <c r="H17" s="5">
         <v>0</v>
@@ -3424,13 +3433,13 @@
         <v>0</v>
       </c>
       <c r="N17" s="6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="O17">
         <v>0.9</v>
       </c>
       <c r="Q17" s="18" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="R17">
         <v>0.6</v>
@@ -3478,7 +3487,7 @@
         <v>0.6</v>
       </c>
       <c r="Q18" s="18" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="R18">
         <v>0.4</v>
@@ -3526,7 +3535,7 @@
         <v>0.6</v>
       </c>
       <c r="Q19" s="18" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="R19">
         <v>0.4</v>
@@ -3562,7 +3571,7 @@
         <v>1.1</v>
       </c>
       <c r="K20" s="6" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -3574,7 +3583,7 @@
         <v>0.9</v>
       </c>
       <c r="Q20" s="18" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="R20">
         <v>0.6</v>
@@ -3610,19 +3619,19 @@
         <v>0.7</v>
       </c>
       <c r="K21" s="6" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="N21" s="6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="O21">
         <v>0.6</v>
       </c>
       <c r="Q21" s="18" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="R21">
         <v>0.4</v>
@@ -3670,7 +3679,7 @@
         <v>0.9</v>
       </c>
       <c r="Q22" s="18" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="R22">
         <v>0.6</v>
@@ -3718,7 +3727,7 @@
         <v>0.9</v>
       </c>
       <c r="Q23" s="18" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="R23">
         <v>0.6</v>
@@ -3739,10 +3748,10 @@
         <v>13</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H24" s="5">
         <v>0</v>
@@ -3766,7 +3775,7 @@
         <v>0.9</v>
       </c>
       <c r="Q24" s="18" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="R24">
         <v>0.6</v>
@@ -3787,10 +3796,10 @@
         <v>3</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H25" s="5">
         <v>0</v>
@@ -3802,7 +3811,7 @@
         <v>1.1</v>
       </c>
       <c r="K25" s="6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -3850,19 +3859,19 @@
         <v>0.7</v>
       </c>
       <c r="K26" s="6" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="L26">
         <v>0</v>
       </c>
       <c r="N26" s="6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="O26">
         <v>0.6</v>
       </c>
       <c r="Q26" s="18" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="R26">
         <v>0.4</v>
@@ -3883,10 +3892,10 @@
         <v>25</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H27" s="5">
         <v>0</v>
@@ -3898,19 +3907,19 @@
         <v>1.5</v>
       </c>
       <c r="K27" s="6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L27">
         <v>0</v>
       </c>
       <c r="N27" s="6" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="O27">
         <v>0.23</v>
       </c>
       <c r="Q27" s="18" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="R27">
         <v>0.8</v>
@@ -3946,7 +3955,7 @@
         <v>1.4</v>
       </c>
       <c r="K28" s="6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="L28">
         <v>0</v>
@@ -3958,7 +3967,7 @@
         <v>1.2</v>
       </c>
       <c r="Q28" s="18" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="R28">
         <f>ROUNDUP(I28*0.4,1)</f>
@@ -3979,11 +3988,11 @@
       <c r="E29" s="4">
         <v>19</v>
       </c>
-      <c r="F29" s="4">
-        <v>19</v>
-      </c>
-      <c r="G29" s="4">
-        <v>27</v>
+      <c r="F29" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>65</v>
       </c>
       <c r="H29" s="5">
         <v>0</v>
@@ -4007,7 +4016,7 @@
         <v>0.9</v>
       </c>
       <c r="Q29" s="18" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="R29">
         <f t="shared" ref="R29:R92" si="0">ROUNDUP(I29*0.4,1)</f>
@@ -4056,7 +4065,7 @@
         <v>0.6</v>
       </c>
       <c r="Q30" s="18" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="R30">
         <f t="shared" si="0"/>
@@ -4105,7 +4114,7 @@
         <v>0.6</v>
       </c>
       <c r="Q31" s="18" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="R31">
         <f t="shared" si="0"/>
@@ -4154,7 +4163,7 @@
         <v>0.9</v>
       </c>
       <c r="Q32" s="18" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="R32">
         <f t="shared" si="0"/>
@@ -4191,7 +4200,7 @@
         <v>0.7</v>
       </c>
       <c r="K33" s="6" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="L33">
         <v>0</v>
@@ -4203,7 +4212,7 @@
         <v>0.6</v>
       </c>
       <c r="Q33" s="18" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="R33">
         <f t="shared" si="0"/>
@@ -4240,7 +4249,7 @@
         <v>0.7</v>
       </c>
       <c r="K34" s="6" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="L34">
         <v>0</v>
@@ -4252,7 +4261,7 @@
         <v>0.6</v>
       </c>
       <c r="Q34" s="18" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="R34">
         <f t="shared" si="0"/>
@@ -4289,7 +4298,7 @@
         <v>0.7</v>
       </c>
       <c r="K35" s="6" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="L35">
         <v>0</v>
@@ -4301,7 +4310,7 @@
         <v>0.6</v>
       </c>
       <c r="Q35" s="18" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="R35">
         <f t="shared" si="0"/>
@@ -4338,7 +4347,7 @@
         <v>0.7</v>
       </c>
       <c r="K36" s="6" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="L36">
         <v>0</v>
@@ -4350,7 +4359,7 @@
         <v>0.6</v>
       </c>
       <c r="Q36" s="18" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="R36">
         <f t="shared" si="0"/>
@@ -4387,7 +4396,7 @@
         <v>1.1</v>
       </c>
       <c r="K37" s="6" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="L37">
         <v>0</v>
@@ -4399,7 +4408,7 @@
         <v>0.9</v>
       </c>
       <c r="Q37" s="18" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="R37">
         <f t="shared" si="0"/>
@@ -4436,7 +4445,7 @@
         <v>1.4</v>
       </c>
       <c r="K38" s="6" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="L38">
         <v>0</v>
@@ -4448,7 +4457,7 @@
         <v>1.2</v>
       </c>
       <c r="Q38" s="18" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="R38">
         <f t="shared" si="0"/>
@@ -4485,7 +4494,7 @@
         <v>1.1</v>
       </c>
       <c r="K39" s="6" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="L39">
         <v>0</v>
@@ -4497,7 +4506,7 @@
         <v>0.9</v>
       </c>
       <c r="Q39" s="18" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="R39">
         <f t="shared" si="0"/>
@@ -4534,7 +4543,7 @@
         <v>0.7</v>
       </c>
       <c r="K40" s="6" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="L40">
         <v>0</v>
@@ -4546,7 +4555,7 @@
         <v>0.6</v>
       </c>
       <c r="Q40" s="18" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="R40">
         <f t="shared" si="0"/>
@@ -4583,7 +4592,7 @@
         <v>1.1</v>
       </c>
       <c r="K41" s="6" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="L41">
         <v>0</v>
@@ -4595,7 +4604,7 @@
         <v>0.9</v>
       </c>
       <c r="Q41" s="18" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="R41">
         <f t="shared" si="0"/>
@@ -4632,7 +4641,7 @@
         <v>1.8</v>
       </c>
       <c r="K42" s="6" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="L42">
         <v>0</v>
@@ -4644,7 +4653,7 @@
         <v>1.5</v>
       </c>
       <c r="Q42" s="18" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="R42">
         <f t="shared" si="0"/>
@@ -4681,7 +4690,7 @@
         <v>1.1</v>
       </c>
       <c r="K43" s="6" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="L43">
         <v>0</v>
@@ -4693,7 +4702,7 @@
         <v>0.9</v>
       </c>
       <c r="Q43" s="18" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="R43">
         <f t="shared" si="0"/>
@@ -4730,7 +4739,7 @@
         <v>1.1</v>
       </c>
       <c r="K44" s="6" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="L44">
         <v>0</v>
@@ -4742,7 +4751,7 @@
         <v>0.9</v>
       </c>
       <c r="Q44" s="18" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="R44">
         <f t="shared" si="0"/>
@@ -4779,7 +4788,7 @@
         <v>1.4</v>
       </c>
       <c r="K45" s="6" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="L45">
         <v>0</v>
@@ -4791,7 +4800,7 @@
         <v>1.2</v>
       </c>
       <c r="Q45" s="18" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="R45">
         <f t="shared" si="0"/>
@@ -4828,7 +4837,7 @@
         <v>0.7</v>
       </c>
       <c r="K46" s="6" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="L46">
         <v>0</v>
@@ -4840,7 +4849,7 @@
         <v>0.6</v>
       </c>
       <c r="Q46" s="18" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="R46">
         <f t="shared" si="0"/>
@@ -4862,10 +4871,10 @@
         <v>1</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="H47" s="5">
         <v>0</v>
@@ -4877,7 +4886,7 @@
         <v>0.7</v>
       </c>
       <c r="K47" s="6" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="L47">
         <v>0</v>
@@ -4889,7 +4898,7 @@
         <v>0.6</v>
       </c>
       <c r="Q47" s="18" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="R47">
         <f t="shared" si="0"/>
@@ -4926,7 +4935,7 @@
         <v>1.8</v>
       </c>
       <c r="K48" s="6" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="L48">
         <v>0</v>
@@ -4938,7 +4947,7 @@
         <v>1.5</v>
       </c>
       <c r="Q48" s="18" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="R48">
         <f t="shared" si="0"/>
@@ -4975,7 +4984,7 @@
         <v>0.7</v>
       </c>
       <c r="K49" s="6" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="L49">
         <v>0</v>
@@ -4987,7 +4996,7 @@
         <v>0.6</v>
       </c>
       <c r="Q49" s="18" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="R49">
         <f t="shared" si="0"/>
@@ -5024,7 +5033,7 @@
         <v>1.8</v>
       </c>
       <c r="K50" s="6" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="L50">
         <v>0</v>
@@ -5036,7 +5045,7 @@
         <v>1.5</v>
       </c>
       <c r="Q50" s="18" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="R50">
         <f t="shared" si="0"/>
@@ -5073,7 +5082,7 @@
         <v>1.8</v>
       </c>
       <c r="K51" s="6" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="L51">
         <v>0</v>
@@ -5085,7 +5094,7 @@
         <v>1.5</v>
       </c>
       <c r="Q51" s="18" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="R51">
         <f t="shared" si="0"/>
@@ -5122,7 +5131,7 @@
         <v>1.1</v>
       </c>
       <c r="K52" s="6" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="L52">
         <v>0</v>
@@ -5134,7 +5143,7 @@
         <v>0.9</v>
       </c>
       <c r="Q52" s="18" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="R52">
         <f t="shared" si="0"/>
@@ -5171,7 +5180,7 @@
         <v>1.1</v>
       </c>
       <c r="K53" s="6" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="L53">
         <v>0</v>
@@ -5183,7 +5192,7 @@
         <v>0.9</v>
       </c>
       <c r="Q53" s="18" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="R53">
         <f t="shared" si="0"/>
@@ -5202,13 +5211,13 @@
         <v>1</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="H54" s="5">
         <v>0</v>
@@ -5220,7 +5229,7 @@
         <v>1.1</v>
       </c>
       <c r="K54" s="6" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="L54">
         <v>0</v>
@@ -5232,7 +5241,7 @@
         <v>0.9</v>
       </c>
       <c r="Q54" s="18" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="R54">
         <f t="shared" si="0"/>
@@ -5269,7 +5278,7 @@
         <v>0.7</v>
       </c>
       <c r="K55" s="6" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="L55">
         <v>0</v>
@@ -5281,7 +5290,7 @@
         <v>0.6</v>
       </c>
       <c r="Q55" s="18" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="R55">
         <f t="shared" si="0"/>
@@ -5318,7 +5327,7 @@
         <v>1.1</v>
       </c>
       <c r="K56" s="6" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="L56">
         <v>0</v>
@@ -5330,7 +5339,7 @@
         <v>0.9</v>
       </c>
       <c r="Q56" s="18" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="R56">
         <f t="shared" si="0"/>
@@ -5367,7 +5376,7 @@
         <v>1.1</v>
       </c>
       <c r="K57" s="6" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="L57">
         <v>0</v>
@@ -5379,7 +5388,7 @@
         <v>0.9</v>
       </c>
       <c r="Q57" s="18" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="R57">
         <f t="shared" si="0"/>
@@ -5401,10 +5410,10 @@
         <v>13</v>
       </c>
       <c r="F58" s="15" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="G58" s="15" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="H58" s="5">
         <v>0</v>
@@ -5416,7 +5425,7 @@
         <v>1.1</v>
       </c>
       <c r="K58" s="6" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="L58">
         <v>0</v>
@@ -5428,7 +5437,7 @@
         <v>0.9</v>
       </c>
       <c r="Q58" s="18" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="R58">
         <f t="shared" si="0"/>
@@ -5465,19 +5474,19 @@
         <v>1.1</v>
       </c>
       <c r="K59" s="6" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="L59">
         <v>0</v>
       </c>
       <c r="N59" s="6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="O59">
         <v>0.9</v>
       </c>
       <c r="Q59" s="18" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="R59">
         <f t="shared" si="0"/>
@@ -5514,7 +5523,7 @@
         <v>1.8</v>
       </c>
       <c r="K60" s="6" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="L60">
         <v>0</v>
@@ -5526,7 +5535,7 @@
         <v>1.5</v>
       </c>
       <c r="Q60" s="18" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="R60">
         <f t="shared" si="0"/>
@@ -5569,13 +5578,13 @@
         <v>0</v>
       </c>
       <c r="N61" s="6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="O61">
         <v>0.6</v>
       </c>
       <c r="Q61" s="18" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="R61">
         <f t="shared" si="0"/>
@@ -5612,7 +5621,7 @@
         <v>1.8</v>
       </c>
       <c r="K62" s="6" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="L62">
         <v>0</v>
@@ -5624,7 +5633,7 @@
         <v>1.5</v>
       </c>
       <c r="Q62" s="18" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="R62">
         <f t="shared" si="0"/>
@@ -5644,13 +5653,13 @@
       </c>
       <c r="D63" s="15"/>
       <c r="E63" s="15" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="F63" s="15" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="H63" s="5">
         <v>0</v>
@@ -5669,14 +5678,14 @@
       </c>
       <c r="M63" s="17"/>
       <c r="N63" s="16" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="O63">
         <v>1.5</v>
       </c>
       <c r="P63" s="7"/>
       <c r="Q63" s="18" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="R63">
         <f t="shared" si="0"/>
@@ -5714,7 +5723,7 @@
         <v>1.8</v>
       </c>
       <c r="K64" s="6" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="L64">
         <v>0</v>
@@ -5726,7 +5735,7 @@
         <v>1.5</v>
       </c>
       <c r="Q64" s="18" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="R64">
         <f t="shared" si="0"/>
@@ -5745,13 +5754,13 @@
         <v>2</v>
       </c>
       <c r="E65" s="15" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="G65" s="4" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="H65" s="5">
         <v>0</v>
@@ -5763,7 +5772,7 @@
         <v>0.7</v>
       </c>
       <c r="K65" s="6" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="L65">
         <v>0</v>
@@ -5775,7 +5784,7 @@
         <v>0.6</v>
       </c>
       <c r="Q65" s="18" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="R65">
         <f t="shared" si="0"/>
@@ -5795,13 +5804,13 @@
       </c>
       <c r="D66" s="15"/>
       <c r="E66" s="15" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F66" s="15" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="H66" s="5">
         <v>0</v>
@@ -5813,7 +5822,7 @@
         <v>1.8</v>
       </c>
       <c r="K66" s="16" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="L66">
         <v>0</v>
@@ -5827,7 +5836,7 @@
       </c>
       <c r="P66" s="7"/>
       <c r="Q66" s="18" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="R66">
         <f t="shared" si="0"/>
@@ -5865,7 +5874,7 @@
         <v>1.8</v>
       </c>
       <c r="K67" s="6" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="L67">
         <v>0</v>
@@ -5877,7 +5886,7 @@
         <v>1.5</v>
       </c>
       <c r="Q67" s="18" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="R67">
         <f t="shared" si="0"/>
@@ -5920,13 +5929,13 @@
         <v>0</v>
       </c>
       <c r="N68" s="6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="O68">
         <v>0.9</v>
       </c>
       <c r="Q68" s="18" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="R68">
         <f t="shared" si="0"/>
@@ -5945,13 +5954,13 @@
         <v>2</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="G69" s="4" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="H69" s="5">
         <v>0</v>
@@ -5963,7 +5972,7 @@
         <v>1.4</v>
       </c>
       <c r="K69" s="6" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="L69">
         <v>0</v>
@@ -5975,7 +5984,7 @@
         <v>1.2</v>
       </c>
       <c r="Q69" s="18" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="R69">
         <f t="shared" si="0"/>
@@ -6012,19 +6021,19 @@
         <v>1.1</v>
       </c>
       <c r="K70" s="6" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="L70">
         <v>0</v>
       </c>
       <c r="N70" s="6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="O70">
         <v>0.9</v>
       </c>
       <c r="Q70" s="18" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="R70">
         <f t="shared" si="0"/>
@@ -6061,7 +6070,7 @@
         <v>1.1</v>
       </c>
       <c r="K71" s="6" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="L71">
         <v>0</v>
@@ -6073,7 +6082,7 @@
         <v>0.9</v>
       </c>
       <c r="Q71" s="18" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="R71">
         <f t="shared" si="0"/>
@@ -6122,7 +6131,7 @@
         <v>0.9</v>
       </c>
       <c r="Q72" s="18" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="R72">
         <f t="shared" si="0"/>
@@ -6168,7 +6177,7 @@
         <v>1.2</v>
       </c>
       <c r="Q73" s="18" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="R73">
         <f t="shared" si="0"/>
@@ -6217,7 +6226,7 @@
         <v>0.6</v>
       </c>
       <c r="Q74" s="18" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="R74">
         <f t="shared" si="0"/>
@@ -6266,7 +6275,7 @@
         <v>1.5</v>
       </c>
       <c r="Q75" s="18" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="R75">
         <f t="shared" si="0"/>
@@ -6306,7 +6315,7 @@
         <v>1.2</v>
       </c>
       <c r="Q76" s="18" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="R76">
         <f t="shared" si="0"/>
@@ -6343,14 +6352,14 @@
         <v>0.5</v>
       </c>
       <c r="Q77" s="18" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="R77">
         <f t="shared" si="0"/>
         <v>0.4</v>
       </c>
       <c r="S77" s="4" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="78" ht="54" spans="1:19">
@@ -6383,14 +6392,14 @@
         <v>0.9</v>
       </c>
       <c r="Q78" s="18" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="R78">
         <f t="shared" si="0"/>
         <v>0.6</v>
       </c>
       <c r="S78" s="4" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="79" ht="54" spans="1:18">
@@ -6432,7 +6441,7 @@
         <v>1.2</v>
       </c>
       <c r="Q79" s="18" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="R79">
         <f t="shared" si="0"/>
@@ -6481,7 +6490,7 @@
         <v>1.2</v>
       </c>
       <c r="Q80" s="18" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="R80">
         <f t="shared" si="0"/>
@@ -6564,7 +6573,7 @@
         <v>1.1</v>
       </c>
       <c r="K82" s="6" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="L82">
         <v>0</v>
@@ -6576,7 +6585,7 @@
         <v>0.9</v>
       </c>
       <c r="Q82" s="18" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="R82">
         <f t="shared" si="0"/>
@@ -6613,7 +6622,7 @@
         <v>0.7</v>
       </c>
       <c r="K83" s="6" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="L83">
         <v>0</v>
@@ -6625,7 +6634,7 @@
         <v>0.6</v>
       </c>
       <c r="Q83" s="18" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="R83">
         <f t="shared" si="0"/>
@@ -6653,7 +6662,7 @@
         <v>1.4</v>
       </c>
       <c r="K84" s="6" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="L84">
         <v>0</v>
@@ -6665,7 +6674,7 @@
         <v>1.2</v>
       </c>
       <c r="Q84" s="18" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="R84">
         <f t="shared" si="0"/>
@@ -6699,7 +6708,7 @@
         <v>1.4</v>
       </c>
       <c r="K85" s="6" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="L85">
         <v>0</v>
@@ -6711,7 +6720,7 @@
         <v>1.2</v>
       </c>
       <c r="Q85" s="18" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="R85">
         <f t="shared" si="0"/>
@@ -6748,14 +6757,14 @@
         <v>0.9</v>
       </c>
       <c r="Q86" s="18" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="R86">
         <f t="shared" si="0"/>
         <v>0.6</v>
       </c>
       <c r="S86" s="4" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="87" ht="54" spans="1:18">
@@ -6773,10 +6782,10 @@
         <v>1</v>
       </c>
       <c r="F87" s="4" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="G87" s="4" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="H87" s="5">
         <v>0</v>
@@ -6788,7 +6797,7 @@
         <v>1.1</v>
       </c>
       <c r="K87" s="6" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="L87">
         <v>0</v>
@@ -6800,7 +6809,7 @@
         <v>0.9</v>
       </c>
       <c r="Q87" s="18" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="R87">
         <f t="shared" si="0"/>
@@ -6849,7 +6858,7 @@
         <v>1.2</v>
       </c>
       <c r="Q88" s="18" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="R88">
         <f t="shared" si="0"/>
@@ -6871,10 +6880,10 @@
         <v>1</v>
       </c>
       <c r="F89" s="4" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="G89" s="4" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="H89" s="5">
         <v>0</v>
@@ -6886,7 +6895,7 @@
         <v>1.1</v>
       </c>
       <c r="K89" s="6" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="L89">
         <v>0</v>
@@ -6898,7 +6907,7 @@
         <v>0.9</v>
       </c>
       <c r="Q89" s="18" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="R89">
         <f t="shared" si="0"/>
@@ -6935,19 +6944,19 @@
         <v>1.1</v>
       </c>
       <c r="K90" s="6" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="L90">
         <v>0</v>
       </c>
       <c r="N90" s="6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="O90">
         <v>0.9</v>
       </c>
       <c r="Q90" s="18" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="R90">
         <f t="shared" si="0"/>
@@ -6966,13 +6975,13 @@
         <v>1</v>
       </c>
       <c r="E91" s="4" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="F91" s="4" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="G91" s="4" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="H91" s="5">
         <v>0</v>
@@ -6996,7 +7005,7 @@
         <v>0.6</v>
       </c>
       <c r="Q91" s="18" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="R91">
         <f t="shared" si="0"/>
@@ -7018,10 +7027,10 @@
         <v>1</v>
       </c>
       <c r="F92" s="4" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="G92" s="4" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="H92" s="5">
         <v>0</v>
@@ -7088,13 +7097,13 @@
         <v>0</v>
       </c>
       <c r="N93" s="6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="O93">
         <v>1.5</v>
       </c>
       <c r="Q93" s="18" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="R93">
         <f t="shared" ref="R93:R98" si="1">ROUNDUP(I93*0.4,1)</f>
@@ -7113,13 +7122,13 @@
         <v>0</v>
       </c>
       <c r="E94" s="4" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="F94" s="4" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="G94" s="4" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="H94" s="5">
         <v>0</v>
@@ -7137,7 +7146,7 @@
         <v>0</v>
       </c>
       <c r="N94" s="6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="O94">
         <v>0.9</v>
@@ -7155,7 +7164,7 @@
         <v>93</v>
       </c>
       <c r="B95" s="20" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="C95" s="3">
         <v>0</v>
@@ -7188,7 +7197,7 @@
         <v>0.25</v>
       </c>
       <c r="Q95" s="18" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="R95">
         <f t="shared" si="1"/>
@@ -7200,7 +7209,7 @@
         <v>94</v>
       </c>
       <c r="B96" s="20" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="C96" s="3">
         <v>0</v>
@@ -7233,7 +7242,7 @@
         <v>0.25</v>
       </c>
       <c r="Q96" s="18" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="R96">
         <f t="shared" si="1"/>
@@ -7245,7 +7254,7 @@
         <v>95</v>
       </c>
       <c r="B97" s="20" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="C97" s="3">
         <v>0</v>
@@ -7257,7 +7266,7 @@
         <v>13</v>
       </c>
       <c r="G97" s="4" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="H97" s="5">
         <v>0</v>
@@ -7278,7 +7287,7 @@
         <v>0.25</v>
       </c>
       <c r="Q97" s="18" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="R97">
         <f t="shared" si="1"/>
@@ -7324,14 +7333,14 @@
         <v>0.9</v>
       </c>
       <c r="Q98" s="18" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="R98">
         <f t="shared" si="1"/>
         <v>0.6</v>
       </c>
       <c r="S98" s="22" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>

--- a/jyx2/excel/武功招式特效.xlsx
+++ b/jyx2/excel/武功招式特效.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17235" windowHeight="11745"/>
+    <workbookView windowWidth="28125" windowHeight="12090"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -166,7 +166,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="156">
   <si>
     <t>代号</t>
   </si>
@@ -247,6 +247,12 @@
   </si>
   <si>
     <t>Assets/Effects/Prefabs/Cudgel/Fx_Nan_Cudgel_Skill3.prefab</t>
+  </si>
+  <si>
+    <t>@Assets/BuildSource/Animations/灵蛇拳法欧阳克待机.anim</t>
+  </si>
+  <si>
+    <t>@Assets/BuildSource/Animations/灵蛇拳法欧阳克.anim</t>
   </si>
   <si>
     <t>Assets/Effects/Prefabs/Lute/Fx_Nan_Lute_Skill2.prefab</t>
@@ -667,9 +673,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -681,19 +687,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -704,8 +708,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -725,17 +730,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -749,16 +746,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -772,9 +777,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -788,23 +809,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -843,7 +849,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -855,25 +897,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -891,7 +927,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -903,7 +981,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -915,115 +1029,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1066,6 +1072,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -1080,20 +1101,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1113,17 +1131,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1131,8 +1143,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1148,17 +1160,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1167,157 +1173,157 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2589,11 +2595,11 @@
   <dimension ref="A1:S98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C26" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G30" sqref="G30"/>
+      <selection pane="bottomRight" activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2886,11 +2892,11 @@
       <c r="E6" s="4">
         <v>19</v>
       </c>
-      <c r="F6" s="4">
-        <v>19</v>
-      </c>
-      <c r="G6" s="4">
-        <v>4</v>
+      <c r="F6" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="H6" s="5">
         <v>0</v>
@@ -2902,19 +2908,19 @@
         <v>0.7</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="N6" s="6" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="O6">
         <v>0.6</v>
       </c>
       <c r="Q6" s="18" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="R6">
         <v>0.4</v>
@@ -2950,19 +2956,19 @@
         <v>1.1</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="N7" s="6" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="O7">
         <v>0.9</v>
       </c>
       <c r="Q7" s="18" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="R7">
         <v>0.6</v>
@@ -3010,7 +3016,7 @@
         <v>0.9</v>
       </c>
       <c r="Q8" s="18" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="R8">
         <v>0.6</v>
@@ -3058,7 +3064,7 @@
         <v>2.1</v>
       </c>
       <c r="Q9" s="18" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="R9">
         <v>1.6</v>
@@ -3100,13 +3106,13 @@
         <v>0</v>
       </c>
       <c r="N10" s="6" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="O10">
         <v>0.9</v>
       </c>
       <c r="Q10" s="18" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="R10">
         <v>0.6</v>
@@ -3142,7 +3148,7 @@
         <v>1.1</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -3154,7 +3160,7 @@
         <v>0.9</v>
       </c>
       <c r="Q11" s="18" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="R11">
         <v>0.6</v>
@@ -3202,7 +3208,7 @@
         <v>0.9</v>
       </c>
       <c r="Q12" s="18" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="R12">
         <v>0.6</v>
@@ -3238,7 +3244,7 @@
         <v>0.7</v>
       </c>
       <c r="K13" s="6" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -3250,7 +3256,7 @@
         <v>0.6</v>
       </c>
       <c r="Q13" s="18" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="R13">
         <v>0.4</v>
@@ -3286,19 +3292,19 @@
         <v>0.7</v>
       </c>
       <c r="K14" s="6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="N14" s="6" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="O14">
         <v>0.6</v>
       </c>
       <c r="Q14" s="18" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="R14">
         <v>0.4</v>
@@ -3316,10 +3322,10 @@
         <v>0</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H15" s="5">
         <v>0</v>
@@ -3331,19 +3337,19 @@
         <v>0.7</v>
       </c>
       <c r="K15" s="6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="N15" s="6" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="O15">
         <v>0.6</v>
       </c>
       <c r="Q15" s="18" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="R15">
         <v>0.4</v>
@@ -3391,7 +3397,7 @@
         <v>0.9</v>
       </c>
       <c r="Q16" s="18" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="R16">
         <v>0.6</v>
@@ -3412,10 +3418,10 @@
         <v>19</v>
       </c>
       <c r="F17" s="15" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H17" s="5">
         <v>0</v>
@@ -3433,13 +3439,13 @@
         <v>0</v>
       </c>
       <c r="N17" s="6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="O17">
         <v>0.9</v>
       </c>
       <c r="Q17" s="18" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="R17">
         <v>0.6</v>
@@ -3475,19 +3481,19 @@
         <v>0.7</v>
       </c>
       <c r="K18" s="6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="N18" s="6" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="O18">
         <v>0.6</v>
       </c>
       <c r="Q18" s="18" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="R18">
         <v>0.4</v>
@@ -3523,19 +3529,19 @@
         <v>0.7</v>
       </c>
       <c r="K19" s="6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="N19" s="6" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="O19">
         <v>0.6</v>
       </c>
       <c r="Q19" s="18" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="R19">
         <v>0.4</v>
@@ -3571,7 +3577,7 @@
         <v>1.1</v>
       </c>
       <c r="K20" s="6" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -3583,7 +3589,7 @@
         <v>0.9</v>
       </c>
       <c r="Q20" s="18" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="R20">
         <v>0.6</v>
@@ -3619,19 +3625,19 @@
         <v>0.7</v>
       </c>
       <c r="K21" s="6" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="N21" s="6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="O21">
         <v>0.6</v>
       </c>
       <c r="Q21" s="18" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="R21">
         <v>0.4</v>
@@ -3667,7 +3673,7 @@
         <v>1.1</v>
       </c>
       <c r="K22" s="6" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -3679,7 +3685,7 @@
         <v>0.9</v>
       </c>
       <c r="Q22" s="18" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="R22">
         <v>0.6</v>
@@ -3715,7 +3721,7 @@
         <v>1.1</v>
       </c>
       <c r="K23" s="6" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -3727,7 +3733,7 @@
         <v>0.9</v>
       </c>
       <c r="Q23" s="18" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="R23">
         <v>0.6</v>
@@ -3748,10 +3754,10 @@
         <v>13</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H24" s="5">
         <v>0</v>
@@ -3763,19 +3769,19 @@
         <v>1.1</v>
       </c>
       <c r="K24" s="6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="N24" s="6" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="O24">
         <v>0.9</v>
       </c>
       <c r="Q24" s="18" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="R24">
         <v>0.6</v>
@@ -3796,10 +3802,10 @@
         <v>3</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H25" s="5">
         <v>0</v>
@@ -3811,7 +3817,7 @@
         <v>1.1</v>
       </c>
       <c r="K25" s="6" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -3823,7 +3829,7 @@
         <v>0.9</v>
       </c>
       <c r="Q25" s="18" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="R25">
         <v>0.6</v>
@@ -3859,19 +3865,19 @@
         <v>0.7</v>
       </c>
       <c r="K26" s="6" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L26">
         <v>0</v>
       </c>
       <c r="N26" s="6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="O26">
         <v>0.6</v>
       </c>
       <c r="Q26" s="18" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="R26">
         <v>0.4</v>
@@ -3892,10 +3898,10 @@
         <v>25</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H27" s="5">
         <v>0</v>
@@ -3907,19 +3913,19 @@
         <v>1.5</v>
       </c>
       <c r="K27" s="6" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="L27">
         <v>0</v>
       </c>
       <c r="N27" s="6" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="O27">
         <v>0.23</v>
       </c>
       <c r="Q27" s="18" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="R27">
         <v>0.8</v>
@@ -3955,7 +3961,7 @@
         <v>1.4</v>
       </c>
       <c r="K28" s="6" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="L28">
         <v>0</v>
@@ -3967,7 +3973,7 @@
         <v>1.2</v>
       </c>
       <c r="Q28" s="18" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="R28">
         <f>ROUNDUP(I28*0.4,1)</f>
@@ -3989,10 +3995,10 @@
         <v>19</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="H29" s="5">
         <v>0</v>
@@ -4004,19 +4010,19 @@
         <v>1.1</v>
       </c>
       <c r="K29" s="6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="L29">
         <v>0</v>
       </c>
       <c r="N29" s="6" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="O29">
         <v>0.9</v>
       </c>
       <c r="Q29" s="18" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="R29">
         <f t="shared" ref="R29:R92" si="0">ROUNDUP(I29*0.4,1)</f>
@@ -4053,7 +4059,7 @@
         <v>0.7</v>
       </c>
       <c r="K30" s="6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="L30">
         <v>0</v>
@@ -4065,7 +4071,7 @@
         <v>0.6</v>
       </c>
       <c r="Q30" s="18" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="R30">
         <f t="shared" si="0"/>
@@ -4102,7 +4108,7 @@
         <v>0.7</v>
       </c>
       <c r="K31" s="6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="L31">
         <v>0</v>
@@ -4114,7 +4120,7 @@
         <v>0.6</v>
       </c>
       <c r="Q31" s="18" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="R31">
         <f t="shared" si="0"/>
@@ -4151,7 +4157,7 @@
         <v>1.1</v>
       </c>
       <c r="K32" s="6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="L32">
         <v>0</v>
@@ -4163,7 +4169,7 @@
         <v>0.9</v>
       </c>
       <c r="Q32" s="18" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="R32">
         <f t="shared" si="0"/>
@@ -4200,7 +4206,7 @@
         <v>0.7</v>
       </c>
       <c r="K33" s="6" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="L33">
         <v>0</v>
@@ -4212,7 +4218,7 @@
         <v>0.6</v>
       </c>
       <c r="Q33" s="18" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="R33">
         <f t="shared" si="0"/>
@@ -4249,7 +4255,7 @@
         <v>0.7</v>
       </c>
       <c r="K34" s="6" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="L34">
         <v>0</v>
@@ -4261,7 +4267,7 @@
         <v>0.6</v>
       </c>
       <c r="Q34" s="18" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="R34">
         <f t="shared" si="0"/>
@@ -4298,19 +4304,19 @@
         <v>0.7</v>
       </c>
       <c r="K35" s="6" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="L35">
         <v>0</v>
       </c>
       <c r="N35" s="6" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="O35">
         <v>0.6</v>
       </c>
       <c r="Q35" s="18" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="R35">
         <f t="shared" si="0"/>
@@ -4347,7 +4353,7 @@
         <v>0.7</v>
       </c>
       <c r="K36" s="6" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="L36">
         <v>0</v>
@@ -4359,7 +4365,7 @@
         <v>0.6</v>
       </c>
       <c r="Q36" s="18" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="R36">
         <f t="shared" si="0"/>
@@ -4396,7 +4402,7 @@
         <v>1.1</v>
       </c>
       <c r="K37" s="6" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="L37">
         <v>0</v>
@@ -4408,7 +4414,7 @@
         <v>0.9</v>
       </c>
       <c r="Q37" s="18" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="R37">
         <f t="shared" si="0"/>
@@ -4445,7 +4451,7 @@
         <v>1.4</v>
       </c>
       <c r="K38" s="6" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="L38">
         <v>0</v>
@@ -4457,7 +4463,7 @@
         <v>1.2</v>
       </c>
       <c r="Q38" s="18" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="R38">
         <f t="shared" si="0"/>
@@ -4494,7 +4500,7 @@
         <v>1.1</v>
       </c>
       <c r="K39" s="6" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="L39">
         <v>0</v>
@@ -4506,7 +4512,7 @@
         <v>0.9</v>
       </c>
       <c r="Q39" s="18" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="R39">
         <f t="shared" si="0"/>
@@ -4543,7 +4549,7 @@
         <v>0.7</v>
       </c>
       <c r="K40" s="6" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="L40">
         <v>0</v>
@@ -4555,7 +4561,7 @@
         <v>0.6</v>
       </c>
       <c r="Q40" s="18" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="R40">
         <f t="shared" si="0"/>
@@ -4592,7 +4598,7 @@
         <v>1.1</v>
       </c>
       <c r="K41" s="6" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="L41">
         <v>0</v>
@@ -4604,7 +4610,7 @@
         <v>0.9</v>
       </c>
       <c r="Q41" s="18" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="R41">
         <f t="shared" si="0"/>
@@ -4641,7 +4647,7 @@
         <v>1.8</v>
       </c>
       <c r="K42" s="6" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="L42">
         <v>0</v>
@@ -4653,7 +4659,7 @@
         <v>1.5</v>
       </c>
       <c r="Q42" s="18" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="R42">
         <f t="shared" si="0"/>
@@ -4690,7 +4696,7 @@
         <v>1.1</v>
       </c>
       <c r="K43" s="6" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="L43">
         <v>0</v>
@@ -4702,7 +4708,7 @@
         <v>0.9</v>
       </c>
       <c r="Q43" s="18" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="R43">
         <f t="shared" si="0"/>
@@ -4739,7 +4745,7 @@
         <v>1.1</v>
       </c>
       <c r="K44" s="6" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="L44">
         <v>0</v>
@@ -4751,7 +4757,7 @@
         <v>0.9</v>
       </c>
       <c r="Q44" s="18" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="R44">
         <f t="shared" si="0"/>
@@ -4788,7 +4794,7 @@
         <v>1.4</v>
       </c>
       <c r="K45" s="6" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="L45">
         <v>0</v>
@@ -4800,7 +4806,7 @@
         <v>1.2</v>
       </c>
       <c r="Q45" s="18" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="R45">
         <f t="shared" si="0"/>
@@ -4837,19 +4843,19 @@
         <v>0.7</v>
       </c>
       <c r="K46" s="6" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="L46">
         <v>0</v>
       </c>
       <c r="N46" s="6" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="O46">
         <v>0.6</v>
       </c>
       <c r="Q46" s="18" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="R46">
         <f t="shared" si="0"/>
@@ -4871,10 +4877,10 @@
         <v>1</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H47" s="5">
         <v>0</v>
@@ -4886,7 +4892,7 @@
         <v>0.7</v>
       </c>
       <c r="K47" s="6" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="L47">
         <v>0</v>
@@ -4898,7 +4904,7 @@
         <v>0.6</v>
       </c>
       <c r="Q47" s="18" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="R47">
         <f t="shared" si="0"/>
@@ -4935,7 +4941,7 @@
         <v>1.8</v>
       </c>
       <c r="K48" s="6" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="L48">
         <v>0</v>
@@ -4947,7 +4953,7 @@
         <v>1.5</v>
       </c>
       <c r="Q48" s="18" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="R48">
         <f t="shared" si="0"/>
@@ -4984,7 +4990,7 @@
         <v>0.7</v>
       </c>
       <c r="K49" s="6" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="L49">
         <v>0</v>
@@ -4996,7 +5002,7 @@
         <v>0.6</v>
       </c>
       <c r="Q49" s="18" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="R49">
         <f t="shared" si="0"/>
@@ -5033,7 +5039,7 @@
         <v>1.8</v>
       </c>
       <c r="K50" s="6" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="L50">
         <v>0</v>
@@ -5045,7 +5051,7 @@
         <v>1.5</v>
       </c>
       <c r="Q50" s="18" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="R50">
         <f t="shared" si="0"/>
@@ -5082,7 +5088,7 @@
         <v>1.8</v>
       </c>
       <c r="K51" s="6" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="L51">
         <v>0</v>
@@ -5094,7 +5100,7 @@
         <v>1.5</v>
       </c>
       <c r="Q51" s="18" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="R51">
         <f t="shared" si="0"/>
@@ -5131,7 +5137,7 @@
         <v>1.1</v>
       </c>
       <c r="K52" s="6" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="L52">
         <v>0</v>
@@ -5143,7 +5149,7 @@
         <v>0.9</v>
       </c>
       <c r="Q52" s="18" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="R52">
         <f t="shared" si="0"/>
@@ -5180,7 +5186,7 @@
         <v>1.1</v>
       </c>
       <c r="K53" s="6" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="L53">
         <v>0</v>
@@ -5192,7 +5198,7 @@
         <v>0.9</v>
       </c>
       <c r="Q53" s="18" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="R53">
         <f t="shared" si="0"/>
@@ -5211,13 +5217,13 @@
         <v>1</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H54" s="5">
         <v>0</v>
@@ -5229,7 +5235,7 @@
         <v>1.1</v>
       </c>
       <c r="K54" s="6" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="L54">
         <v>0</v>
@@ -5241,7 +5247,7 @@
         <v>0.9</v>
       </c>
       <c r="Q54" s="18" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="R54">
         <f t="shared" si="0"/>
@@ -5278,7 +5284,7 @@
         <v>0.7</v>
       </c>
       <c r="K55" s="6" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L55">
         <v>0</v>
@@ -5290,7 +5296,7 @@
         <v>0.6</v>
       </c>
       <c r="Q55" s="18" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="R55">
         <f t="shared" si="0"/>
@@ -5327,7 +5333,7 @@
         <v>1.1</v>
       </c>
       <c r="K56" s="6" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="L56">
         <v>0</v>
@@ -5339,7 +5345,7 @@
         <v>0.9</v>
       </c>
       <c r="Q56" s="18" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="R56">
         <f t="shared" si="0"/>
@@ -5376,7 +5382,7 @@
         <v>1.1</v>
       </c>
       <c r="K57" s="6" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="L57">
         <v>0</v>
@@ -5388,7 +5394,7 @@
         <v>0.9</v>
       </c>
       <c r="Q57" s="18" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="R57">
         <f t="shared" si="0"/>
@@ -5410,10 +5416,10 @@
         <v>13</v>
       </c>
       <c r="F58" s="15" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G58" s="15" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H58" s="5">
         <v>0</v>
@@ -5425,7 +5431,7 @@
         <v>1.1</v>
       </c>
       <c r="K58" s="6" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="L58">
         <v>0</v>
@@ -5437,7 +5443,7 @@
         <v>0.9</v>
       </c>
       <c r="Q58" s="18" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="R58">
         <f t="shared" si="0"/>
@@ -5474,19 +5480,19 @@
         <v>1.1</v>
       </c>
       <c r="K59" s="6" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L59">
         <v>0</v>
       </c>
       <c r="N59" s="6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="O59">
         <v>0.9</v>
       </c>
       <c r="Q59" s="18" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="R59">
         <f t="shared" si="0"/>
@@ -5523,7 +5529,7 @@
         <v>1.8</v>
       </c>
       <c r="K60" s="6" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="L60">
         <v>0</v>
@@ -5535,7 +5541,7 @@
         <v>1.5</v>
       </c>
       <c r="Q60" s="18" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="R60">
         <f t="shared" si="0"/>
@@ -5578,13 +5584,13 @@
         <v>0</v>
       </c>
       <c r="N61" s="6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="O61">
         <v>0.6</v>
       </c>
       <c r="Q61" s="18" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="R61">
         <f t="shared" si="0"/>
@@ -5621,7 +5627,7 @@
         <v>1.8</v>
       </c>
       <c r="K62" s="6" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L62">
         <v>0</v>
@@ -5633,7 +5639,7 @@
         <v>1.5</v>
       </c>
       <c r="Q62" s="18" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="R62">
         <f t="shared" si="0"/>
@@ -5653,13 +5659,13 @@
       </c>
       <c r="D63" s="15"/>
       <c r="E63" s="15" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F63" s="15" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="H63" s="5">
         <v>0</v>
@@ -5678,14 +5684,14 @@
       </c>
       <c r="M63" s="17"/>
       <c r="N63" s="16" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="O63">
         <v>1.5</v>
       </c>
       <c r="P63" s="7"/>
       <c r="Q63" s="18" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="R63">
         <f t="shared" si="0"/>
@@ -5723,7 +5729,7 @@
         <v>1.8</v>
       </c>
       <c r="K64" s="6" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="L64">
         <v>0</v>
@@ -5735,7 +5741,7 @@
         <v>1.5</v>
       </c>
       <c r="Q64" s="18" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="R64">
         <f t="shared" si="0"/>
@@ -5754,13 +5760,13 @@
         <v>2</v>
       </c>
       <c r="E65" s="15" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G65" s="4" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H65" s="5">
         <v>0</v>
@@ -5772,7 +5778,7 @@
         <v>0.7</v>
       </c>
       <c r="K65" s="6" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="L65">
         <v>0</v>
@@ -5784,7 +5790,7 @@
         <v>0.6</v>
       </c>
       <c r="Q65" s="18" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="R65">
         <f t="shared" si="0"/>
@@ -5804,13 +5810,13 @@
       </c>
       <c r="D66" s="15"/>
       <c r="E66" s="15" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F66" s="15" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="H66" s="5">
         <v>0</v>
@@ -5822,7 +5828,7 @@
         <v>1.8</v>
       </c>
       <c r="K66" s="16" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="L66">
         <v>0</v>
@@ -5836,7 +5842,7 @@
       </c>
       <c r="P66" s="7"/>
       <c r="Q66" s="18" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="R66">
         <f t="shared" si="0"/>
@@ -5874,7 +5880,7 @@
         <v>1.8</v>
       </c>
       <c r="K67" s="6" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="L67">
         <v>0</v>
@@ -5886,7 +5892,7 @@
         <v>1.5</v>
       </c>
       <c r="Q67" s="18" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="R67">
         <f t="shared" si="0"/>
@@ -5929,13 +5935,13 @@
         <v>0</v>
       </c>
       <c r="N68" s="6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="O68">
         <v>0.9</v>
       </c>
       <c r="Q68" s="18" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="R68">
         <f t="shared" si="0"/>
@@ -5954,13 +5960,13 @@
         <v>2</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G69" s="4" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="H69" s="5">
         <v>0</v>
@@ -5972,7 +5978,7 @@
         <v>1.4</v>
       </c>
       <c r="K69" s="6" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="L69">
         <v>0</v>
@@ -5984,7 +5990,7 @@
         <v>1.2</v>
       </c>
       <c r="Q69" s="18" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="R69">
         <f t="shared" si="0"/>
@@ -6021,19 +6027,19 @@
         <v>1.1</v>
       </c>
       <c r="K70" s="6" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="L70">
         <v>0</v>
       </c>
       <c r="N70" s="6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="O70">
         <v>0.9</v>
       </c>
       <c r="Q70" s="18" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="R70">
         <f t="shared" si="0"/>
@@ -6070,7 +6076,7 @@
         <v>1.1</v>
       </c>
       <c r="K71" s="6" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="L71">
         <v>0</v>
@@ -6082,7 +6088,7 @@
         <v>0.9</v>
       </c>
       <c r="Q71" s="18" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="R71">
         <f t="shared" si="0"/>
@@ -6131,7 +6137,7 @@
         <v>0.9</v>
       </c>
       <c r="Q72" s="18" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="R72">
         <f t="shared" si="0"/>
@@ -6171,13 +6177,13 @@
         <v>0</v>
       </c>
       <c r="N73" s="6" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="O73">
         <v>1.2</v>
       </c>
       <c r="Q73" s="18" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="R73">
         <f t="shared" si="0"/>
@@ -6220,13 +6226,13 @@
         <v>0</v>
       </c>
       <c r="N74" s="6" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="O74">
         <v>0.6</v>
       </c>
       <c r="Q74" s="18" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="R74">
         <f t="shared" si="0"/>
@@ -6275,7 +6281,7 @@
         <v>1.5</v>
       </c>
       <c r="Q75" s="18" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="R75">
         <f t="shared" si="0"/>
@@ -6309,13 +6315,13 @@
         <v>0</v>
       </c>
       <c r="N76" s="6" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="O76">
         <v>1.2</v>
       </c>
       <c r="Q76" s="18" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="R76">
         <f t="shared" si="0"/>
@@ -6352,14 +6358,14 @@
         <v>0.5</v>
       </c>
       <c r="Q77" s="18" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="R77">
         <f t="shared" si="0"/>
         <v>0.4</v>
       </c>
       <c r="S77" s="4" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="78" ht="54" spans="1:19">
@@ -6392,14 +6398,14 @@
         <v>0.9</v>
       </c>
       <c r="Q78" s="18" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="R78">
         <f t="shared" si="0"/>
         <v>0.6</v>
       </c>
       <c r="S78" s="4" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="79" ht="54" spans="1:18">
@@ -6441,7 +6447,7 @@
         <v>1.2</v>
       </c>
       <c r="Q79" s="18" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="R79">
         <f t="shared" si="0"/>
@@ -6490,7 +6496,7 @@
         <v>1.2</v>
       </c>
       <c r="Q80" s="18" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="R80">
         <f t="shared" si="0"/>
@@ -6536,7 +6542,7 @@
         <v>0.6</v>
       </c>
       <c r="Q81" s="18" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="R81">
         <f t="shared" si="0"/>
@@ -6573,7 +6579,7 @@
         <v>1.1</v>
       </c>
       <c r="K82" s="6" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="L82">
         <v>0</v>
@@ -6585,7 +6591,7 @@
         <v>0.9</v>
       </c>
       <c r="Q82" s="18" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="R82">
         <f t="shared" si="0"/>
@@ -6622,7 +6628,7 @@
         <v>0.7</v>
       </c>
       <c r="K83" s="6" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="L83">
         <v>0</v>
@@ -6634,7 +6640,7 @@
         <v>0.6</v>
       </c>
       <c r="Q83" s="18" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="R83">
         <f t="shared" si="0"/>
@@ -6662,7 +6668,7 @@
         <v>1.4</v>
       </c>
       <c r="K84" s="6" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="L84">
         <v>0</v>
@@ -6674,7 +6680,7 @@
         <v>1.2</v>
       </c>
       <c r="Q84" s="18" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="R84">
         <f t="shared" si="0"/>
@@ -6708,7 +6714,7 @@
         <v>1.4</v>
       </c>
       <c r="K85" s="6" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="L85">
         <v>0</v>
@@ -6720,7 +6726,7 @@
         <v>1.2</v>
       </c>
       <c r="Q85" s="18" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="R85">
         <f t="shared" si="0"/>
@@ -6751,20 +6757,20 @@
         <v>0</v>
       </c>
       <c r="N86" s="6" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="O86">
         <v>0.9</v>
       </c>
       <c r="Q86" s="18" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="R86">
         <f t="shared" si="0"/>
         <v>0.6</v>
       </c>
       <c r="S86" s="4" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="87" ht="54" spans="1:18">
@@ -6782,10 +6788,10 @@
         <v>1</v>
       </c>
       <c r="F87" s="4" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="G87" s="4" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="H87" s="5">
         <v>0</v>
@@ -6797,7 +6803,7 @@
         <v>1.1</v>
       </c>
       <c r="K87" s="6" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L87">
         <v>0</v>
@@ -6809,7 +6815,7 @@
         <v>0.9</v>
       </c>
       <c r="Q87" s="18" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="R87">
         <f t="shared" si="0"/>
@@ -6858,7 +6864,7 @@
         <v>1.2</v>
       </c>
       <c r="Q88" s="18" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="R88">
         <f t="shared" si="0"/>
@@ -6880,10 +6886,10 @@
         <v>1</v>
       </c>
       <c r="F89" s="4" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="G89" s="4" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="H89" s="5">
         <v>0</v>
@@ -6895,7 +6901,7 @@
         <v>1.1</v>
       </c>
       <c r="K89" s="6" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L89">
         <v>0</v>
@@ -6907,7 +6913,7 @@
         <v>0.9</v>
       </c>
       <c r="Q89" s="18" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="R89">
         <f t="shared" si="0"/>
@@ -6944,19 +6950,19 @@
         <v>1.1</v>
       </c>
       <c r="K90" s="6" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L90">
         <v>0</v>
       </c>
       <c r="N90" s="6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="O90">
         <v>0.9</v>
       </c>
       <c r="Q90" s="18" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="R90">
         <f t="shared" si="0"/>
@@ -6975,13 +6981,13 @@
         <v>1</v>
       </c>
       <c r="E91" s="4" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F91" s="4" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="G91" s="4" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="H91" s="5">
         <v>0</v>
@@ -6993,7 +6999,7 @@
         <v>0.7</v>
       </c>
       <c r="K91" s="6" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L91">
         <v>0</v>
@@ -7005,7 +7011,7 @@
         <v>0.6</v>
       </c>
       <c r="Q91" s="18" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="R91">
         <f t="shared" si="0"/>
@@ -7027,10 +7033,10 @@
         <v>1</v>
       </c>
       <c r="F92" s="4" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G92" s="4" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="H92" s="5">
         <v>0</v>
@@ -7042,7 +7048,7 @@
         <v>0.7</v>
       </c>
       <c r="K92" s="6" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L92">
         <v>0</v>
@@ -7097,13 +7103,13 @@
         <v>0</v>
       </c>
       <c r="N93" s="6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="O93">
         <v>1.5</v>
       </c>
       <c r="Q93" s="18" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="R93">
         <f t="shared" ref="R93:R98" si="1">ROUNDUP(I93*0.4,1)</f>
@@ -7122,13 +7128,13 @@
         <v>0</v>
       </c>
       <c r="E94" s="4" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="F94" s="4" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="G94" s="4" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="H94" s="5">
         <v>0</v>
@@ -7146,13 +7152,13 @@
         <v>0</v>
       </c>
       <c r="N94" s="6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="O94">
         <v>0.9</v>
       </c>
       <c r="Q94" s="18" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="R94">
         <f t="shared" si="1"/>
@@ -7164,7 +7170,7 @@
         <v>93</v>
       </c>
       <c r="B95" s="20" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C95" s="3">
         <v>0</v>
@@ -7191,13 +7197,13 @@
         <v>0</v>
       </c>
       <c r="N95" s="6" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="O95">
         <v>0.25</v>
       </c>
       <c r="Q95" s="18" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="R95">
         <f t="shared" si="1"/>
@@ -7209,7 +7215,7 @@
         <v>94</v>
       </c>
       <c r="B96" s="20" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C96" s="3">
         <v>0</v>
@@ -7242,7 +7248,7 @@
         <v>0.25</v>
       </c>
       <c r="Q96" s="18" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="R96">
         <f t="shared" si="1"/>
@@ -7254,7 +7260,7 @@
         <v>95</v>
       </c>
       <c r="B97" s="20" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C97" s="3">
         <v>0</v>
@@ -7266,7 +7272,7 @@
         <v>13</v>
       </c>
       <c r="G97" s="4" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="H97" s="5">
         <v>0</v>
@@ -7287,7 +7293,7 @@
         <v>0.25</v>
       </c>
       <c r="Q97" s="18" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="R97">
         <f t="shared" si="1"/>
@@ -7327,20 +7333,20 @@
         <v>0</v>
       </c>
       <c r="N98" s="6" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="O98">
         <v>0.9</v>
       </c>
       <c r="Q98" s="18" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="R98">
         <f t="shared" si="1"/>
         <v>0.6</v>
       </c>
       <c r="S98" s="22" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>

--- a/jyx2/excel/武功招式特效.xlsx
+++ b/jyx2/excel/武功招式特效.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12090"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -166,7 +166,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="158">
   <si>
     <t>代号</t>
   </si>
@@ -376,6 +376,12 @@
   </si>
   <si>
     <t>Assets/BuildSource/sound/atk18.wav</t>
+  </si>
+  <si>
+    <t>@Assets/BuildSource/Animations/段誉站立.anim</t>
+  </si>
+  <si>
+    <t>@Assets/BuildSource/Animations/段誉六脉神剑.anim</t>
   </si>
   <si>
     <t>Assets/BuildSource/sound/e16.wav</t>
@@ -641,10 +647,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -673,21 +679,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -708,6 +699,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -723,8 +721,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -740,23 +747,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -777,6 +768,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -793,6 +791,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -803,7 +808,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -816,8 +821,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -849,31 +855,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -891,13 +909,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -909,7 +981,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -921,19 +999,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -945,91 +1029,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1072,16 +1078,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1102,16 +1108,34 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1134,17 +1158,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1159,45 +1174,45 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1206,124 +1221,115 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2595,11 +2601,11 @@
   <dimension ref="A1:S98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C23" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G6" sqref="G6"/>
+      <selection pane="bottomRight" activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4141,11 +4147,11 @@
       <c r="E32" s="4">
         <v>10</v>
       </c>
-      <c r="F32" s="4">
-        <v>10</v>
-      </c>
-      <c r="G32" s="4">
-        <v>30</v>
+      <c r="F32" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>71</v>
       </c>
       <c r="H32" s="5">
         <v>0</v>
@@ -4169,7 +4175,7 @@
         <v>0.9</v>
       </c>
       <c r="Q32" s="18" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="R32">
         <f t="shared" si="0"/>
@@ -4206,7 +4212,7 @@
         <v>0.7</v>
       </c>
       <c r="K33" s="6" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="L33">
         <v>0</v>
@@ -4218,7 +4224,7 @@
         <v>0.6</v>
       </c>
       <c r="Q33" s="18" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="R33">
         <f t="shared" si="0"/>
@@ -4255,7 +4261,7 @@
         <v>0.7</v>
       </c>
       <c r="K34" s="6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="L34">
         <v>0</v>
@@ -4267,7 +4273,7 @@
         <v>0.6</v>
       </c>
       <c r="Q34" s="18" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="R34">
         <f t="shared" si="0"/>
@@ -4304,7 +4310,7 @@
         <v>0.7</v>
       </c>
       <c r="K35" s="6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="L35">
         <v>0</v>
@@ -4316,7 +4322,7 @@
         <v>0.6</v>
       </c>
       <c r="Q35" s="18" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="R35">
         <f t="shared" si="0"/>
@@ -4353,7 +4359,7 @@
         <v>0.7</v>
       </c>
       <c r="K36" s="6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="L36">
         <v>0</v>
@@ -4365,7 +4371,7 @@
         <v>0.6</v>
       </c>
       <c r="Q36" s="18" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="R36">
         <f t="shared" si="0"/>
@@ -4402,7 +4408,7 @@
         <v>1.1</v>
       </c>
       <c r="K37" s="6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="L37">
         <v>0</v>
@@ -4414,7 +4420,7 @@
         <v>0.9</v>
       </c>
       <c r="Q37" s="18" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="R37">
         <f t="shared" si="0"/>
@@ -4451,7 +4457,7 @@
         <v>1.4</v>
       </c>
       <c r="K38" s="6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="L38">
         <v>0</v>
@@ -4463,7 +4469,7 @@
         <v>1.2</v>
       </c>
       <c r="Q38" s="18" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="R38">
         <f t="shared" si="0"/>
@@ -4500,7 +4506,7 @@
         <v>1.1</v>
       </c>
       <c r="K39" s="6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="L39">
         <v>0</v>
@@ -4512,7 +4518,7 @@
         <v>0.9</v>
       </c>
       <c r="Q39" s="18" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="R39">
         <f t="shared" si="0"/>
@@ -4549,7 +4555,7 @@
         <v>0.7</v>
       </c>
       <c r="K40" s="6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="L40">
         <v>0</v>
@@ -4561,7 +4567,7 @@
         <v>0.6</v>
       </c>
       <c r="Q40" s="18" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="R40">
         <f t="shared" si="0"/>
@@ -4598,7 +4604,7 @@
         <v>1.1</v>
       </c>
       <c r="K41" s="6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="L41">
         <v>0</v>
@@ -4610,7 +4616,7 @@
         <v>0.9</v>
       </c>
       <c r="Q41" s="18" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="R41">
         <f t="shared" si="0"/>
@@ -4647,7 +4653,7 @@
         <v>1.8</v>
       </c>
       <c r="K42" s="6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="L42">
         <v>0</v>
@@ -4659,7 +4665,7 @@
         <v>1.5</v>
       </c>
       <c r="Q42" s="18" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="R42">
         <f t="shared" si="0"/>
@@ -4696,7 +4702,7 @@
         <v>1.1</v>
       </c>
       <c r="K43" s="6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="L43">
         <v>0</v>
@@ -4708,7 +4714,7 @@
         <v>0.9</v>
       </c>
       <c r="Q43" s="18" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="R43">
         <f t="shared" si="0"/>
@@ -4745,7 +4751,7 @@
         <v>1.1</v>
       </c>
       <c r="K44" s="6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="L44">
         <v>0</v>
@@ -4757,7 +4763,7 @@
         <v>0.9</v>
       </c>
       <c r="Q44" s="18" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="R44">
         <f t="shared" si="0"/>
@@ -4794,7 +4800,7 @@
         <v>1.4</v>
       </c>
       <c r="K45" s="6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="L45">
         <v>0</v>
@@ -4806,7 +4812,7 @@
         <v>1.2</v>
       </c>
       <c r="Q45" s="18" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="R45">
         <f t="shared" si="0"/>
@@ -4843,7 +4849,7 @@
         <v>0.7</v>
       </c>
       <c r="K46" s="6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="L46">
         <v>0</v>
@@ -4877,10 +4883,10 @@
         <v>1</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H47" s="5">
         <v>0</v>
@@ -4892,7 +4898,7 @@
         <v>0.7</v>
       </c>
       <c r="K47" s="6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="L47">
         <v>0</v>
@@ -4904,7 +4910,7 @@
         <v>0.6</v>
       </c>
       <c r="Q47" s="18" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="R47">
         <f t="shared" si="0"/>
@@ -4941,7 +4947,7 @@
         <v>1.8</v>
       </c>
       <c r="K48" s="6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="L48">
         <v>0</v>
@@ -4953,7 +4959,7 @@
         <v>1.5</v>
       </c>
       <c r="Q48" s="18" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="R48">
         <f t="shared" si="0"/>
@@ -4990,7 +4996,7 @@
         <v>0.7</v>
       </c>
       <c r="K49" s="6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="L49">
         <v>0</v>
@@ -5002,7 +5008,7 @@
         <v>0.6</v>
       </c>
       <c r="Q49" s="18" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="R49">
         <f t="shared" si="0"/>
@@ -5039,7 +5045,7 @@
         <v>1.8</v>
       </c>
       <c r="K50" s="6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="L50">
         <v>0</v>
@@ -5051,7 +5057,7 @@
         <v>1.5</v>
       </c>
       <c r="Q50" s="18" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="R50">
         <f t="shared" si="0"/>
@@ -5088,7 +5094,7 @@
         <v>1.8</v>
       </c>
       <c r="K51" s="6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="L51">
         <v>0</v>
@@ -5100,7 +5106,7 @@
         <v>1.5</v>
       </c>
       <c r="Q51" s="18" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="R51">
         <f t="shared" si="0"/>
@@ -5137,7 +5143,7 @@
         <v>1.1</v>
       </c>
       <c r="K52" s="6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="L52">
         <v>0</v>
@@ -5149,7 +5155,7 @@
         <v>0.9</v>
       </c>
       <c r="Q52" s="18" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="R52">
         <f t="shared" si="0"/>
@@ -5186,7 +5192,7 @@
         <v>1.1</v>
       </c>
       <c r="K53" s="6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="L53">
         <v>0</v>
@@ -5198,7 +5204,7 @@
         <v>0.9</v>
       </c>
       <c r="Q53" s="18" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="R53">
         <f t="shared" si="0"/>
@@ -5217,13 +5223,13 @@
         <v>1</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="H54" s="5">
         <v>0</v>
@@ -5235,7 +5241,7 @@
         <v>1.1</v>
       </c>
       <c r="K54" s="6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="L54">
         <v>0</v>
@@ -5247,7 +5253,7 @@
         <v>0.9</v>
       </c>
       <c r="Q54" s="18" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="R54">
         <f t="shared" si="0"/>
@@ -5284,7 +5290,7 @@
         <v>0.7</v>
       </c>
       <c r="K55" s="6" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L55">
         <v>0</v>
@@ -5296,7 +5302,7 @@
         <v>0.6</v>
       </c>
       <c r="Q55" s="18" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="R55">
         <f t="shared" si="0"/>
@@ -5333,7 +5339,7 @@
         <v>1.1</v>
       </c>
       <c r="K56" s="6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="L56">
         <v>0</v>
@@ -5345,7 +5351,7 @@
         <v>0.9</v>
       </c>
       <c r="Q56" s="18" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="R56">
         <f t="shared" si="0"/>
@@ -5382,7 +5388,7 @@
         <v>1.1</v>
       </c>
       <c r="K57" s="6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="L57">
         <v>0</v>
@@ -5394,7 +5400,7 @@
         <v>0.9</v>
       </c>
       <c r="Q57" s="18" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="R57">
         <f t="shared" si="0"/>
@@ -5416,10 +5422,10 @@
         <v>13</v>
       </c>
       <c r="F58" s="15" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G58" s="15" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H58" s="5">
         <v>0</v>
@@ -5431,7 +5437,7 @@
         <v>1.1</v>
       </c>
       <c r="K58" s="6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="L58">
         <v>0</v>
@@ -5443,7 +5449,7 @@
         <v>0.9</v>
       </c>
       <c r="Q58" s="18" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="R58">
         <f t="shared" si="0"/>
@@ -5480,7 +5486,7 @@
         <v>1.1</v>
       </c>
       <c r="K59" s="6" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L59">
         <v>0</v>
@@ -5492,7 +5498,7 @@
         <v>0.9</v>
       </c>
       <c r="Q59" s="18" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="R59">
         <f t="shared" si="0"/>
@@ -5529,7 +5535,7 @@
         <v>1.8</v>
       </c>
       <c r="K60" s="6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="L60">
         <v>0</v>
@@ -5541,7 +5547,7 @@
         <v>1.5</v>
       </c>
       <c r="Q60" s="18" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="R60">
         <f t="shared" si="0"/>
@@ -5590,7 +5596,7 @@
         <v>0.6</v>
       </c>
       <c r="Q61" s="18" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="R61">
         <f t="shared" si="0"/>
@@ -5627,7 +5633,7 @@
         <v>1.8</v>
       </c>
       <c r="K62" s="6" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L62">
         <v>0</v>
@@ -5639,7 +5645,7 @@
         <v>1.5</v>
       </c>
       <c r="Q62" s="18" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="R62">
         <f t="shared" si="0"/>
@@ -5659,13 +5665,13 @@
       </c>
       <c r="D63" s="15"/>
       <c r="E63" s="15" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F63" s="15" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="H63" s="5">
         <v>0</v>
@@ -5684,14 +5690,14 @@
       </c>
       <c r="M63" s="17"/>
       <c r="N63" s="16" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="O63">
         <v>1.5</v>
       </c>
       <c r="P63" s="7"/>
       <c r="Q63" s="18" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="R63">
         <f t="shared" si="0"/>
@@ -5729,7 +5735,7 @@
         <v>1.8</v>
       </c>
       <c r="K64" s="6" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="L64">
         <v>0</v>
@@ -5741,7 +5747,7 @@
         <v>1.5</v>
       </c>
       <c r="Q64" s="18" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="R64">
         <f t="shared" si="0"/>
@@ -5760,13 +5766,13 @@
         <v>2</v>
       </c>
       <c r="E65" s="15" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="G65" s="4" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="H65" s="5">
         <v>0</v>
@@ -5778,7 +5784,7 @@
         <v>0.7</v>
       </c>
       <c r="K65" s="6" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="L65">
         <v>0</v>
@@ -5790,7 +5796,7 @@
         <v>0.6</v>
       </c>
       <c r="Q65" s="18" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="R65">
         <f t="shared" si="0"/>
@@ -5810,13 +5816,13 @@
       </c>
       <c r="D66" s="15"/>
       <c r="E66" s="15" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F66" s="15" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="H66" s="5">
         <v>0</v>
@@ -5828,7 +5834,7 @@
         <v>1.8</v>
       </c>
       <c r="K66" s="16" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="L66">
         <v>0</v>
@@ -5842,7 +5848,7 @@
       </c>
       <c r="P66" s="7"/>
       <c r="Q66" s="18" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="R66">
         <f t="shared" si="0"/>
@@ -5880,7 +5886,7 @@
         <v>1.8</v>
       </c>
       <c r="K67" s="6" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="L67">
         <v>0</v>
@@ -5892,7 +5898,7 @@
         <v>1.5</v>
       </c>
       <c r="Q67" s="18" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="R67">
         <f t="shared" si="0"/>
@@ -5941,7 +5947,7 @@
         <v>0.9</v>
       </c>
       <c r="Q68" s="18" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="R68">
         <f t="shared" si="0"/>
@@ -5960,13 +5966,13 @@
         <v>2</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="G69" s="4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="H69" s="5">
         <v>0</v>
@@ -5978,7 +5984,7 @@
         <v>1.4</v>
       </c>
       <c r="K69" s="6" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="L69">
         <v>0</v>
@@ -5990,7 +5996,7 @@
         <v>1.2</v>
       </c>
       <c r="Q69" s="18" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="R69">
         <f t="shared" si="0"/>
@@ -6027,7 +6033,7 @@
         <v>1.1</v>
       </c>
       <c r="K70" s="6" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="L70">
         <v>0</v>
@@ -6039,7 +6045,7 @@
         <v>0.9</v>
       </c>
       <c r="Q70" s="18" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="R70">
         <f t="shared" si="0"/>
@@ -6076,7 +6082,7 @@
         <v>1.1</v>
       </c>
       <c r="K71" s="6" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="L71">
         <v>0</v>
@@ -6088,7 +6094,7 @@
         <v>0.9</v>
       </c>
       <c r="Q71" s="18" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="R71">
         <f t="shared" si="0"/>
@@ -6137,7 +6143,7 @@
         <v>0.9</v>
       </c>
       <c r="Q72" s="18" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="R72">
         <f t="shared" si="0"/>
@@ -6183,7 +6189,7 @@
         <v>1.2</v>
       </c>
       <c r="Q73" s="18" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="R73">
         <f t="shared" si="0"/>
@@ -6232,7 +6238,7 @@
         <v>0.6</v>
       </c>
       <c r="Q74" s="18" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="R74">
         <f t="shared" si="0"/>
@@ -6281,7 +6287,7 @@
         <v>1.5</v>
       </c>
       <c r="Q75" s="18" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="R75">
         <f t="shared" si="0"/>
@@ -6321,7 +6327,7 @@
         <v>1.2</v>
       </c>
       <c r="Q76" s="18" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="R76">
         <f t="shared" si="0"/>
@@ -6358,14 +6364,14 @@
         <v>0.5</v>
       </c>
       <c r="Q77" s="18" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="R77">
         <f t="shared" si="0"/>
         <v>0.4</v>
       </c>
       <c r="S77" s="4" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="78" ht="54" spans="1:19">
@@ -6398,14 +6404,14 @@
         <v>0.9</v>
       </c>
       <c r="Q78" s="18" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="R78">
         <f t="shared" si="0"/>
         <v>0.6</v>
       </c>
       <c r="S78" s="4" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="79" ht="54" spans="1:18">
@@ -6447,7 +6453,7 @@
         <v>1.2</v>
       </c>
       <c r="Q79" s="18" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="R79">
         <f t="shared" si="0"/>
@@ -6496,7 +6502,7 @@
         <v>1.2</v>
       </c>
       <c r="Q80" s="18" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="R80">
         <f t="shared" si="0"/>
@@ -6579,7 +6585,7 @@
         <v>1.1</v>
       </c>
       <c r="K82" s="6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="L82">
         <v>0</v>
@@ -6591,7 +6597,7 @@
         <v>0.9</v>
       </c>
       <c r="Q82" s="18" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="R82">
         <f t="shared" si="0"/>
@@ -6628,7 +6634,7 @@
         <v>0.7</v>
       </c>
       <c r="K83" s="6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="L83">
         <v>0</v>
@@ -6640,7 +6646,7 @@
         <v>0.6</v>
       </c>
       <c r="Q83" s="18" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="R83">
         <f t="shared" si="0"/>
@@ -6668,7 +6674,7 @@
         <v>1.4</v>
       </c>
       <c r="K84" s="6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="L84">
         <v>0</v>
@@ -6680,7 +6686,7 @@
         <v>1.2</v>
       </c>
       <c r="Q84" s="18" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="R84">
         <f t="shared" si="0"/>
@@ -6714,7 +6720,7 @@
         <v>1.4</v>
       </c>
       <c r="K85" s="6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="L85">
         <v>0</v>
@@ -6726,7 +6732,7 @@
         <v>1.2</v>
       </c>
       <c r="Q85" s="18" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="R85">
         <f t="shared" si="0"/>
@@ -6763,14 +6769,14 @@
         <v>0.9</v>
       </c>
       <c r="Q86" s="18" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="R86">
         <f t="shared" si="0"/>
         <v>0.6</v>
       </c>
       <c r="S86" s="4" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="87" ht="54" spans="1:18">
@@ -6788,10 +6794,10 @@
         <v>1</v>
       </c>
       <c r="F87" s="4" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="G87" s="4" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="H87" s="5">
         <v>0</v>
@@ -6803,7 +6809,7 @@
         <v>1.1</v>
       </c>
       <c r="K87" s="6" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L87">
         <v>0</v>
@@ -6815,7 +6821,7 @@
         <v>0.9</v>
       </c>
       <c r="Q87" s="18" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="R87">
         <f t="shared" si="0"/>
@@ -6864,7 +6870,7 @@
         <v>1.2</v>
       </c>
       <c r="Q88" s="18" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="R88">
         <f t="shared" si="0"/>
@@ -6886,10 +6892,10 @@
         <v>1</v>
       </c>
       <c r="F89" s="4" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G89" s="4" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="H89" s="5">
         <v>0</v>
@@ -6901,7 +6907,7 @@
         <v>1.1</v>
       </c>
       <c r="K89" s="6" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L89">
         <v>0</v>
@@ -6913,7 +6919,7 @@
         <v>0.9</v>
       </c>
       <c r="Q89" s="18" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="R89">
         <f t="shared" si="0"/>
@@ -6950,7 +6956,7 @@
         <v>1.1</v>
       </c>
       <c r="K90" s="6" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L90">
         <v>0</v>
@@ -6962,7 +6968,7 @@
         <v>0.9</v>
       </c>
       <c r="Q90" s="18" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="R90">
         <f t="shared" si="0"/>
@@ -6981,13 +6987,13 @@
         <v>1</v>
       </c>
       <c r="E91" s="4" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F91" s="4" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G91" s="4" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="H91" s="5">
         <v>0</v>
@@ -7011,7 +7017,7 @@
         <v>0.6</v>
       </c>
       <c r="Q91" s="18" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="R91">
         <f t="shared" si="0"/>
@@ -7033,10 +7039,10 @@
         <v>1</v>
       </c>
       <c r="F92" s="4" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G92" s="4" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="H92" s="5">
         <v>0</v>
@@ -7128,13 +7134,13 @@
         <v>0</v>
       </c>
       <c r="E94" s="4" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="F94" s="4" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="G94" s="4" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="H94" s="5">
         <v>0</v>
@@ -7170,7 +7176,7 @@
         <v>93</v>
       </c>
       <c r="B95" s="20" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C95" s="3">
         <v>0</v>
@@ -7203,7 +7209,7 @@
         <v>0.25</v>
       </c>
       <c r="Q95" s="18" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="R95">
         <f t="shared" si="1"/>
@@ -7215,7 +7221,7 @@
         <v>94</v>
       </c>
       <c r="B96" s="20" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C96" s="3">
         <v>0</v>
@@ -7248,7 +7254,7 @@
         <v>0.25</v>
       </c>
       <c r="Q96" s="18" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="R96">
         <f t="shared" si="1"/>
@@ -7260,7 +7266,7 @@
         <v>95</v>
       </c>
       <c r="B97" s="20" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C97" s="3">
         <v>0</v>
@@ -7272,7 +7278,7 @@
         <v>13</v>
       </c>
       <c r="G97" s="4" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="H97" s="5">
         <v>0</v>
@@ -7293,7 +7299,7 @@
         <v>0.25</v>
       </c>
       <c r="Q97" s="18" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="R97">
         <f t="shared" si="1"/>
@@ -7339,14 +7345,14 @@
         <v>0.9</v>
       </c>
       <c r="Q98" s="18" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="R98">
         <f t="shared" si="1"/>
         <v>0.6</v>
       </c>
       <c r="S98" s="22" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
